--- a/data/data_lunch_lab_allocated.xlsx
+++ b/data/data_lunch_lab_allocated.xlsx
@@ -472,393 +472,393 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>215</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['6_CSE_A', '6_CSE_B', '6_CSE_C', '6_CSE_D', '6_CSE_E', '6_AIDS_F', '6_AIDS_G', '6_AIDS_H', '6_CSBT_I', '6_IoTA_J', '6_IT_K', '6_IT_L', '6_ICT_M', '6_CSBS_N']</t>
+          <t>6_IT_K, 6_IT_L, 6_ICT_M</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['MINOR_6']</t>
+          <t>INT302R01, INT309</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['MINOR_6']</t>
+          <t>Dr. R. Venkatesan, Dr. R. S. Raghav, Dr. C. Thaventhiran, Dr. K. Hariharan</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(0, 6), (0, 7), (3, 0), (3, 1)]</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>216</v>
+        <v>33</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['4_CSE_A', '4_CSE_B', '4_CSE_C', '4_CSE_D', '4_CSE_E', '4_AIDS_F', '4_AIDS_G', '4_AIDS_H', '4_CSBT_I', '4_IoTA_J', '4_IT_K', '4_IT_L', '4_ICT_M', '4_CSBS_N']</t>
+          <t>6_AIDS_F, 6_AIDS_G, 6_AIDS_H</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['MINOR_4']</t>
+          <t>CSE334R01, CSE413R01</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['MINOR_4']</t>
+          <t>Dr. B. Thamotharan, Dr. P. Immaculate Rexi Jenifer, Dr. J. Premaladha, Dr. A. Emily Jenifer</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(1, 6), (1, 7), (4, 0), (4, 1)]</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>217</v>
+        <v>83</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['4_CSE_A', '4_CSE_C', '4_CSE_D', '4_CSE_E', '4_AIDS_F', '4_CSBT_I', '4_IT_K', '4_IT_L', '4_CSBS_N', '6_CSE_A', '6_CSBT_I', '6_IoTA_J', '6_IT_K', '6_ICT_M']</t>
+          <t>6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['LUNCH_DAY_1_HOUR_4']</t>
+          <t>CSE405R02, INT309, INT302R01</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['nan']</t>
+          <t>Dr. S. Pradeepa, Dr. P. Shanthi, Dr. M. Sumathi, Dr. H. Anilaglory, Dr. R. S. Raghav, Dr. C. Thaventhiran, Dr. B. Thamotharan</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(0, 3)]</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>218</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['4_CSE_B', '4_AIDS_G', '4_AIDS_H', '4_IoTA_J', '4_ICT_M', '6_CSE_B', '6_CSE_C', '6_CSE_D', '6_CSE_E', '6_AIDS_F', '6_AIDS_G', '6_AIDS_H', '6_IT_L', '6_CSBS_N']</t>
+          <t>6_IT_L</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['LUNCH_DAY_1_HOUR_5']</t>
+          <t>CSE315R02, INT407</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['nan']</t>
+          <t>Dr. A. Sivapathi, Dr. Ramya, Dr. A. Emily Jenifer, Dr. N. Moratanch</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(0, 4)]</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>219</v>
+        <v>7</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['4_CSE_A', '4_CSE_B', '4_CSE_C', '4_IT_K', '4_IT_L', '6_CSE_A', '6_CSE_B', '6_CSE_D', '6_AIDS_F', '6_AIDS_H', '6_CSBT_I', '6_IT_L', '6_ICT_M', '6_CSBS_N']</t>
+          <t>6_IT_L</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['LUNCH_DAY_2_HOUR_4']</t>
+          <t>CSE315R02, INT407</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['nan']</t>
+          <t>Dr. A. Sivapathi, Dr. Ramya, Dr. A. Emily Jenifer, Dr. M. Rajakumaran</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(1, 3)]</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>220</v>
+        <v>9</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['4_CSE_D', '4_CSE_E', '4_AIDS_F', '4_AIDS_G', '4_AIDS_H', '4_CSBT_I', '4_IoTA_J', '4_ICT_M', '4_CSBS_N', '6_CSE_C', '6_CSE_E', '6_AIDS_G', '6_IoTA_J', '6_IT_K']</t>
+          <t>6_IT_L</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['LUNCH_DAY_2_HOUR_5']</t>
+          <t>CSE405R02</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['nan']</t>
+          <t>Dr. V. Venkatesh, Shri B. Ramneshkar</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(1, 4)]</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>221</v>
+        <v>10</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['4_CSE_A', '4_CSE_B', '4_CSE_C', '4_CSE_E', '4_CSBT_I', '4_ICT_M', '4_CSBS_N', '6_CSE_B', '6_CSE_D', '6_CSE_E', '6_CSBT_I', '6_IoTA_J', '6_IT_L', '6_CSBS_N']</t>
+          <t>6_IT_L</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['LUNCH_DAY_3_HOUR_4']</t>
+          <t>TNP102R01</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['nan']</t>
+          <t>Shri S. Nesakumaran</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(2, 3)]</t>
+          <t>(1, 2), (1, 3)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>222</v>
+        <v>14</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['4_CSE_D', '4_AIDS_F', '4_AIDS_G', '4_AIDS_H', '4_IoTA_J', '4_IT_K', '4_IT_L', '6_CSE_A', '6_CSE_C', '6_AIDS_F', '6_AIDS_G', '6_AIDS_H', '6_IT_K', '6_ICT_M']</t>
+          <t>6_IT_K</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['LUNCH_DAY_3_HOUR_5']</t>
+          <t>CSE315R02, INT407</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['nan']</t>
+          <t>Dr. K. Chakrapani, Dr. A. L. Sriram, Dr. R. Nithya, Dr. N. Moratanch</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(2, 4)]</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['4_CSE_B', '4_CSE_D', '4_AIDS_F', '4_AIDS_G', '4_AIDS_H', '4_CSBT_I', '4_IoTA_J', '4_IT_L', '6_CSE_C', '6_CSE_D', '6_CSE_E', '6_AIDS_G', '6_IT_K', '6_CSBS_N']</t>
+          <t>6_IT_K</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['LUNCH_DAY_4_HOUR_4']</t>
+          <t>CSE315R02, INT407</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['nan']</t>
+          <t>Dr. K. Chakrapani, Dr. A. L. Sriram, Dr. R. Nithya, Dr. N. Moratanch</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(3, 3)]</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>224</v>
+        <v>17</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['4_CSE_A', '4_CSE_C', '4_CSE_E', '4_IT_K', '4_ICT_M', '4_CSBS_N', '6_CSE_A', '6_CSE_B', '6_AIDS_F', '6_AIDS_H', '6_CSBT_I', '6_IoTA_J', '6_IT_L', '6_ICT_M']</t>
+          <t>6_IT_K</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['LUNCH_DAY_4_HOUR_5']</t>
+          <t>CSE405R02</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['nan']</t>
+          <t>Dr. A. Suganya, Dr. S. Pradeepa</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(3, 4)]</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>225</v>
+        <v>18</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['4_CSE_E', '4_AIDS_F', '4_AIDS_G', '4_AIDS_H', '4_IoTA_J', '4_IT_K', '6_CSE_B', '6_CSE_C', '6_CSE_E', '6_AIDS_G', '6_AIDS_H', '6_IoTA_J', '6_IT_K', '6_ICT_M']</t>
+          <t>6_IT_K</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['LUNCH_DAY_5_HOUR_4']</t>
+          <t>TNP102R01</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>['nan']</t>
+          <t>Shri V. Chandrasekar</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(4, 3)]</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>226</v>
+        <v>24</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['4_CSE_A', '4_CSE_B', '4_CSE_C', '4_CSE_D', '4_CSBT_I', '4_IT_L', '4_CSBS_N', '6_CSE_A', '6_CSE_D', '6_CSBT_I', '6_IT_L', '6_CSBS_N']</t>
+          <t>4_IT_K</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['LUNCH_DAY_5_HOUR_5']</t>
+          <t>CSE306R01, CSE309R01</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['nan']</t>
+          <t>Dr. R. Anushiadevi, Smt. W. R. Helen, Dr. P. Manivannan, Dr. S. Rajarajan</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(4, 4)]</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['6_IT_K', '6_IT_L', '6_ICT_M']</t>
+          <t>4_IT_K</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['INT302R01', 'INT309']</t>
+          <t>CSE306R01, CSE309R01</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['Dr. R. Venkatesan', 'Dr. R. S. Raghav', 'Dr. C. Thaventhiran', 'Dr. K. Hariharan']</t>
+          <t>Dr. R. Anushiadevi, Smt. W. R. Helen, Dr. P. Manivannan, Dr. S. Rajarajan</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -869,27 +869,27 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(2, 0), (2, 1)]</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['6_AIDS_F', '6_AIDS_G', '6_AIDS_H']</t>
+          <t>4_IT_L</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['CSE334R01', 'CSE413R01']</t>
+          <t>CSE306R01, CSE309R01</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['Dr. B. Thamotharan', 'Dr. P. Immaculate Rexi Jenifer', 'Dr. J. Premaladha', 'Dr. A. Emily Jenifer']</t>
+          <t>Dr. T. Renugadevi, Dr. S. Markkandeyan, Dr. K. Geetha, Dr. R. Devika</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -900,27 +900,27 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(4, 6), (4, 7)]</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['6_CSE_A', '6_CSE_B', '6_CSE_C', '6_CSE_D', '6_CSE_E']</t>
+          <t>4_IT_L</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['CSE405R02', 'INT309', 'INT302R01']</t>
+          <t>CSE306R01, CSE309R01</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>['Dr. S. Pradeepa', 'Dr. P. Shanthi', 'Dr. M. Sumathi', 'Dr. H. Anilaglory', 'Dr. R. S. Raghav', 'Dr. C. Thaventhiran', 'Dr. B. Thamotharan']</t>
+          <t>Dr. T. Renugadevi, Dr. S. Markkandeyan, Dr. K. Geetha, Dr. R. Devika</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -931,27 +931,27 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(1, 6), (1, 7)]</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['6_IT_L']</t>
+          <t>6_AIDS_F</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['CSE315R02', 'INT407']</t>
+          <t>INT441R01</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>['Dr. A. Sivapathi', 'Dr. Ramya', 'Dr. A. Emily Jenifer', 'Dr. N. Moratanch']</t>
+          <t>Dr. S. Pradeepa, Dr. S. Vishnika Veni, Dr. M. Jayasheela Rakkini</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -962,27 +962,27 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[(2, 4), (2, 5)]</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['6_IT_L']</t>
+          <t>6_AIDS_F</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['CSE315R02', 'INT407']</t>
+          <t>INT407, CSE433</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>['Dr. A. Sivapathi', 'Dr. Ramya', 'Dr. A. Emily Jenifer', 'Dr. M. Rajakumaran']</t>
+          <t>Dr. A. Emily Jenifer, Dr. M. Rajakumaran, Dr. K. R. Manjula, Smt. S. Majina Baby</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -993,27 +993,27 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[(0, 2), (0, 3)]</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['6_IT_L']</t>
+          <t>6_AIDS_F</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['CSE405R02']</t>
+          <t>INT407, CSE433</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['Dr. V. Venkatesh', 'Shri B. Ramneshkar']</t>
+          <t>Dr. A. Emily Jenifer, Dr. P. Sathyaprakash, Dr. K. R. Manjula, Smt. S. Majina Baby</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1024,27 +1024,27 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[(3, 6), (3, 7)]</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['6_IT_L']</t>
+          <t>6_AIDS_F</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['TNP102R01']</t>
+          <t>TNP102R01</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>['Shri S. Nesakumaran']</t>
+          <t>Shri K. Arunkumar</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1055,27 +1055,27 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[(4, 6), (4, 7)]</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['6_IT_K']</t>
+          <t>6_AIDS_G</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['CSE315R02', 'INT407']</t>
+          <t>INT441R01</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>['Dr. K. Chakrapani', 'Dr. A. L. Sriram', 'Dr. R. Nithya', 'Dr. N. Moratanch']</t>
+          <t>Dr. S. Vishnika Veni, Dr. S. Pradeepa, Dr. M. Jayasheela Rakkini</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1086,27 +1086,27 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[(2, 6), (2, 7)]</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['6_IT_K']</t>
+          <t>6_AIDS_G</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['CSE315R02', 'INT407']</t>
+          <t>INT407, CSE433</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>['Dr. K. Chakrapani', 'Dr. A. L. Sriram', 'Dr. R. Nithya', 'Dr. N. Moratanch']</t>
+          <t>Dr. A. Suganya, Dr. M. Jayasheela Rakkini, Dr. K. Praveen Kumar, Smt. A. Srilakshmi</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1117,27 +1117,27 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[(0, 0), (0, 1)]</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['6_IT_K']</t>
+          <t>6_AIDS_G</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['CSE405R02']</t>
+          <t>INT407, CSE433</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>['Dr. A. Suganya', 'Dr. S. Pradeepa']</t>
+          <t>Dr. A. Suganya, Dr. S. Vidivelli, Dr. K. Praveen Kumar, Smt. A. Srilakshmi</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1148,27 +1148,27 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[(3, 4), (3, 5)]</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['6_IT_K']</t>
+          <t>6_AIDS_G</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['TNP102R01']</t>
+          <t>TNP102R01</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>['Shri V. Chandrasekar']</t>
+          <t>Shri M. B. Sundhararaj</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1179,27 +1179,27 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[(3, 6), (3, 7)]</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['4_IT_K']</t>
+          <t>6_AIDS_H</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['CSE306R01', 'CSE309R01']</t>
+          <t>INT441R01</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>['Dr. R. Anushiadevi', 'Smt. W. R. Helen', 'Dr. P. Manivannan', 'Dr. S. Rajarajan']</t>
+          <t>Dr. M. Jayasheela Rakkini, Dr. S. Pradeepa, Dr. S. Vishnika Veni</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1210,27 +1210,27 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[(2, 0), (2, 1)]</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['4_IT_K']</t>
+          <t>6_AIDS_H</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['CSE306R01', 'CSE309R01']</t>
+          <t>INT407, CSE433</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>['Dr. R. Anushiadevi', 'Smt. W. R. Helen', 'Dr. P. Manivannan', 'Dr. S. Rajarajan']</t>
+          <t>Dr. P. Sathyaprakash, Dr. M. Rajakumaran, Dr. C. Thaventhiran, Dr. K. Praveen Kumar</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1241,27 +1241,27 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[(4, 6), (4, 7)]</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['4_IT_L']</t>
+          <t>6_AIDS_H</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>['CSE306R01', 'CSE309R01']</t>
+          <t>INT407, CSE433</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>['Dr. T. Renugadevi', 'Dr. S. Markkandeyan', 'Dr. K. Geetha', 'Dr. R. Devika']</t>
+          <t>Dr. P. Sathyaprakash, Dr. S. Vidivelli, Dr. C. Thaventhiran, Smt. A. Srilakshmi</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1272,27 +1272,27 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[(3, 4), (3, 5)]</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['4_IT_L']</t>
+          <t>6_AIDS_H</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['CSE306R01', 'CSE309R01']</t>
+          <t>TNP102R01</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>['Dr. T. Renugadevi', 'Dr. S. Markkandeyan', 'Dr. K. Geetha', 'Dr. R. Devika']</t>
+          <t>Shri V. Chandrasekar</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1303,27 +1303,27 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>[(4, 2), (4, 3)]</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['6_AIDS_F']</t>
+          <t>4_AIDS_F</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>['INT441R01']</t>
+          <t>CSE304</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>['Dr. S. Pradeepa', 'Dr. S. Vishnika Veni', 'Dr. M. Jayasheela Rakkini']</t>
+          <t>Dr. S. Kamakshi, Dr. M. Ifjaz Ahmed, Dr. V. Anand</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1334,27 +1334,27 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>[(1, 6), (1, 7)]</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['6_AIDS_F']</t>
+          <t>4_AIDS_F</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>['INT407', 'CSE433']</t>
+          <t>CSE206R02, CSE306R01</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>['Dr. A. Emily Jenifer', 'Dr. M. Rajakumaran', 'Dr. K. R. Manjula', 'Smt. S. Majina Baby']</t>
+          <t>Dr. V. Venkatesh, Dr. K. Hariharan, Dr. P. L. K. Priyadarsini, Dr. V. Meena</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1365,27 +1365,27 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>[(0, 2), (0, 3)]</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>['6_AIDS_F']</t>
+          <t>4_AIDS_F</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>['INT407', 'CSE433']</t>
+          <t>CSE206R02, CSE306R01</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>['Dr. A. Emily Jenifer', 'Dr. P. Sathyaprakash', 'Dr. K. R. Manjula', 'Smt. S. Majina Baby']</t>
+          <t>Dr. V. Venkatesh, Dr. K. Hariharan, Dr. P. L. K. Priyadarsini, Dr. S. Priya</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1396,27 +1396,27 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>[(1, 0), (1, 1)]</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['6_AIDS_F']</t>
+          <t>4_AIDS_G</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>['TNP102R01']</t>
+          <t>CSE304</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>['Shri K. Arunkumar']</t>
+          <t>Dr. K. Rajkumar, Dr. M. Ifjaz Ahmed, Dr. V. Anand</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1427,27 +1427,27 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>[(4, 4), (4, 5)]</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>['6_AIDS_G']</t>
+          <t>4_AIDS_G</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>['INT441R01']</t>
+          <t>CSE206R02, CSE306R01</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>['Dr. S. Vishnika Veni', 'Dr. S. Pradeepa', 'Dr. M. Jayasheela Rakkini']</t>
+          <t>Dr. M. Devisri Nandhini, Dr. P. Immaculate Rexi Jenifer, Dr. T. Pasupathi, Dr. M. V. Rajilal</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1458,27 +1458,27 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>[(4, 0), (4, 1)]</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>['6_AIDS_G']</t>
+          <t>4_AIDS_G</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>['INT407', 'CSE433']</t>
+          <t>CSE206R02, CSE306R01</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>['Dr. A. Suganya', 'Dr. M. Jayasheela Rakkini', 'Dr. K. Praveen Kumar', 'Smt. A. Srilakshmi']</t>
+          <t>Dr. M. Devisri Nandhini, Dr. P. Immaculate Rexi Jenifer, Dr. T. Pasupathi, Dr. R. Sivaraman</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1489,27 +1489,27 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>[(1, 0), (1, 1)]</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>['6_AIDS_G']</t>
+          <t>4_AIDS_H</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>['INT407', 'CSE433']</t>
+          <t>CSE304</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>['Dr. A. Suganya', 'Dr. S. Vidivelli', 'Dr. K. Praveen Kumar', 'Smt. A. Srilakshmi']</t>
+          <t>Smt. W. R. Helen, Dr. M. Ifjaz Ahmed, Dr. V. Anand</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1520,27 +1520,27 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>[(3, 4), (3, 5)]</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>['6_AIDS_G']</t>
+          <t>4_AIDS_H</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>['TNP102R01']</t>
+          <t>CSE206R02, CSE306R01</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>['Shri M. B. Sundhararaj']</t>
+          <t>Shri R. Vijay Sai, Dr. R. Ezhilarasie, Dr. P. Immaculate Rexi Jenifer, Dr. V. Nirmala</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1551,27 +1551,27 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>[(2, 6), (2, 7)]</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>['6_AIDS_H']</t>
+          <t>4_AIDS_H</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>['INT441R01']</t>
+          <t>CSE206R02, CSE306R01</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>['Dr. M. Jayasheela Rakkini', 'Dr. S. Pradeepa', 'Dr. S. Vishnika Veni']</t>
+          <t>Shri R. Vijay Sai, Dr. R. Ezhilarasie, Dr. P. Immaculate Rexi Jenifer, Smt. L. Gowri</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1582,27 +1582,27 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>[(4, 0), (4, 1)]</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>['6_AIDS_H']</t>
+          <t>6_CSE_A</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>['INT407', 'CSE433']</t>
+          <t>CSE315R02, CSE403</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>['Dr. P. Sathyaprakash', 'Dr. M. Rajakumaran', 'Dr. C. Thaventhiran', 'Dr. K. Praveen Kumar']</t>
+          <t>Dr. K. Chakrapani, Dr. A. Sivapathi, Dr. N. Senthil Selvan, Dr. R. Devika</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1613,27 +1613,27 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>[(3, 2), (3, 3)]</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>['6_AIDS_H']</t>
+          <t>6_CSE_A</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>['INT407', 'CSE433']</t>
+          <t>CSE315R02, CSE403</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>['Dr. P. Sathyaprakash', 'Dr. S. Vidivelli', 'Dr. C. Thaventhiran', 'Smt. A. Srilakshmi']</t>
+          <t>Dr. K. Chakrapani, Dr. A. Sivapathi, Dr. N. Senthil Selvan, Dr. M.Sumathi</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1644,27 +1644,27 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>[(0, 0), (0, 1)]</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>['6_AIDS_H']</t>
+          <t>6_CSE_A</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>['TNP102R01']</t>
+          <t>TNP102R01</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>['Shri V. Chandrasekar']</t>
+          <t>Shri V. Chandrasekar</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1675,27 +1675,27 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>[(3, 6), (3, 7)]</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>['4_AIDS_F']</t>
+          <t>6_CSE_B</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>['CSE304']</t>
+          <t>CSE315R02, CSE403</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>['Dr. S. Kamakshi', 'Dr. M. Ifjaz Ahmed', 'Dr. V. Anand']</t>
+          <t>Dr. P. Padmakumari, Ms. M. Vijaya Sakthi, Dr. A. Joy Christy, Dr. Ramya</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1706,27 +1706,27 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>[(2, 2), (2, 3)]</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>['4_AIDS_F']</t>
+          <t>6_CSE_B</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>['CSE206R02', 'CSE306R01']</t>
+          <t>CSE315R02, CSE403</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>['Dr. V. Venkatesh', 'Dr. K. Hariharan', 'Dr. P. L. K. Priyadarsini', 'Dr. V. Meena']</t>
+          <t>Dr. P. Padmakumari, Ms. M. Vijaya Sakthi, Dr. A. Joy Christy, Dr. J. Premaladha</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1737,27 +1737,27 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>[(4, 6), (4, 7)]</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>['4_AIDS_F']</t>
+          <t>6_CSE_B</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>['CSE206R02', 'CSE306R01']</t>
+          <t>TNP102R01</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>['Dr. V. Venkatesh', 'Dr. K. Hariharan', 'Dr. P. L. K. Priyadarsini', 'Dr. S. Priya']</t>
+          <t>Ms. V. Karthika</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1768,27 +1768,27 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>[(2, 0), (2, 1)]</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>['4_AIDS_G']</t>
+          <t>6_CSE_C</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>['CSE304']</t>
+          <t>CSE315R02, CSE403</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>['Dr. K. Rajkumar', 'Dr. M. Ifjaz Ahmed', 'Dr. V. Anand']</t>
+          <t>Dr. A. Joy Christy, Dr. G. Pradeep, Shri S. Ananthakrishnan, Dr. P. Padmakumari</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1799,27 +1799,27 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>[(2, 2), (2, 3)]</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>['4_AIDS_G']</t>
+          <t>6_CSE_C</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>['CSE206R02', 'CSE306R01']</t>
+          <t>CSE315R02, CSE403</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>['Dr. M. Devisri Nandhini', 'Dr. P. Immaculate Rexi Jenifer', 'Dr. T. Pasupathi', 'Dr. M. V. Rajilal']</t>
+          <t>Dr. A. Joy Christy, Dr. A. L. Sriram, Shri S. Ananthakrishnan, Dr. P. Shanthi</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1830,27 +1830,27 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>[(0, 2), (0, 3)]</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>['4_AIDS_G']</t>
+          <t>6_CSE_C</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>['CSE206R02', 'CSE306R01']</t>
+          <t>TNP102R01</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>['Dr. M. Devisri Nandhini', 'Dr. P. Immaculate Rexi Jenifer', 'Dr. T. Pasupathi', 'Dr. R. Sivaraman']</t>
+          <t>Shri K. Arunkumar</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1861,27 +1861,27 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>[(3, 4), (3, 5)]</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>['4_AIDS_H']</t>
+          <t>6_CSE_D</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>['CSE304']</t>
+          <t>CSE315R02, CSE403</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>['Smt. W. R. Helen', 'Dr. M. Ifjaz Ahmed', 'Dr. V. Anand']</t>
+          <t>Dr. M. Sumathi, Dr. P. Shanthi, Dr. B. Lakshmi, Dr. J. Premaladha</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1892,27 +1892,27 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>[(2, 0), (2, 1)]</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>['4_AIDS_H']</t>
+          <t>6_CSE_D</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>['CSE206R02', 'CSE306R01']</t>
+          <t>CSE315R02, CSE403</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>['Shri R. Vijay Sai', 'Dr. R. Ezhilarasie', 'Dr. P. Immaculate Rexi Jenifer', 'Dr. V. Nirmala']</t>
+          <t>Dr. M. Sumathi, Dr. P. Shanthi, Dr. B. Lakshmi, Dr. R. Manikandan</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -1923,27 +1923,27 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>[(0, 6), (0, 7)]</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>['4_AIDS_H']</t>
+          <t>6_CSE_D</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>['CSE206R02', 'CSE306R01']</t>
+          <t>TNP102R01</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>['Shri R. Vijay Sai', 'Dr. R. Ezhilarasie', 'Dr. P. Immaculate Rexi Jenifer', 'Smt. L. Gowri']</t>
+          <t>Shri S. Nesakumaran</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -1954,27 +1954,27 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>[(3, 6), (3, 7)]</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>['6_CSE_A']</t>
+          <t>6_CSE_E</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>['CSE315R02', 'CSE403']</t>
+          <t>CSE315R02, CSE403</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>['Dr. K. Chakrapani', 'Dr. A. Sivapathi', 'Dr. N. Senthil Selvan', 'Dr. R. Devika']</t>
+          <t>Dr. Ramya, Dr. V. Nirmala, Shri S. Ananthakrishnan, Dr. N. Senthil Selvan</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -1985,27 +1985,27 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[(0, 4), (0, 5)]</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>['6_CSE_A']</t>
+          <t>6_CSE_E</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>['CSE315R02', 'CSE403']</t>
+          <t>CSE315R02, CSE403</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>['Dr. K. Chakrapani', 'Dr. A. Sivapathi', 'Dr. N. Senthil Selvan', 'Dr. M.Sumathi']</t>
+          <t>Dr. Ramya, Dr. V. Nirmala, Shri S. Ananthakrishnan, Dr. R. Devika</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2016,27 +2016,27 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[(4, 2), (4, 3)]</t>
+          <t>(2, 2), (2, 3)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>['6_CSE_A']</t>
+          <t>6_CSE_E</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>['TNP102R01']</t>
+          <t>TNP102R01</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>['Shri V. Chandrasekar']</t>
+          <t>Shri K. M. Murugappan</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2047,27 +2047,27 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[(1, 0), (1, 1)]</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>['6_CSE_B']</t>
+          <t>4_CSE_A</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>['CSE315R02', 'CSE403']</t>
+          <t>CSE206R02, CSE306R01</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>['Dr. P. Padmakumari', 'Ms. M. Vijaya Sakthi', 'Dr. A. Joy Christy', 'Dr. Ramya']</t>
+          <t>Dr. K. S. Suresh, Dr. M. V. Rajilal, Dr. V. Meena, Dr. V. Nirmala</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2078,27 +2078,27 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>[(2, 0), (2, 1)]</t>
+          <t>(3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>['6_CSE_B']</t>
+          <t>4_CSE_A</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>['CSE315R02', 'CSE403']</t>
+          <t>CSE206R02, CSE306R01</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>['Dr. P. Padmakumari', 'Ms. M. Vijaya Sakthi', 'Dr. A. Joy Christy', 'Dr. J. Premaladha']</t>
+          <t>Dr. K. S. Suresh, Dr. V. Venkatesh, Dr. V. Meena, Dr. M. Devisri Nandhini</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2109,27 +2109,27 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[(0, 2), (0, 3)]</t>
+          <t>(2, 2), (2, 3)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>['6_CSE_B']</t>
+          <t>4_CSE_B</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>['TNP102R01']</t>
+          <t>CSE206R02, CSE306R01</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>['Ms. V. Karthika']</t>
+          <t>Dr. R. Ezhilarasie, Dr. T. Pasupathi, Dr. T. Suriya Praba, Dr. B. Karthikeyan</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -2140,27 +2140,27 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>[(2, 4), (2, 5)]</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>['6_CSE_C']</t>
+          <t>4_CSE_B</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>['CSE315R02', 'CSE403']</t>
+          <t>CSE206R02, CSE306R01</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>['Dr. A. Joy Christy', 'Dr. G. Pradeep', 'Shri S. Ananthakrishnan', 'Dr. P. Padmakumari']</t>
+          <t>Dr. R. Ezhilarasie, Dr. T. Pasupathi, Dr. T. Suriya Praba, Dr. S. Priya</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -2171,27 +2171,27 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>[(0, 0), (0, 1)]</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>['6_CSE_C']</t>
+          <t>4_CSE_C</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>['CSE315R02', 'CSE403']</t>
+          <t>CSE206R02, CSE306R01</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>['Dr. A. Joy Christy', 'Dr. A. L. Sriram', 'Shri S. Ananthakrishnan', 'Dr. P. Shanthi']</t>
+          <t>Dr. K. Hariharan, Dr. K. Joseph Abraham Sundar, Dr. D. Umamaheswari, Dr. R. Anushiadevi</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -2202,27 +2202,27 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>[(0, 2), (0, 3)]</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>['6_CSE_C']</t>
+          <t>4_CSE_C</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>['TNP102R01']</t>
+          <t>CSE206R02, CSE306R01</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>['Shri K. Arunkumar']</t>
+          <t>Dr. K. Hariharan, Dr. K. Joseph Abraham Sundar, Dr. D. Umamaheswari, Dr. R. Anushiadevi</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -2233,27 +2233,27 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>[(3, 4), (3, 5)]</t>
+          <t>(3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>['6_CSE_D']</t>
+          <t>4_CSE_D</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>['CSE315R02', 'CSE403']</t>
+          <t>CSE206R02, CSE306R01</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>['Dr. M. Sumathi', 'Dr. P. Shanthi', 'Dr. B. Lakshmi', 'Dr. J. Premaladha']</t>
+          <t>Dr. M. Meenalochani, Dr. R. Ananth Hari, Dr. P. Anu, Dr. S. Jayasankari</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2264,27 +2264,27 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>[(4, 0), (4, 1)]</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>['6_CSE_D']</t>
+          <t>4_CSE_D</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>['CSE315R02', 'CSE403']</t>
+          <t>CSE206R02, CSE306R01</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>['Dr. M. Sumathi', 'Dr. P. Shanthi', 'Dr. B. Lakshmi', 'Dr. R. Manikandan']</t>
+          <t>Dr. M. Meenalochani, Dr. R. Ananth Hari, Dr. P. Anu, Dr. V. Nirmala</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -2295,27 +2295,27 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>[(4, 2), (4, 3)]</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>['6_CSE_D']</t>
+          <t>4_CSE_E</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>['TNP102R01']</t>
+          <t>CSE206R02, CSE306R01</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>['Shri S. Nesakumaran']</t>
+          <t>Dr. D. Muralidharan, Dr. R. Ananth Hari, Dr. S. Jayasankari, Dr. T. Suriya Praba</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -2326,27 +2326,27 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>[(3, 4), (3, 5)]</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>['6_CSE_E']</t>
+          <t>4_CSE_E</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>['CSE315R02', 'CSE403']</t>
+          <t>CSE206R02, CSE306R01</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>['Dr. Ramya', 'Dr. V. Nirmala', 'Shri S. Ananthakrishnan', 'Dr. N. Senthil Selvan']</t>
+          <t>Dr. D. Muralidharan, Dr. R. Ananth Hari, Dr. S. Jayasankari, Dr. P. Anu</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -2357,27 +2357,27 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>[(4, 0), (4, 1)]</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>['6_CSE_E']</t>
+          <t>6_CSBT_I</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>['CSE315R02', 'CSE403']</t>
+          <t>INT309</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>['Dr. Ramya', 'Dr. V. Nirmala', 'Shri S. Ananthakrishnan', 'Dr. R. Devika']</t>
+          <t>Dr. P. Shanthi, Dr. R. S. Raghav, Dr. R. Manikandan</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -2388,27 +2388,27 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>[(0, 2), (0, 3)]</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>['6_CSE_E']</t>
+          <t>6_CSBT_I</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>['TNP102R01']</t>
+          <t>INT427</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>['Shri K. M. Murugappan']</t>
+          <t>Dr. H. Anilaglory, Smt. I. Epistle, Dr. Sujeet S Jagtap, Dr. Dindayal Mahto</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -2419,27 +2419,27 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>[(0, 0), (0, 1)]</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>['4_CSE_A']</t>
+          <t>6_CSBT_I</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>['CSE206R02', 'CSE306R01']</t>
+          <t>INT321</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>['Dr. K. S. Suresh', 'Dr. M. V. Rajilal', 'Dr. V. Meena', 'Dr. V. Nirmala']</t>
+          <t>Dr. H. Anilaglory, Smt. I. Epistle, Dr. Sujeet S Jagtap, Dr. Dindayal Mahto</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -2450,27 +2450,27 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>[(0, 6), (0, 7)]</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>['4_CSE_A']</t>
+          <t>6_CSBT_I</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>['CSE206R02', 'CSE306R01']</t>
+          <t>TNP102R01</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>['Dr. K. S. Suresh', 'Dr. V. Venkatesh', 'Dr. V. Meena', 'Dr. M. Devisri Nandhini']</t>
+          <t>Shri M. B. Sundhararaj</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -2481,27 +2481,27 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>[(1, 4), (1, 5)]</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>['4_CSE_B']</t>
+          <t>4_CSBT_I</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>['CSE206R02', 'CSE306R01']</t>
+          <t>CSE206R02, CSE306R01</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>['Dr. R. Ezhilarasie', 'Dr. T. Pasupathi', 'Dr. T. Suriya Praba', 'Dr. B. Karthikeyan']</t>
+          <t>Dr. M. V. Rajilal, Dr. M. Meenalochani, Dr. S. Kamakshi, Dr. P. Immaculate Rexi Jenifer</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -2512,27 +2512,27 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>[(4, 6), (4, 7)]</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>['4_CSE_B']</t>
+          <t>4_CSBT_I</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>['CSE206R02', 'CSE306R01']</t>
+          <t>CSE206R02, CSE306R01</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>['Dr. R. Ezhilarasie', 'Dr. T. Pasupathi', 'Dr. T. Suriya Praba', 'Dr. S. Priya']</t>
+          <t>Dr. M. V. Rajilal, Dr. R. Ananth Hari, Dr. S. Kamakshi, Dr. D. Umamaheswari</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -2543,27 +2543,27 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>[(3, 6), (3, 7)]</t>
+          <t>(1, 2), (1, 3)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>['4_CSE_C']</t>
+          <t>6_ICT_M</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>['CSE206R02', 'CSE306R01']</t>
+          <t>INT407, ECE313</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>['Dr. K. Hariharan', 'Dr. K. Joseph Abraham Sundar', 'Dr. D. Umamaheswari', 'Dr. R. Anushiadevi']</t>
+          <t>Dr. S. Vidivelli, Dr. R. Nithya, Shri R. Vijay Sai, Dr. R. Saravanan</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -2574,27 +2574,27 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>[(3, 0), (3, 1)]</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>['4_CSE_C']</t>
+          <t>6_ICT_M</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>['CSE206R02', 'CSE306R01']</t>
+          <t>INT407, ECE314</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>['Dr. K. Hariharan', 'Dr. K. Joseph Abraham Sundar', 'Dr. D. Umamaheswari', 'Dr. R. Anushiadevi']</t>
+          <t>Dr. S. Vidivelli, Dr. H. Anilaglory, Shri R. Vijay Sai, Dr. R. Saravanan</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -2605,27 +2605,27 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>[(4, 6), (4, 7)]</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>['4_CSE_D']</t>
+          <t>6_ICT_M</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>['CSE206R02', 'CSE306R01']</t>
+          <t>TNP102R01</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>['Dr. M. Meenalochani', 'Dr. R. Ananth Hari', 'Dr. P. Anu', 'Dr. S. Jayasankari']</t>
+          <t>Shri S. Nesakumaran</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -2636,27 +2636,27 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>[(1, 2), (1, 3)]</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>['4_CSE_D']</t>
+          <t>4_ICT_M</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>['CSE206R02', 'CSE306R01']</t>
+          <t>CSE309R01, INT103R01</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>['Dr. M. Meenalochani', 'Dr. R. Ananth Hari', 'Dr. P. Anu', 'Dr. V. Nirmala']</t>
+          <t>Dr. B. Karthikeyan, Shri P. Rajendran, Dr. S. Palanivel, Dr. R. Venkatesan</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -2667,27 +2667,27 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>[(0, 6), (0, 7)]</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>['4_CSE_E']</t>
+          <t>4_ICT_M</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>['CSE206R02', 'CSE306R01']</t>
+          <t>CSE309R01, INT103R01</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>['Dr. D. Muralidharan', 'Dr. R. Ananth Hari', 'Dr. S. Jayasankari', 'Dr. T. Suriya Praba']</t>
+          <t>Dr. B. Karthikeyan, Shri P. Rajendran, Dr. S. Palanivel, Dr. R. Venkatesan</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -2698,27 +2698,27 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>[(4, 4), (4, 5)]</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>['4_CSE_E']</t>
+          <t>6_CSBS_N</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>['CSE206R02', 'CSE306R01']</t>
+          <t>ENG316</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>['Dr. D. Muralidharan', 'Dr. R. Ananth Hari', 'Dr. S. Jayasankari', 'Dr. P. Anu']</t>
+          <t>Dr. V. Vidya</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -2729,27 +2729,27 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>[(2, 0), (2, 1)]</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>['6_CSBT_I']</t>
+          <t>6_CSBS_N</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>['INT309']</t>
+          <t>CSE323R01</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>['Dr. P. Shanthi', 'Dr. R. S. Raghav', 'Dr. R. Manikandan']</t>
+          <t>Shri V. P. Akniraj, Dr. K. Rajkumar, Dr. G. R. Brindha, Dr. S. Vishnika Veni</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -2760,27 +2760,27 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>[(1, 0), (1, 1)]</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>['6_CSBT_I']</t>
+          <t>6_CSBS_N</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>['INT427']</t>
+          <t>INT315</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>['Dr. H. Anilaglory', 'Smt. I. Epistle', 'Dr. Sujeet S Jagtap', 'Dr. Dindayal Mahto']</t>
+          <t>Shri V. P. Akniraj, Dr. K. Rajkumar, Dr. G. R. Brindha, Dr. S. Vishnika Veni</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -2791,27 +2791,27 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>[(1, 4), (1, 5)]</t>
+          <t>(2, 2), (2, 3)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>['6_CSBT_I']</t>
+          <t>4_CSBS_N</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>['INT321']</t>
+          <t>ENG212</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>['Dr. H. Anilaglory', 'Smt. I. Epistle', 'Dr. Sujeet S Jagtap', 'Dr. Dindayal Mahto']</t>
+          <t>Shri G. Ramakrishnan</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -2822,27 +2822,27 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>[(0, 0), (0, 1)]</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>['6_CSBT_I']</t>
+          <t>4_CSBS_N</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>['TNP102R01']</t>
+          <t>CSE319, MAT331</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>['Shri M. B. Sundhararaj']</t>
+          <t>Ms. S. Sowndarya, Dr. B. Srinivasan, Dr. S. Raj Anand</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -2853,27 +2853,27 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>[(2, 0), (2, 1)]</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>['4_CSBT_I']</t>
+          <t>4_CSBS_N</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>['CSE206R02', 'CSE306R01']</t>
+          <t>CSE319, MAT332</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>['Dr. M. V. Rajilal', 'Dr. M. Meenalochani', 'Dr. S. Kamakshi', 'Dr. P. Immaculate Rexi Jenifer']</t>
+          <t>Ms. S. Sowndarya, Dr. B. Srinivasan, Dr. S. Raj Anand</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -2884,27 +2884,27 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>[(2, 0), (2, 1)]</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>['4_CSBT_I']</t>
+          <t>4_CSBS_N</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>['CSE206R02', 'CSE306R01']</t>
+          <t>CSE309R01, CSE218</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>['Dr. M. V. Rajilal', 'Dr. R. Ananth Hari', 'Dr. S. Kamakshi', 'Dr. D. Umamaheswari']</t>
+          <t>Dr. S. Rajarajan, Dr. N. Sasikala Devi, Dr. G. Pradeep, Smt. P. Silambarasi</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -2915,27 +2915,27 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>[(4, 6), (4, 7)]</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>['6_ICT_M']</t>
+          <t>4_CSBS_N</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>['INT407', 'ECE313']</t>
+          <t>CSE309R01, CSE218</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>['Dr. S. Vidivelli', 'Dr. R. Nithya', 'Shri R. Vijay Sai', 'Dr. R. Saravanan']</t>
+          <t>Dr. S. Rajarajan, Dr. N. Sasikala Devi, Dr. G. Pradeep, Smt. P. Silambarasi</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -2946,27 +2946,27 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>[(1, 0), (1, 1)]</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>['6_ICT_M']</t>
+          <t>6_IoTA_J</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>['INT407', 'ECE314']</t>
+          <t>INT307R01</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>['Dr. S. Vidivelli', 'Dr. H. Anilaglory', 'Shri R. Vijay Sai', 'Dr. R. Saravanan']</t>
+          <t>Dr. S. Raj Anand, Dr. N. Venkatasubramanian, Shri N. Senthil Anand</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -2977,27 +2977,27 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>[(4, 4), (4, 5)]</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>['6_ICT_M']</t>
+          <t>6_IoTA_J</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>['TNP102R01']</t>
+          <t>INT407</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>['Shri S. Nesakumaran']</t>
+          <t>Dr. M. V. Rajilal, Shri N. Senthil Anand, Dr. A. Dennis Ananth, Smt. M. Indhumathi</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -3008,27 +3008,27 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>[(1, 6), (1, 7)]</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>['4_ICT_M']</t>
+          <t>6_IoTA_J</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>['CSE309R01', 'INT103R01']</t>
+          <t>CSE434</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>['Dr. B. Karthikeyan', 'Shri P. Rajendran', 'Dr. S. Palanivel', 'Dr. R. Venkatesan']</t>
+          <t>Dr. M. V. Rajilal, Shri N. Senthil Anand, Dr. A. Dennis Ananth, Shri. M. Balamurali</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -3039,27 +3039,27 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>[(0, 2), (0, 3)]</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>['4_ICT_M']</t>
+          <t>6_IoTA_J</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>['CSE309R01', 'INT103R01']</t>
+          <t>TNP102R01</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>['Dr. B. Karthikeyan', 'Shri P. Rajendran', 'Dr. S. Palanivel', 'Dr. R. Venkatesan']</t>
+          <t>Ms. V. Karthika</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -3070,27 +3070,27 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>[(4, 4), (4, 5)]</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>['6_CSBS_N']</t>
+          <t>4_IoTA_J</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>['ENG316']</t>
+          <t>CSE206R02</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>['Dr. V. Vidya']</t>
+          <t>Dr. K. Joseph Abraham Sundar, Dr. D. Muralidharan, Dr. M. V. Rajilal</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -3101,27 +3101,27 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>[(0, 0), (0, 1)]</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>['6_CSBS_N']</t>
+          <t>4_IoTA_J</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>['CSE323R01']</t>
+          <t>CSE306R01</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>['Shri V. P. Akniraj', 'Dr. K. Rajkumar', 'Dr. G. R. Brindha', 'Dr. S. Vishnika Veni']</t>
+          <t>Dr. M. P. Karthikeyan, Dr. S. Ramakrishnan, Dr. V. Nirmala</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -3132,379 +3132,379 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>[(3, 4), (3, 5)]</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>['6_CSBS_N']</t>
+          <t>6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_IT_L, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>['INT315']</t>
+          <t>MINOR_6</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>['Shri V. P. Akniraj', 'Dr. K. Rajkumar', 'Dr. G. R. Brindha', 'Dr. S. Vishnika Veni']</t>
+          <t>MINOR_6</t>
         </is>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>[(1, 0), (1, 1)]</t>
+          <t>(0, 6), (0, 7), (3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>['4_CSBS_N']</t>
+          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_CSE_D, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_IT_K, 4_IT_L, 4_ICT_M, 4_CSBS_N</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>['ENG212']</t>
+          <t>MINOR_4</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>['Shri G. Ramakrishnan']</t>
+          <t>MINOR_4</t>
         </is>
       </c>
       <c r="E89" t="n">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>[(2, 4), (2, 5)]</t>
+          <t>(1, 6), (1, 7), (4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>['4_CSBS_N']</t>
+          <t>4_CSE_A, 4_CSE_B, 4_AIDS_G, 4_AIDS_H, 4_IT_K, 4_CSBS_N, 6_CSE_A, 6_CSE_B, 6_CSE_E, 6_AIDS_H, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_ICT_M</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>['CSE319', 'MAT331']</t>
+          <t>LUNCH_DAY_1_HOUR_4</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>['Ms. S. Sowndarya', 'Dr. B. Srinivasan', 'Dr. S. Raj Anand']</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>[(2, 6), (2, 7)]</t>
+          <t>(0, 3)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>['4_CSBS_N']</t>
+          <t>4_CSE_C, 4_CSE_D, 4_CSE_E, 4_AIDS_F, 4_CSBT_I, 4_IoTA_J, 4_IT_L, 4_ICT_M, 6_CSE_C, 6_CSE_D, 6_AIDS_F, 6_AIDS_G, 6_IT_L, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>['CSE319', 'MAT332']</t>
+          <t>LUNCH_DAY_1_HOUR_5</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>['Ms. S. Sowndarya', 'Dr. B. Srinivasan', 'Dr. S. Raj Anand']</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>[(4, 2), (4, 3)]</t>
+          <t>(0, 4)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>['4_CSBS_N']</t>
+          <t>4_CSE_B, 4_CSE_C, 4_AIDS_G, 4_IT_K, 4_IT_L, 4_ICT_M, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_AIDS_F, 6_IoTA_J, 6_IT_K, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>['CSE309R01', 'CSE218']</t>
+          <t>LUNCH_DAY_2_HOUR_4</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>['Dr. S. Rajarajan', 'Dr. N. Sasikala Devi', 'Dr. G. Pradeep', 'Smt. P. Silambarasi']</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>[(4, 6), (4, 7)]</t>
+          <t>(1, 3)</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>['4_CSBS_N']</t>
+          <t>4_CSE_A, 4_CSE_D, 4_CSE_E, 4_AIDS_F, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_CSBS_N, 6_CSE_A, 6_CSE_E, 6_AIDS_G, 6_AIDS_H, 6_CSBT_I, 6_IT_L</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>['CSE309R01', 'CSE218']</t>
+          <t>LUNCH_DAY_2_HOUR_5</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>['Dr. S. Rajarajan', 'Dr. N. Sasikala Devi', 'Dr. G. Pradeep', 'Smt. P. Silambarasi']</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>[(0, 4), (0, 5)]</t>
+          <t>(1, 4)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>['6_IoTA_J']</t>
+          <t>4_CSE_B, 4_CSE_C, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_CSBT_I, 4_IT_L, 4_CSBS_N, 6_CSE_A, 6_AIDS_G, 6_AIDS_H, 6_IT_K, 6_IT_L, 6_ICT_M</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>['INT307R01']</t>
+          <t>LUNCH_DAY_3_HOUR_4</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>['Dr. S. Raj Anand', 'Dr. N. Venkatasubramanian', 'Shri N. Senthil Anand']</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>[(4, 6), (4, 7)]</t>
+          <t>(2, 3)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>['6_IoTA_J']</t>
+          <t>4_CSE_A, 4_CSE_D, 4_AIDS_H, 4_IoTA_J, 4_IT_K, 4_ICT_M, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_AIDS_F, 6_CSBT_I, 6_IoTA_J, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>['INT407']</t>
+          <t>LUNCH_DAY_3_HOUR_5</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>['Dr. M. V. Rajilal', 'Shri N. Senthil Anand', 'Dr. A. Dennis Ananth', 'Smt. M. Indhumathi']</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>[(4, 4), (4, 5)]</t>
+          <t>(2, 4)</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>['6_IoTA_J']</t>
+          <t>4_CSE_D, 4_CSBT_I, 4_IoTA_J, 4_IT_K, 4_IT_L, 4_ICT_M, 4_CSBS_N, 6_CSE_A, 6_CSE_C, 6_AIDS_G, 6_AIDS_H, 6_IoTA_J, 6_IT_L, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>['CSE434']</t>
+          <t>LUNCH_DAY_4_HOUR_4</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>['Dr. M. V. Rajilal', 'Shri N. Senthil Anand', 'Dr. A. Dennis Ananth', 'Shri. M. Balamurali']</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>[(1, 0), (1, 1)]</t>
+          <t>(3, 3)</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>['6_IoTA_J']</t>
+          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 6_CSE_B, 6_CSE_D, 6_CSE_E, 6_AIDS_F, 6_CSBT_I, 6_IT_K, 6_ICT_M</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>['TNP102R01']</t>
+          <t>LUNCH_DAY_4_HOUR_5</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>['Ms. V. Karthika']</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>[(4, 0), (4, 1)]</t>
+          <t>(3, 4)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>['4_IoTA_J']</t>
+          <t>4_CSE_A, 4_CSE_D, 4_CSE_E, 4_AIDS_H, 4_IoTA_J, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_CSBT_I, 6_IT_L, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>['CSE206R02']</t>
+          <t>LUNCH_DAY_5_HOUR_4</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>['Dr. K. Joseph Abraham Sundar', 'Dr. D. Muralidharan', 'Dr. M. V. Rajilal']</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>[(1, 2), (1, 3)]</t>
+          <t>(4, 3)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>['4_IoTA_J']</t>
+          <t>4_CSE_B, 4_CSE_C, 4_AIDS_G, 4_CSBT_I, 4_IT_K, 4_IT_L, 4_ICT_M, 4_CSBS_N, 6_CSE_A, 6_AIDS_H, 6_IoTA_J, 6_IT_K, 6_ICT_M</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>['CSE306R01']</t>
+          <t>LUNCH_DAY_5_HOUR_5</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>['Dr. M. P. Karthikeyan', 'Dr. S. Ramakrishnan', 'Dr. V. Nirmala']</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E99" t="n">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>[(4, 6), (4, 7)]</t>
+          <t>(4, 4)</t>
         </is>
       </c>
     </row>
@@ -3514,17 +3514,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>['6_IT_K', '6_IT_L', '6_ICT_M']</t>
+          <t>6_IT_K, 6_IT_L, 6_ICT_M</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>['INT302R01', 'INT309']</t>
+          <t>INT302R01, INT309</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>['Dr. R. Venkatesan', 'Dr. R. S. Raghav', 'Dr. C. Thaventhiran', 'Dr. K. Hariharan']</t>
+          <t>Dr. R. Venkatesan, Dr. R. S. Raghav, Dr. C. Thaventhiran, Dr. K. Hariharan</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -3541,17 +3541,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>['4_IT_K', '4_IT_L', '4_ICT_M']</t>
+          <t>4_IT_K, 4_IT_L, 4_ICT_M</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>['MAT304R01', 'CSE202', 'CSE307']</t>
+          <t>MAT304R01, CSE202, CSE307</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>['Dr. S. Kalidasan', 'Dr. R. Seethalakshmi', 'Shri N. Senthil Anand', 'Smt. T. M. Latha']</t>
+          <t>Dr. S. Kalidasan, Dr. R. Seethalakshmi, Shri N. Senthil Anand, Smt. T. M. Latha</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -3568,17 +3568,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>['6_AIDS_F', '6_AIDS_G', '6_AIDS_H']</t>
+          <t>6_AIDS_F, 6_AIDS_G, 6_AIDS_H</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>['CSE334R01', 'CSE413R01']</t>
+          <t>CSE334R01, CSE413R01</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>['Dr. B. Thamotharan', 'Dr. P. Immaculate Rexi Jenifer', 'Dr. J. Premaladha', 'Dr. A. Emily Jenifer']</t>
+          <t>Dr. B. Thamotharan, Dr. P. Immaculate Rexi Jenifer, Dr. J. Premaladha, Dr. A. Emily Jenifer</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -3595,17 +3595,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>['6_CSE_A', '6_CSE_B', '6_CSE_C', '6_CSE_D', '6_CSE_E']</t>
+          <t>6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>['CSE405R02', 'INT309', 'INT302R01']</t>
+          <t>CSE405R02, INT309, INT302R01</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>['Dr. S. Pradeepa', 'Dr. P. Shanthi', 'Dr. M. Sumathi', 'Dr. H. Anilaglory', 'Dr. R. S. Raghav', 'Dr. C. Thaventhiran', 'Dr. B. Thamotharan']</t>
+          <t>Dr. S. Pradeepa, Dr. P. Shanthi, Dr. M. Sumathi, Dr. H. Anilaglory, Dr. R. S. Raghav, Dr. C. Thaventhiran, Dr. B. Thamotharan</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -3622,17 +3622,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>['4_CSE_A', '4_CSE_B', '4_CSE_C', '4_CSE_D', '4_CSE_E']</t>
+          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_CSE_D, 4_CSE_E</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>['MAT304R01', 'CSE202', 'CSE307']</t>
+          <t>MAT304R01, CSE202, CSE307</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>['Dr. T. Kannan', 'Dr. V. Venktraman', 'Dr. Devulapalli R V S R K Sastry', 'Dr. B. Karthikeyan', 'Dr. L. Prabaharan', 'Dr. R. Devika']</t>
+          <t>Dr. T. Kannan, Dr. V. Venktraman, Dr. Devulapalli R V S R K Sastry, Dr. B. Karthikeyan, Dr. L. Prabaharan, Dr. R. Devika</t>
         </is>
       </c>
       <c r="E104" t="n">
@@ -3649,17 +3649,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>['6_IT_L']</t>
+          <t>6_IT_L</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>['CSE313']</t>
+          <t>CSE313</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>['Dr. S. Priya']</t>
+          <t>Dr. S. Priya</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -3676,17 +3676,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>['6_IT_L']</t>
+          <t>6_IT_L</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>['INT405R02']</t>
+          <t>INT405R02</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>['Dr. A. Emily Jenifer']</t>
+          <t>Dr. A. Emily Jenifer</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -3703,17 +3703,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>['6_IT_L']</t>
+          <t>6_IT_L</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>['CSE314R02']</t>
+          <t>CSE314R02</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>['Dr. A. Sivapathi']</t>
+          <t>Dr. A. Sivapathi</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -3730,17 +3730,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>['6_IT_L']</t>
+          <t>6_IT_L</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>['CSE405R02']</t>
+          <t>CSE405R02</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>['Dr. V. Venkatesh']</t>
+          <t>Dr. V. Venkatesh</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -3757,17 +3757,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>['6_IT_K']</t>
+          <t>6_IT_K</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>['CSE313']</t>
+          <t>CSE313</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>['Dr. S. Ramya']</t>
+          <t>Dr. S. Ramya</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -3784,17 +3784,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>['6_IT_K']</t>
+          <t>6_IT_K</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>['INT405R02']</t>
+          <t>INT405R02</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>['Dr. R. Nithya']</t>
+          <t>Dr. R. Nithya</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -3811,17 +3811,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>['6_IT_K']</t>
+          <t>6_IT_K</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>['CSE314R02']</t>
+          <t>CSE314R02</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>['Dr. K. Chakrapani']</t>
+          <t>Dr. K. Chakrapani</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -3838,17 +3838,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>['6_IT_K']</t>
+          <t>6_IT_K</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>['CSE405R02']</t>
+          <t>CSE405R02</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>['Dr. A. Suganya']</t>
+          <t>Dr. A. Suganya</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -3865,17 +3865,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>['4_IT_K']</t>
+          <t>4_IT_K</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>['MAT302']</t>
+          <t>MAT302</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>['Shri R. Vignesh']</t>
+          <t>Shri R. Vignesh</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -3892,17 +3892,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>['4_IT_K']</t>
+          <t>4_IT_K</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>['CSE305R01']</t>
+          <t>CSE305R01</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>['Dr. R. Anushiadevi']</t>
+          <t>Dr. R. Anushiadevi</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -3919,17 +3919,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>['4_IT_K']</t>
+          <t>4_IT_K</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>['CSE207R01']</t>
+          <t>CSE207R01</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>['Dr. M. Meenalochani']</t>
+          <t>Dr. M. Meenalochani</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -3946,17 +3946,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>['4_IT_K']</t>
+          <t>4_IT_K</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>['CSE308']</t>
+          <t>CSE308</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>['Dr. R. Alageswaran']</t>
+          <t>Dr. R. Alageswaran</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -3973,17 +3973,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>['4_IT_L']</t>
+          <t>4_IT_L</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>['MAT302']</t>
+          <t>MAT302</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>['Dr. D. Sarala']</t>
+          <t>Dr. D. Sarala</t>
         </is>
       </c>
       <c r="E117" t="n">
@@ -4000,17 +4000,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>['4_IT_L']</t>
+          <t>4_IT_L</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>['CSE305R01']</t>
+          <t>CSE305R01</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>['Dr. T. Renugadevi']</t>
+          <t>Dr. T. Renugadevi</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -4027,17 +4027,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>['4_IT_L']</t>
+          <t>4_IT_L</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>['CSE207R01']</t>
+          <t>CSE207R01</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>['Dr. T. Pasupathi']</t>
+          <t>Dr. T. Pasupathi</t>
         </is>
       </c>
       <c r="E119" t="n">
@@ -4054,17 +4054,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>['4_IT_L']</t>
+          <t>4_IT_L</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>['CSE308']</t>
+          <t>CSE308</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>['Dr. K. Geetha']</t>
+          <t>Dr. K. Geetha</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -4081,17 +4081,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>['6_AIDS_F']</t>
+          <t>6_AIDS_F</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>['INT405R02']</t>
+          <t>INT405R02</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>['Dr. K. Ramkumar']</t>
+          <t>Dr. K. Ramkumar</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -4108,17 +4108,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>['6_AIDS_F']</t>
+          <t>6_AIDS_F</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>['CSE432R01']</t>
+          <t>CSE432R01</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>['Dr. K. R. Manjula']</t>
+          <t>Dr. K. R. Manjula</t>
         </is>
       </c>
       <c r="E122" t="n">
@@ -4135,17 +4135,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>['6_AIDS_F']</t>
+          <t>6_AIDS_F</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>['INT303R01']</t>
+          <t>INT303R01</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>['Dr. R. Lavanya']</t>
+          <t>Dr. R. Lavanya</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -4162,17 +4162,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>['6_AIDS_F']</t>
+          <t>6_AIDS_F</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>['INT441R01']</t>
+          <t>INT441R01</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>['Dr. S. Pradeepa']</t>
+          <t>Dr. S. Pradeepa</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -4189,17 +4189,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>['6_AIDS_G']</t>
+          <t>6_AIDS_G</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>['INT405R02']</t>
+          <t>INT405R02</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>['Dr. A. Suganya']</t>
+          <t>Dr. A. Suganya</t>
         </is>
       </c>
       <c r="E125" t="n">
@@ -4216,17 +4216,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>['6_AIDS_G']</t>
+          <t>6_AIDS_G</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>['CSE432R01']</t>
+          <t>CSE432R01</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>['Dr. K. Praveen Kumar']</t>
+          <t>Dr. K. Praveen Kumar</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -4243,17 +4243,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>['6_AIDS_G']</t>
+          <t>6_AIDS_G</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>['INT303R01']</t>
+          <t>INT303R01</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>['Dr. A. Joy Christy']</t>
+          <t>Dr. A. Joy Christy</t>
         </is>
       </c>
       <c r="E127" t="n">
@@ -4270,17 +4270,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>['6_AIDS_G']</t>
+          <t>6_AIDS_G</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>['INT441R01']</t>
+          <t>INT441R01</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>['Dr. S. Vishnika Veni']</t>
+          <t>Dr. S. Vishnika Veni</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -4297,17 +4297,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>['6_AIDS_H']</t>
+          <t>6_AIDS_H</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>['INT405R02']</t>
+          <t>INT405R02</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>['Dr. P. Sathyaprakash']</t>
+          <t>Dr. P. Sathyaprakash</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -4324,17 +4324,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>['6_AIDS_H']</t>
+          <t>6_AIDS_H</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>['CSE432R01']</t>
+          <t>CSE432R01</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>['Dr. K. Praveen Kumar']</t>
+          <t>Dr. K. Praveen Kumar</t>
         </is>
       </c>
       <c r="E130" t="n">
@@ -4351,17 +4351,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>['6_AIDS_H']</t>
+          <t>6_AIDS_H</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>['INT303R01']</t>
+          <t>INT303R01</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>['Dr. P. Suguna']</t>
+          <t>Dr. P. Suguna</t>
         </is>
       </c>
       <c r="E131" t="n">
@@ -4378,17 +4378,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>['6_AIDS_H']</t>
+          <t>6_AIDS_H</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>['INT441R01']</t>
+          <t>INT441R01</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>['Dr. M. Jayasheela Rakkini']</t>
+          <t>Dr. M. Jayasheela Rakkini</t>
         </is>
       </c>
       <c r="E132" t="n">
@@ -4405,17 +4405,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>['4_AIDS_F']</t>
+          <t>4_AIDS_F</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>['MAT302']</t>
+          <t>MAT302</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>['Dr. V. Swaminathan']</t>
+          <t>Dr. V. Swaminathan</t>
         </is>
       </c>
       <c r="E133" t="n">
@@ -4432,17 +4432,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>['4_AIDS_F']</t>
+          <t>4_AIDS_F</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>['CSE305R01']</t>
+          <t>CSE305R01</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>['Dr. P. L. K. Priyadarsini']</t>
+          <t>Dr. P. L. K. Priyadarsini</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -4459,17 +4459,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>['4_AIDS_F']</t>
+          <t>4_AIDS_F</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>['INT102R01']</t>
+          <t>INT102R01</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>['Dr. P. Manivannan']</t>
+          <t>Dr. P. Manivannan</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -4486,17 +4486,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>['4_AIDS_F']</t>
+          <t>4_AIDS_F</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>['CSE205R02']</t>
+          <t>CSE205R02</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>['Dr. V. Venkatesh']</t>
+          <t>Dr. V. Venkatesh</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -4513,17 +4513,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>['4_AIDS_F']</t>
+          <t>4_AIDS_F</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>['CSE304']</t>
+          <t>CSE304</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>['Dr. S. Kamakshi']</t>
+          <t>Dr. S. Kamakshi</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -4540,17 +4540,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>['4_AIDS_G']</t>
+          <t>4_AIDS_G</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>['MAT302']</t>
+          <t>MAT302</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>['Dr. R. Manivannan']</t>
+          <t>Dr. R. Manivannan</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -4567,17 +4567,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>['4_AIDS_G']</t>
+          <t>4_AIDS_G</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>['CSE305R01']</t>
+          <t>CSE305R01</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>['Dr. M. Devisri Nandhini']</t>
+          <t>Dr. M. Devisri Nandhini</t>
         </is>
       </c>
       <c r="E139" t="n">
@@ -4594,17 +4594,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>['4_AIDS_G']</t>
+          <t>4_AIDS_G</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>['INT102R01']</t>
+          <t>INT102R01</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>['Dr. R. Venkatesan']</t>
+          <t>Dr. R. Venkatesan</t>
         </is>
       </c>
       <c r="E140" t="n">
@@ -4621,17 +4621,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>['4_AIDS_G']</t>
+          <t>4_AIDS_G</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>['CSE205R02']</t>
+          <t>CSE205R02</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>['Dr. T. Pasupathi']</t>
+          <t>Dr. T. Pasupathi</t>
         </is>
       </c>
       <c r="E141" t="n">
@@ -4648,17 +4648,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>['4_AIDS_G']</t>
+          <t>4_AIDS_G</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>['CSE304']</t>
+          <t>CSE304</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>['Dr. K. Rajkumar']</t>
+          <t>Dr. K. Rajkumar</t>
         </is>
       </c>
       <c r="E142" t="n">
@@ -4675,17 +4675,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>['4_AIDS_H']</t>
+          <t>4_AIDS_H</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>['MAT302']</t>
+          <t>MAT302</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>['Dr. G. Sathiamoorthy']</t>
+          <t>Dr. G. Sathiamoorthy</t>
         </is>
       </c>
       <c r="E143" t="n">
@@ -4702,17 +4702,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>['4_AIDS_H']</t>
+          <t>4_AIDS_H</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>['CSE305R01']</t>
+          <t>CSE305R01</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>['Shri V. Pugazhenthi']</t>
+          <t>Shri V. Pugazhenthi</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -4729,17 +4729,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>['4_AIDS_H']</t>
+          <t>4_AIDS_H</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>['INT102R01']</t>
+          <t>INT102R01</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>['Dr. V. Ganesh Karthikeyan']</t>
+          <t>Dr. V. Ganesh Karthikeyan</t>
         </is>
       </c>
       <c r="E145" t="n">
@@ -4756,17 +4756,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>['4_AIDS_H']</t>
+          <t>4_AIDS_H</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>['CSE205R02']</t>
+          <t>CSE205R02</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>['Shri R. Vijay Sai']</t>
+          <t>Shri R. Vijay Sai</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -4783,17 +4783,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>['4_AIDS_H']</t>
+          <t>4_AIDS_H</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>['CSE304']</t>
+          <t>CSE304</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>['Smt. W. R. Helen']</t>
+          <t>Smt. W. R. Helen</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -4810,17 +4810,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>['6_CSE_A']</t>
+          <t>6_CSE_A</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>['CSE313']</t>
+          <t>CSE313</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>['Dr. N. Sasikala Devi']</t>
+          <t>Dr. N. Sasikala Devi</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -4837,17 +4837,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>['6_CSE_A']</t>
+          <t>6_CSE_A</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>['CSE314R02']</t>
+          <t>CSE314R02</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>['Dr. K. Chakrapani']</t>
+          <t>Dr. K. Chakrapani</t>
         </is>
       </c>
       <c r="E149" t="n">
@@ -4864,17 +4864,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>['6_CSE_A']</t>
+          <t>6_CSE_A</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>['CSE402']</t>
+          <t>CSE402</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>['Dr. N. Senthil Selvan']</t>
+          <t>Dr. N. Senthil Selvan</t>
         </is>
       </c>
       <c r="E150" t="n">
@@ -4891,17 +4891,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>['6_CSE_A']</t>
+          <t>6_CSE_A</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>['INT303R01']</t>
+          <t>INT303R01</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>['Dr. S. Markkandeyan']</t>
+          <t>Dr. S. Markkandeyan</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -4918,17 +4918,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>['6_CSE_B']</t>
+          <t>6_CSE_B</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>['CSE313']</t>
+          <t>CSE313</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>['Dr. V. S. Shankar Sriram']</t>
+          <t>Dr. V. S. Shankar Sriram</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -4945,17 +4945,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>['6_CSE_B']</t>
+          <t>6_CSE_B</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>['CSE314R02']</t>
+          <t>CSE314R02</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>['Dr. A. Joy Christy']</t>
+          <t>Dr. A. Joy Christy</t>
         </is>
       </c>
       <c r="E153" t="n">
@@ -4972,17 +4972,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>['6_CSE_B']</t>
+          <t>6_CSE_B</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>['CSE402']</t>
+          <t>CSE402</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>['Dr. P. Padmakumari']</t>
+          <t>Dr. P. Padmakumari</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -4999,17 +4999,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>['6_CSE_B']</t>
+          <t>6_CSE_B</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>['INT303R01']</t>
+          <t>INT303R01</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>['Dr. T. Suriya Praba']</t>
+          <t>Dr. T. Suriya Praba</t>
         </is>
       </c>
       <c r="E155" t="n">
@@ -5026,17 +5026,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>['6_CSE_C']</t>
+          <t>6_CSE_C</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>['CSE313']</t>
+          <t>CSE313</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>['Dr. Dindayal Mahto']</t>
+          <t>Dr. Dindayal Mahto</t>
         </is>
       </c>
       <c r="E156" t="n">
@@ -5053,17 +5053,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>['6_CSE_C']</t>
+          <t>6_CSE_C</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>['CSE314R02']</t>
+          <t>CSE314R02</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>['Dr. A. Umamakeswari']</t>
+          <t>Dr. A. Umamakeswari</t>
         </is>
       </c>
       <c r="E157" t="n">
@@ -5080,17 +5080,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>['6_CSE_C']</t>
+          <t>6_CSE_C</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>['CSE402']</t>
+          <t>CSE402</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>['Shri S. Ananthakrishnan']</t>
+          <t>Shri S. Ananthakrishnan</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -5107,17 +5107,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>['6_CSE_C']</t>
+          <t>6_CSE_C</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>['INT303R01']</t>
+          <t>INT303R01</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>['Dr. P. L. K. Priyadarsini']</t>
+          <t>Dr. P. L. K. Priyadarsini</t>
         </is>
       </c>
       <c r="E159" t="n">
@@ -5134,17 +5134,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>['6_CSE_D']</t>
+          <t>6_CSE_D</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>['CSE313']</t>
+          <t>CSE313</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>['Dr. M. Jayasheela Rakkini']</t>
+          <t>Dr. M. Jayasheela Rakkini</t>
         </is>
       </c>
       <c r="E160" t="n">
@@ -5161,17 +5161,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>['6_CSE_D']</t>
+          <t>6_CSE_D</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>['CSE314R02']</t>
+          <t>CSE314R02</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>['Dr. B. Lakshmi']</t>
+          <t>Dr. B. Lakshmi</t>
         </is>
       </c>
       <c r="E161" t="n">
@@ -5188,17 +5188,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>['6_CSE_D']</t>
+          <t>6_CSE_D</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>['CSE402']</t>
+          <t>CSE402</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>['Dr. M. Sumathi']</t>
+          <t>Dr. M. Sumathi</t>
         </is>
       </c>
       <c r="E162" t="n">
@@ -5215,17 +5215,17 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>['6_CSE_D']</t>
+          <t>6_CSE_D</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>['INT303R01']</t>
+          <t>INT303R01</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>['Smt. A. Srilakshmi']</t>
+          <t>Smt. A. Srilakshmi</t>
         </is>
       </c>
       <c r="E163" t="n">
@@ -5242,17 +5242,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>['6_CSE_E']</t>
+          <t>6_CSE_E</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>['CSE313']</t>
+          <t>CSE313</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>['Shri R. Vijay Sai']</t>
+          <t>Shri R. Vijay Sai</t>
         </is>
       </c>
       <c r="E164" t="n">
@@ -5269,17 +5269,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>['6_CSE_E']</t>
+          <t>6_CSE_E</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>['CSE314R02']</t>
+          <t>CSE314R02</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>['Dr. G. Pradeep']</t>
+          <t>Dr. G. Pradeep</t>
         </is>
       </c>
       <c r="E165" t="n">
@@ -5296,17 +5296,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>['6_CSE_E']</t>
+          <t>6_CSE_E</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>['CSE402']</t>
+          <t>CSE402</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>['Shri S. Ananthakrishnan']</t>
+          <t>Shri S. Ananthakrishnan</t>
         </is>
       </c>
       <c r="E166" t="n">
@@ -5323,17 +5323,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>['6_CSE_E']</t>
+          <t>6_CSE_E</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>['INT303R01']</t>
+          <t>INT303R01</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>['Dr. N. Moratanch']</t>
+          <t>Dr. N. Moratanch</t>
         </is>
       </c>
       <c r="E167" t="n">
@@ -5350,17 +5350,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>['4_CSE_A']</t>
+          <t>4_CSE_A</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>['MAT302']</t>
+          <t>MAT302</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>['Dr. Y. B. Venkatakrishnan']</t>
+          <t>Dr. Y. B. Venkatakrishnan</t>
         </is>
       </c>
       <c r="E168" t="n">
@@ -5377,17 +5377,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>['4_CSE_A']</t>
+          <t>4_CSE_A</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>['CSE305R01']</t>
+          <t>CSE305R01</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>['Dr. V. Meena']</t>
+          <t>Dr. V. Meena</t>
         </is>
       </c>
       <c r="E169" t="n">
@@ -5404,17 +5404,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>['4_CSE_A']</t>
+          <t>4_CSE_A</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>['INT102R01']</t>
+          <t>INT102R01</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>['Dr. G. Manikandan']</t>
+          <t>Dr. G. Manikandan</t>
         </is>
       </c>
       <c r="E170" t="n">
@@ -5431,17 +5431,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>['4_CSE_A']</t>
+          <t>4_CSE_A</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>['CSE205R02']</t>
+          <t>CSE205R02</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>['Dr. K. S. Suresh']</t>
+          <t>Dr. K. S. Suresh</t>
         </is>
       </c>
       <c r="E171" t="n">
@@ -5458,17 +5458,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>['4_CSE_B']</t>
+          <t>4_CSE_B</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>['MAT302']</t>
+          <t>MAT302</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>['Dr. S. Balaji']</t>
+          <t>Dr. S. Balaji</t>
         </is>
       </c>
       <c r="E172" t="n">
@@ -5485,17 +5485,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>['4_CSE_B']</t>
+          <t>4_CSE_B</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>['CSE305R01']</t>
+          <t>CSE305R01</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>['Dr. T. Suriya Praba']</t>
+          <t>Dr. T. Suriya Praba</t>
         </is>
       </c>
       <c r="E173" t="n">
@@ -5512,17 +5512,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>['4_CSE_B']</t>
+          <t>4_CSE_B</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>['INT102R01']</t>
+          <t>INT102R01</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>['Dr. S. Markkandeyan']</t>
+          <t>Dr. S. Markkandeyan</t>
         </is>
       </c>
       <c r="E174" t="n">
@@ -5539,17 +5539,17 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>['4_CSE_B']</t>
+          <t>4_CSE_B</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>['CSE205R02']</t>
+          <t>CSE205R02</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>['Dr. R. Ezhilarasie']</t>
+          <t>Dr. R. Ezhilarasie</t>
         </is>
       </c>
       <c r="E175" t="n">
@@ -5566,17 +5566,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>['4_CSE_C']</t>
+          <t>4_CSE_C</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>['MAT302']</t>
+          <t>MAT302</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>['Dr. S. Balachandran']</t>
+          <t>Dr. S. Balachandran</t>
         </is>
       </c>
       <c r="E176" t="n">
@@ -5593,17 +5593,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>['4_CSE_C']</t>
+          <t>4_CSE_C</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>['CSE305R01']</t>
+          <t>CSE305R01</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>['Dr. D. Umamaheswari']</t>
+          <t>Dr. D. Umamaheswari</t>
         </is>
       </c>
       <c r="E177" t="n">
@@ -5620,17 +5620,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>['4_CSE_C']</t>
+          <t>4_CSE_C</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>['INT102R01']</t>
+          <t>INT102R01</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>['Dr. V. Anand']</t>
+          <t>Dr. V. Anand</t>
         </is>
       </c>
       <c r="E178" t="n">
@@ -5647,17 +5647,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>['4_CSE_C']</t>
+          <t>4_CSE_C</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>['CSE205R02']</t>
+          <t>CSE205R02</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>['Dr. K. Hariharan']</t>
+          <t>Dr. K. Hariharan</t>
         </is>
       </c>
       <c r="E179" t="n">
@@ -5674,17 +5674,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>['4_CSE_D']</t>
+          <t>4_CSE_D</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>['MAT302']</t>
+          <t>MAT302</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>['Dr. P. Naveen']</t>
+          <t>Dr. P. Naveen</t>
         </is>
       </c>
       <c r="E180" t="n">
@@ -5701,17 +5701,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>['4_CSE_D']</t>
+          <t>4_CSE_D</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>['CSE305R01']</t>
+          <t>CSE305R01</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>['Dr. P. Anu']</t>
+          <t>Dr. P. Anu</t>
         </is>
       </c>
       <c r="E181" t="n">
@@ -5728,17 +5728,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>['4_CSE_D']</t>
+          <t>4_CSE_D</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>['INT102R01']</t>
+          <t>INT102R01</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>['Dr. R. Venkatesan']</t>
+          <t>Dr. R. Venkatesan</t>
         </is>
       </c>
       <c r="E182" t="n">
@@ -5755,17 +5755,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>['4_CSE_D']</t>
+          <t>4_CSE_D</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>['CSE205R02']</t>
+          <t>CSE205R02</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>['Dr. M. Meenalochani']</t>
+          <t>Dr. M. Meenalochani</t>
         </is>
       </c>
       <c r="E183" t="n">
@@ -5782,17 +5782,17 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>['4_CSE_E']</t>
+          <t>4_CSE_E</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>['MAT302']</t>
+          <t>MAT302</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>['Dr. G. Jegadeesan']</t>
+          <t>Dr. G. Jegadeesan</t>
         </is>
       </c>
       <c r="E184" t="n">
@@ -5809,17 +5809,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>['4_CSE_E']</t>
+          <t>4_CSE_E</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>['CSE305R01']</t>
+          <t>CSE305R01</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>['Dr. S. Jayasankari']</t>
+          <t>Dr. S. Jayasankari</t>
         </is>
       </c>
       <c r="E185" t="n">
@@ -5836,17 +5836,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>['4_CSE_E']</t>
+          <t>4_CSE_E</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>['INT102R01']</t>
+          <t>INT102R01</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>['Dr. V. Nirmala']</t>
+          <t>Dr. V. Nirmala</t>
         </is>
       </c>
       <c r="E186" t="n">
@@ -5863,17 +5863,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>['4_CSE_E']</t>
+          <t>4_CSE_E</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>['CSE205R02']</t>
+          <t>CSE205R02</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>['Dr. D. Muralidharan']</t>
+          <t>Dr. D. Muralidharan</t>
         </is>
       </c>
       <c r="E187" t="n">
@@ -5890,17 +5890,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>['6_CSBT_I']</t>
+          <t>6_CSBT_I</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>['INT420']</t>
+          <t>INT420</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>['Dr. H. Anilaglory']</t>
+          <t>Dr. H. Anilaglory</t>
         </is>
       </c>
       <c r="E188" t="n">
@@ -5917,17 +5917,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>['6_CSBT_I']</t>
+          <t>6_CSBT_I</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>['INT320']</t>
+          <t>INT320</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>['Dr. Sujeet S Jagtap']</t>
+          <t>Dr. Sujeet S Jagtap</t>
         </is>
       </c>
       <c r="E189" t="n">
@@ -5944,17 +5944,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>['6_CSBT_I']</t>
+          <t>6_CSBT_I</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>['INT322']</t>
+          <t>INT322</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>['Dr. Kannan Balasubramanian']</t>
+          <t>Dr. Kannan Balasubramanian</t>
         </is>
       </c>
       <c r="E190" t="n">
@@ -5971,17 +5971,17 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>['6_CSBT_I']</t>
+          <t>6_CSBT_I</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>['INT323']</t>
+          <t>INT323</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>['Dr. R. Manikandan']</t>
+          <t>Dr. R. Manikandan</t>
         </is>
       </c>
       <c r="E191" t="n">
@@ -5998,17 +5998,17 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>['6_CSBT_I']</t>
+          <t>6_CSBT_I</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>['INT309']</t>
+          <t>INT309</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>['Dr. P. Shanthi']</t>
+          <t>Dr. P. Shanthi</t>
         </is>
       </c>
       <c r="E192" t="n">
@@ -6025,17 +6025,17 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>['4_CSBT_I']</t>
+          <t>4_CSBT_I</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>['MAT302']</t>
+          <t>MAT302</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>['Shri B. Senthilkumar']</t>
+          <t>Shri B. Senthilkumar</t>
         </is>
       </c>
       <c r="E193" t="n">
@@ -6052,17 +6052,17 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>['4_CSBT_I']</t>
+          <t>4_CSBT_I</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>['CSE305R01']</t>
+          <t>CSE305R01</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>['Dr. S. Kamakshi']</t>
+          <t>Dr. S. Kamakshi</t>
         </is>
       </c>
       <c r="E194" t="n">
@@ -6079,17 +6079,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>['4_CSBT_I']</t>
+          <t>4_CSBT_I</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>['INT102R01']</t>
+          <t>INT102R01</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>['Shri P. Rajendran']</t>
+          <t>Shri P. Rajendran</t>
         </is>
       </c>
       <c r="E195" t="n">
@@ -6106,17 +6106,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>['4_CSBT_I']</t>
+          <t>4_CSBT_I</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>['CSE205R02']</t>
+          <t>CSE205R02</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>['Dr. M. V. Rajilal']</t>
+          <t>Dr. M. V. Rajilal</t>
         </is>
       </c>
       <c r="E196" t="n">
@@ -6133,17 +6133,17 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>['4_CSBT_I']</t>
+          <t>4_CSBT_I</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>['MAT304R01']</t>
+          <t>MAT304R01</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>['Dr. R. Srikanth']</t>
+          <t>Dr. R. Srikanth</t>
         </is>
       </c>
       <c r="E197" t="n">
@@ -6160,17 +6160,17 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>['6_ICT_M']</t>
+          <t>6_ICT_M</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>['CSE313']</t>
+          <t>CSE313</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>['Dr. S. Ramya']</t>
+          <t>Dr. S. Ramya</t>
         </is>
       </c>
       <c r="E198" t="n">
@@ -6187,17 +6187,17 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>['6_ICT_M']</t>
+          <t>6_ICT_M</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>['INT405R02']</t>
+          <t>INT405R02</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>['Dr. K. Kannan']</t>
+          <t>Dr. K. Kannan</t>
         </is>
       </c>
       <c r="E199" t="n">
@@ -6214,17 +6214,17 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>['6_ICT_M']</t>
+          <t>6_ICT_M</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>['ECE312']</t>
+          <t>ECE312</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>['Dr. R. Muthaiah']</t>
+          <t>Dr. R. Muthaiah</t>
         </is>
       </c>
       <c r="E200" t="n">
@@ -6241,17 +6241,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>['6_ICT_M']</t>
+          <t>6_ICT_M</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>['INT303R01']</t>
+          <t>INT303R01</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>['Dr. G. Manikandan']</t>
+          <t>Dr. G. Manikandan</t>
         </is>
       </c>
       <c r="E201" t="n">
@@ -6268,17 +6268,17 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>['4_ICT_M']</t>
+          <t>4_ICT_M</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>['MAT310']</t>
+          <t>MAT310</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>['Shri S. Dickson']</t>
+          <t>Shri S. Dickson</t>
         </is>
       </c>
       <c r="E202" t="n">
@@ -6295,17 +6295,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>['4_ICT_M']</t>
+          <t>4_ICT_M</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>['INT102R01']</t>
+          <t>INT102R01</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>['Dr. S. Palanivel']</t>
+          <t>Dr. S. Palanivel</t>
         </is>
       </c>
       <c r="E203" t="n">
@@ -6322,17 +6322,17 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>['4_ICT_M']</t>
+          <t>4_ICT_M</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>['CSE308']</t>
+          <t>CSE308</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>['Dr. B. Karthikeyan']</t>
+          <t>Dr. B. Karthikeyan</t>
         </is>
       </c>
       <c r="E204" t="n">
@@ -6349,17 +6349,17 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>['4_ICT_M']</t>
+          <t>4_ICT_M</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>['CSE207R01']</t>
+          <t>CSE207R01</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>['Dr. K. Joseph Abraham Sundar']</t>
+          <t>Dr. K. Joseph Abraham Sundar</t>
         </is>
       </c>
       <c r="E205" t="n">
@@ -6376,17 +6376,17 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>['6_CSBS_N']</t>
+          <t>6_CSBS_N</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>['CSE322']</t>
+          <t>CSE322</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>['Dr. A. Dennis Ananth']</t>
+          <t>Dr. A. Dennis Ananth</t>
         </is>
       </c>
       <c r="E206" t="n">
@@ -6403,17 +6403,17 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>['6_CSBS_N']</t>
+          <t>6_CSBS_N</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>['INT313']</t>
+          <t>INT313</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>['Dr. Kannan Balasubramanian']</t>
+          <t>Dr. Kannan Balasubramanian</t>
         </is>
       </c>
       <c r="E207" t="n">
@@ -6430,17 +6430,17 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>['6_CSBS_N']</t>
+          <t>6_CSBS_N</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>['INT314']</t>
+          <t>INT314</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>['Dr. G. R. Brindha']</t>
+          <t>Dr. G. R. Brindha</t>
         </is>
       </c>
       <c r="E208" t="n">
@@ -6457,17 +6457,17 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>['6_CSBS_N']</t>
+          <t>6_CSBS_N</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>['COM117']</t>
+          <t>COM117</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>['Ms. R. Nalini']</t>
+          <t>Ms. R. Nalini</t>
         </is>
       </c>
       <c r="E209" t="n">
@@ -6484,17 +6484,17 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>['6_CSBS_N']</t>
+          <t>6_CSBS_N</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>['ENG316']</t>
+          <t>ENG316</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>['Dr. V. Vidya']</t>
+          <t>Dr. V. Vidya</t>
         </is>
       </c>
       <c r="E210" t="n">
@@ -6511,17 +6511,17 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>['6_CSBS_N']</t>
+          <t>6_CSBS_N</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>['MGT222']</t>
+          <t>MGT222</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>['Dr. R. Gayathri']</t>
+          <t>Dr. R. Gayathri</t>
         </is>
       </c>
       <c r="E211" t="n">
@@ -6538,17 +6538,17 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>['4_CSBS_N']</t>
+          <t>4_CSBS_N</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>['CSE308']</t>
+          <t>CSE308</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>['Dr. S. Rajarajan']</t>
+          <t>Dr. S. Rajarajan</t>
         </is>
       </c>
       <c r="E212" t="n">
@@ -6565,17 +6565,17 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>['4_CSBS_N']</t>
+          <t>4_CSBS_N</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>['CSE215']</t>
+          <t>CSE215</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>['Dr. G. Pradeep']</t>
+          <t>Dr. G. Pradeep</t>
         </is>
       </c>
       <c r="E213" t="n">
@@ -6592,17 +6592,17 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>['4_CSBS_N']</t>
+          <t>4_CSBS_N</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>['CSE318']</t>
+          <t>CSE318</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>['Dr. B. Srinivasan']</t>
+          <t>Dr. B. Srinivasan</t>
         </is>
       </c>
       <c r="E214" t="n">
@@ -6619,17 +6619,17 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>['4_CSBS_N']</t>
+          <t>4_CSBS_N</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>['MGT207']</t>
+          <t>MGT207</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>['Dr. N. Shobhana']</t>
+          <t>Dr. N. Shobhana</t>
         </is>
       </c>
       <c r="E215" t="n">
@@ -6646,17 +6646,17 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>['4_CSBS_N']</t>
+          <t>4_CSBS_N</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>['ENG212']</t>
+          <t>ENG212</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>['Shri G. Ramakrishnan']</t>
+          <t>Shri G. Ramakrishnan</t>
         </is>
       </c>
       <c r="E216" t="n">
@@ -6673,17 +6673,17 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>['4_CSBS_N']</t>
+          <t>4_CSBS_N</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>['MAT330R01']</t>
+          <t>MAT330R01</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>['Dr. V. Swaminathan']</t>
+          <t>Dr. V. Swaminathan</t>
         </is>
       </c>
       <c r="E217" t="n">
@@ -6700,17 +6700,17 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>['6_IoTA_J']</t>
+          <t>6_IoTA_J</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>['INT405R02']</t>
+          <t>INT405R02</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>['Dr. A. Dennis Ananth']</t>
+          <t>Dr. A. Dennis Ananth</t>
         </is>
       </c>
       <c r="E218" t="n">
@@ -6727,17 +6727,17 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>['6_IoTA_J']</t>
+          <t>6_IoTA_J</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>['CSE415R02']</t>
+          <t>CSE415R02</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>['Dr. A. Umamakeswari']</t>
+          <t>Dr. A. Umamakeswari</t>
         </is>
       </c>
       <c r="E219" t="n">
@@ -6754,17 +6754,17 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>['6_IoTA_J']</t>
+          <t>6_IoTA_J</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>['CSE335']</t>
+          <t>CSE335</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>['Dr. R. Ezhilarasie']</t>
+          <t>Dr. R. Ezhilarasie</t>
         </is>
       </c>
       <c r="E220" t="n">
@@ -6781,17 +6781,17 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>['6_IoTA_J']</t>
+          <t>6_IoTA_J</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>['INT307R01']</t>
+          <t>INT307R01</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>['Dr. S. Raj Anand']</t>
+          <t>Dr. S. Raj Anand</t>
         </is>
       </c>
       <c r="E221" t="n">
@@ -6808,17 +6808,17 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>['6_IoTA_J']</t>
+          <t>6_IoTA_J</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>['CSE313']</t>
+          <t>CSE313</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>['Dr. M. Lavanya']</t>
+          <t>Dr. M. Lavanya</t>
         </is>
       </c>
       <c r="E222" t="n">
@@ -6835,17 +6835,17 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>['4_IoTA_J']</t>
+          <t>4_IoTA_J</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>['MAT302']</t>
+          <t>MAT302</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>['Shri R. Sreedharan']</t>
+          <t>Shri R. Sreedharan</t>
         </is>
       </c>
       <c r="E223" t="n">
@@ -6862,17 +6862,17 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>['4_IoTA_J']</t>
+          <t>4_IoTA_J</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>['CSE305R01']</t>
+          <t>CSE305R01</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>['Dr. M. P. Karthikeyan']</t>
+          <t>Dr. M. P. Karthikeyan</t>
         </is>
       </c>
       <c r="E224" t="n">
@@ -6889,17 +6889,17 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>['4_IoTA_J']</t>
+          <t>4_IoTA_J</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>['INT102R01']</t>
+          <t>INT102R01</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>['Dr. P. Nalayini']</t>
+          <t>Dr. P. Nalayini</t>
         </is>
       </c>
       <c r="E225" t="n">
@@ -6916,17 +6916,17 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>['4_IoTA_J']</t>
+          <t>4_IoTA_J</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>['CSE205R02']</t>
+          <t>CSE205R02</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>['Dr. R. Ananth Hari']</t>
+          <t>Dr. R. Ananth Hari</t>
         </is>
       </c>
       <c r="E226" t="n">
@@ -6943,17 +6943,17 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>['4_IoTA_J']</t>
+          <t>4_IoTA_J</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>['CSE219R01']</t>
+          <t>CSE219R01</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>['Dr. R. Manikandan']</t>
+          <t>Dr. R. Manikandan</t>
         </is>
       </c>
       <c r="E227" t="n">

--- a/data/data_lunch_lab_allocated.xlsx
+++ b/data/data_lunch_lab_allocated.xlsx
@@ -472,393 +472,393 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>215</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6_IT_K, 6_IT_L, 6_ICT_M</t>
+          <t>6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_IT_L, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>INT302R01, INT309</t>
+          <t>MINOR_6</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Dr. R. Venkatesan, Dr. R. S. Raghav, Dr. C. Thaventhiran, Dr. K. Hariharan</t>
+          <t>MINOR_6</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(0, 6), (0, 7), (3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6_AIDS_F, 6_AIDS_G, 6_AIDS_H</t>
+          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_CSE_D, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_IT_K, 4_IT_L, 4_ICT_M, 4_CSBS_N</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CSE334R01, CSE413R01</t>
+          <t>MINOR_4</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Dr. B. Thamotharan, Dr. P. Immaculate Rexi Jenifer, Dr. J. Premaladha, Dr. A. Emily Jenifer</t>
+          <t>MINOR_4</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(1, 6), (1, 7), (4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>83</v>
+        <v>217</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E</t>
+          <t>4_CSE_B, 4_CSE_C, 4_CSE_E, 4_AIDS_F, 4_CSBT_I, 4_IoTA_J, 4_IT_L, 4_ICT_M, 6_CSE_C, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_IT_K, 6_IT_L</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CSE405R02, INT309, INT302R01</t>
+          <t>LUNCH_DAY_1_HOUR_4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Dr. S. Pradeepa, Dr. P. Shanthi, Dr. M. Sumathi, Dr. H. Anilaglory, Dr. R. S. Raghav, Dr. C. Thaventhiran, Dr. B. Thamotharan</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(0, 3)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>218</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6_IT_L</t>
+          <t>4_CSE_A, 4_CSE_D, 4_AIDS_G, 4_AIDS_H, 4_IT_K, 4_CSBS_N, 6_CSE_A, 6_CSE_B, 6_CSE_D, 6_AIDS_H, 6_CSBT_I, 6_IoTA_J, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CSE315R02, INT407</t>
+          <t>LUNCH_DAY_1_HOUR_5</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Dr. A. Sivapathi, Dr. Ramya, Dr. A. Emily Jenifer, Dr. N. Moratanch</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(0, 4)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7</v>
+        <v>219</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6_IT_L</t>
+          <t>4_CSE_A, 4_CSE_C, 4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_IT_K, 4_IT_L, 4_ICT_M, 6_CSE_D, 6_CSE_E, 6_AIDS_G, 6_CSBT_I, 6_IoTA_J, 6_IT_L</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CSE315R02, INT407</t>
+          <t>LUNCH_DAY_2_HOUR_4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Dr. A. Sivapathi, Dr. Ramya, Dr. A. Emily Jenifer, Dr. M. Rajakumaran</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(1, 3)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9</v>
+        <v>220</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6_IT_L</t>
+          <t>4_CSE_B, 4_CSE_D, 4_AIDS_F, 4_CSBT_I, 4_IoTA_J, 4_CSBS_N, 6_CSE_A, 6_CSE_B, 6_CSE_C, 6_AIDS_F, 6_AIDS_H, 6_IT_K, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CSE405R02</t>
+          <t>LUNCH_DAY_2_HOUR_5</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Dr. V. Venkatesh, Shri B. Ramneshkar</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(1, 4)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6_IT_L</t>
+          <t>4_CSE_B, 4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_IoTA_J, 4_IT_K, 4_IT_L, 4_CSBS_N, 6_CSE_A, 6_AIDS_G, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TNP102R01</t>
+          <t>LUNCH_DAY_3_HOUR_4</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Shri S. Nesakumaran</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>(1, 2), (1, 3)</t>
+          <t>(2, 3)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6_IT_K</t>
+          <t>4_CSE_A, 4_CSE_C, 4_CSE_D, 4_AIDS_F, 4_CSBT_I, 4_ICT_M, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_AIDS_F, 6_AIDS_H, 6_IT_L, 6_ICT_M</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CSE315R02, INT407</t>
+          <t>LUNCH_DAY_3_HOUR_5</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Dr. K. Chakrapani, Dr. A. L. Sriram, Dr. R. Nithya, Dr. N. Moratanch</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(2, 4)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>15</v>
+        <v>223</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6_IT_K</t>
+          <t>4_AIDS_F, 4_AIDS_G, 4_IoTA_J, 4_IT_K, 4_ICT_M, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_AIDS_H, 6_IoTA_J, 6_IT_K, 6_IT_L, 6_ICT_M</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CSE315R02, INT407</t>
+          <t>LUNCH_DAY_4_HOUR_4</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Dr. K. Chakrapani, Dr. A. L. Sriram, Dr. R. Nithya, Dr. N. Moratanch</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 3)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>17</v>
+        <v>224</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6_IT_K</t>
+          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_CSE_D, 4_CSE_E, 4_AIDS_H, 4_CSBT_I, 4_IT_L, 4_CSBS_N, 6_CSE_A, 6_AIDS_F, 6_AIDS_G, 6_CSBT_I, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CSE405R02</t>
+          <t>LUNCH_DAY_4_HOUR_5</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Dr. A. Suganya, Dr. S. Pradeepa</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(3, 4)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>18</v>
+        <v>225</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6_IT_K</t>
+          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_CSE_D, 4_AIDS_F, 4_CSBT_I, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_AIDS_F, 6_AIDS_H, 6_CSBT_I, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TNP102R01</t>
+          <t>LUNCH_DAY_5_HOUR_4</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Shri V. Chandrasekar</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(4, 3)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4_IT_K</t>
+          <t>4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_IoTA_J, 4_IT_K, 4_IT_L, 4_ICT_M, 4_CSBS_N, 6_CSE_A, 6_CSE_E, 6_AIDS_G, 6_IoTA_J, 6_IT_K, 6_IT_L</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CSE306R01, CSE309R01</t>
+          <t>LUNCH_DAY_5_HOUR_5</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Dr. R. Anushiadevi, Smt. W. R. Helen, Dr. P. Manivannan, Dr. S. Rajarajan</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(4, 4)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4_IT_K</t>
+          <t>6_IT_K, 6_IT_L, 6_ICT_M</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CSE306R01, CSE309R01</t>
+          <t>INT302R01, INT309</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Dr. R. Anushiadevi, Smt. W. R. Helen, Dr. P. Manivannan, Dr. S. Rajarajan</t>
+          <t>Dr. R. Venkatesan, Dr. R. S. Raghav, Dr. C. Thaventhiran, Dr. K. Hariharan</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -869,27 +869,27 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4_IT_L</t>
+          <t>6_AIDS_F, 6_AIDS_G, 6_AIDS_H</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CSE306R01, CSE309R01</t>
+          <t>CSE334R01, CSE413R01</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Dr. T. Renugadevi, Dr. S. Markkandeyan, Dr. K. Geetha, Dr. R. Devika</t>
+          <t>Dr. B. Thamotharan, Dr. P. Immaculate Rexi Jenifer, Dr. J. Premaladha, Dr. A. Emily Jenifer</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -900,27 +900,27 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4_IT_L</t>
+          <t>6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CSE306R01, CSE309R01</t>
+          <t>CSE405R02, INT309, INT302R01</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Dr. T. Renugadevi, Dr. S. Markkandeyan, Dr. K. Geetha, Dr. R. Devika</t>
+          <t>Dr. S. Pradeepa, Dr. P. Shanthi, Dr. M. Sumathi, Dr. H. Anilaglory, Dr. R. S. Raghav, Dr. C. Thaventhiran, Dr. B. Thamotharan</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -931,27 +931,27 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>6_AIDS_F</t>
+          <t>6_IT_L</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>INT441R01</t>
+          <t>CSE315R02, INT407</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Dr. S. Pradeepa, Dr. S. Vishnika Veni, Dr. M. Jayasheela Rakkini</t>
+          <t>Dr. A. Sivapathi, Dr. Ramya, Dr. A. Emily Jenifer, Dr. N. Moratanch</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -962,27 +962,27 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6_AIDS_F</t>
+          <t>6_IT_L</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>INT407, CSE433</t>
+          <t>CSE315R02, INT407</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Dr. A. Emily Jenifer, Dr. M. Rajakumaran, Dr. K. R. Manjula, Smt. S. Majina Baby</t>
+          <t>Dr. A. Sivapathi, Dr. Ramya, Dr. A. Emily Jenifer, Dr. M. Rajakumaran</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -993,27 +993,27 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>6_AIDS_F</t>
+          <t>6_IT_L</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>INT407, CSE433</t>
+          <t>CSE405R02</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Dr. A. Emily Jenifer, Dr. P. Sathyaprakash, Dr. K. R. Manjula, Smt. S. Majina Baby</t>
+          <t>Dr. V. Venkatesh, Shri B. Ramneshkar</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>6_AIDS_F</t>
+          <t>6_IT_L</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Shri K. Arunkumar</t>
+          <t>Shri S. Nesakumaran</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1055,27 +1055,27 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>6_AIDS_G</t>
+          <t>6_IT_K</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>INT441R01</t>
+          <t>CSE315R02, INT407</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Dr. S. Vishnika Veni, Dr. S. Pradeepa, Dr. M. Jayasheela Rakkini</t>
+          <t>Dr. K. Chakrapani, Dr. A. L. Sriram, Dr. R. Nithya, Dr. N. Moratanch</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1086,27 +1086,27 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>6_AIDS_G</t>
+          <t>6_IT_K</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>INT407, CSE433</t>
+          <t>CSE315R02, INT407</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Dr. A. Suganya, Dr. M. Jayasheela Rakkini, Dr. K. Praveen Kumar, Smt. A. Srilakshmi</t>
+          <t>Dr. K. Chakrapani, Dr. A. L. Sriram, Dr. R. Nithya, Dr. N. Moratanch</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1117,27 +1117,27 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>6_AIDS_G</t>
+          <t>6_IT_K</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>INT407, CSE433</t>
+          <t>CSE405R02</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Dr. A. Suganya, Dr. S. Vidivelli, Dr. K. Praveen Kumar, Smt. A. Srilakshmi</t>
+          <t>Dr. A. Suganya, Dr. S. Pradeepa</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1148,17 +1148,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(1, 2), (1, 3)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>6_AIDS_G</t>
+          <t>6_IT_K</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Shri M. B. Sundhararaj</t>
+          <t>Shri V. Chandrasekar</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1179,27 +1179,27 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>6_AIDS_H</t>
+          <t>4_IT_K</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>INT441R01</t>
+          <t>CSE306R01, CSE309R01</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Dr. M. Jayasheela Rakkini, Dr. S. Pradeepa, Dr. S. Vishnika Veni</t>
+          <t>Dr. R. Anushiadevi, Smt. W. R. Helen, Dr. P. Manivannan, Dr. S. Rajarajan</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1210,27 +1210,27 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>6_AIDS_H</t>
+          <t>4_IT_K</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>INT407, CSE433</t>
+          <t>CSE306R01, CSE309R01</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Dr. P. Sathyaprakash, Dr. M. Rajakumaran, Dr. C. Thaventhiran, Dr. K. Praveen Kumar</t>
+          <t>Dr. R. Anushiadevi, Smt. W. R. Helen, Dr. P. Manivannan, Dr. S. Rajarajan</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1241,27 +1241,27 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>6_AIDS_H</t>
+          <t>4_IT_L</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>INT407, CSE433</t>
+          <t>CSE306R01, CSE309R01</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Dr. P. Sathyaprakash, Dr. S. Vidivelli, Dr. C. Thaventhiran, Smt. A. Srilakshmi</t>
+          <t>Dr. T. Renugadevi, Dr. S. Markkandeyan, Dr. K. Geetha, Dr. R. Devika</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1272,27 +1272,27 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>(2, 4), (2, 5)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>6_AIDS_H</t>
+          <t>4_IT_L</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>TNP102R01</t>
+          <t>CSE306R01, CSE309R01</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Shri V. Chandrasekar</t>
+          <t>Dr. T. Renugadevi, Dr. S. Markkandeyan, Dr. K. Geetha, Dr. R. Devika</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1303,27 +1303,27 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4_AIDS_F</t>
+          <t>6_AIDS_F</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CSE304</t>
+          <t>INT441R01</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Dr. S. Kamakshi, Dr. M. Ifjaz Ahmed, Dr. V. Anand</t>
+          <t>Dr. S. Pradeepa, Dr. S. Vishnika Veni, Dr. M. Jayasheela Rakkini</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1340,21 +1340,21 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4_AIDS_F</t>
+          <t>6_AIDS_F</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CSE206R02, CSE306R01</t>
+          <t>INT407, CSE433</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Dr. V. Venkatesh, Dr. K. Hariharan, Dr. P. L. K. Priyadarsini, Dr. V. Meena</t>
+          <t>Dr. A. Emily Jenifer, Dr. M. Rajakumaran, Dr. K. R. Manjula, Smt. S. Majina Baby</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1371,21 +1371,21 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4_AIDS_F</t>
+          <t>6_AIDS_F</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CSE206R02, CSE306R01</t>
+          <t>INT407, CSE433</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Dr. V. Venkatesh, Dr. K. Hariharan, Dr. P. L. K. Priyadarsini, Dr. S. Priya</t>
+          <t>Dr. A. Emily Jenifer, Dr. P. Sathyaprakash, Dr. K. R. Manjula, Smt. S. Majina Baby</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1396,27 +1396,27 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4_AIDS_G</t>
+          <t>6_AIDS_F</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CSE304</t>
+          <t>TNP102R01</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Dr. K. Rajkumar, Dr. M. Ifjaz Ahmed, Dr. V. Anand</t>
+          <t>Shri K. Arunkumar</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1427,27 +1427,27 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4_AIDS_G</t>
+          <t>6_AIDS_G</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CSE206R02, CSE306R01</t>
+          <t>INT441R01</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Dr. M. Devisri Nandhini, Dr. P. Immaculate Rexi Jenifer, Dr. T. Pasupathi, Dr. M. V. Rajilal</t>
+          <t>Dr. S. Vishnika Veni, Dr. S. Pradeepa, Dr. M. Jayasheela Rakkini</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1458,27 +1458,27 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4_AIDS_G</t>
+          <t>6_AIDS_G</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CSE206R02, CSE306R01</t>
+          <t>INT407, CSE433</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Dr. M. Devisri Nandhini, Dr. P. Immaculate Rexi Jenifer, Dr. T. Pasupathi, Dr. R. Sivaraman</t>
+          <t>Dr. A. Suganya, Dr. M. Jayasheela Rakkini, Dr. K. Praveen Kumar, Smt. A. Srilakshmi</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1489,27 +1489,27 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4_AIDS_H</t>
+          <t>6_AIDS_G</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CSE304</t>
+          <t>INT407, CSE433</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Smt. W. R. Helen, Dr. M. Ifjaz Ahmed, Dr. V. Anand</t>
+          <t>Dr. A. Suganya, Dr. S. Vidivelli, Dr. K. Praveen Kumar, Smt. A. Srilakshmi</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1520,27 +1520,27 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4_AIDS_H</t>
+          <t>6_AIDS_G</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CSE206R02, CSE306R01</t>
+          <t>TNP102R01</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Shri R. Vijay Sai, Dr. R. Ezhilarasie, Dr. P. Immaculate Rexi Jenifer, Dr. V. Nirmala</t>
+          <t>Shri M. B. Sundhararaj</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1551,27 +1551,27 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4_AIDS_H</t>
+          <t>6_AIDS_H</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CSE206R02, CSE306R01</t>
+          <t>INT441R01</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Shri R. Vijay Sai, Dr. R. Ezhilarasie, Dr. P. Immaculate Rexi Jenifer, Smt. L. Gowri</t>
+          <t>Dr. M. Jayasheela Rakkini, Dr. S. Pradeepa, Dr. S. Vishnika Veni</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1582,27 +1582,27 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>6_CSE_A</t>
+          <t>6_AIDS_H</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CSE315R02, CSE403</t>
+          <t>INT407, CSE433</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Dr. K. Chakrapani, Dr. A. Sivapathi, Dr. N. Senthil Selvan, Dr. R. Devika</t>
+          <t>Dr. P. Sathyaprakash, Dr. M. Rajakumaran, Dr. C. Thaventhiran, Dr. K. Praveen Kumar</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1613,27 +1613,27 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>6_CSE_A</t>
+          <t>6_AIDS_H</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CSE315R02, CSE403</t>
+          <t>INT407, CSE433</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Dr. K. Chakrapani, Dr. A. Sivapathi, Dr. N. Senthil Selvan, Dr. M.Sumathi</t>
+          <t>Dr. P. Sathyaprakash, Dr. S. Vidivelli, Dr. C. Thaventhiran, Smt. A. Srilakshmi</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1644,17 +1644,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(2, 2), (2, 3)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6_CSE_A</t>
+          <t>6_AIDS_H</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1675,27 +1675,27 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>6_CSE_B</t>
+          <t>4_AIDS_F</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CSE315R02, CSE403</t>
+          <t>CSE304</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Dr. P. Padmakumari, Ms. M. Vijaya Sakthi, Dr. A. Joy Christy, Dr. Ramya</t>
+          <t>Dr. S. Kamakshi, Dr. M. Ifjaz Ahmed, Dr. V. Anand</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1706,27 +1706,27 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6_CSE_B</t>
+          <t>4_AIDS_F</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CSE315R02, CSE403</t>
+          <t>CSE206R02, CSE306R01</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Dr. P. Padmakumari, Ms. M. Vijaya Sakthi, Dr. A. Joy Christy, Dr. J. Premaladha</t>
+          <t>Dr. V. Venkatesh, Dr. K. Hariharan, Dr. P. L. K. Priyadarsini, Dr. V. Meena</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1737,27 +1737,27 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6_CSE_B</t>
+          <t>4_AIDS_F</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>TNP102R01</t>
+          <t>CSE206R02, CSE306R01</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Ms. V. Karthika</t>
+          <t>Dr. V. Venkatesh, Dr. K. Hariharan, Dr. P. L. K. Priyadarsini, Dr. S. Priya</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1768,27 +1768,27 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>6_CSE_C</t>
+          <t>4_AIDS_G</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CSE315R02, CSE403</t>
+          <t>CSE304</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Dr. A. Joy Christy, Dr. G. Pradeep, Shri S. Ananthakrishnan, Dr. P. Padmakumari</t>
+          <t>Dr. K. Rajkumar, Dr. M. Ifjaz Ahmed, Dr. V. Anand</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1799,27 +1799,27 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6_CSE_C</t>
+          <t>4_AIDS_G</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CSE315R02, CSE403</t>
+          <t>CSE206R02, CSE306R01</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Dr. A. Joy Christy, Dr. A. L. Sriram, Shri S. Ananthakrishnan, Dr. P. Shanthi</t>
+          <t>Dr. M. Devisri Nandhini, Dr. P. Immaculate Rexi Jenifer, Dr. T. Pasupathi, Dr. M. V. Rajilal</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1830,27 +1830,27 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6_CSE_C</t>
+          <t>4_AIDS_G</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>TNP102R01</t>
+          <t>CSE206R02, CSE306R01</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Shri K. Arunkumar</t>
+          <t>Dr. M. Devisri Nandhini, Dr. P. Immaculate Rexi Jenifer, Dr. T. Pasupathi, Dr. R. Sivaraman</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1861,27 +1861,27 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6_CSE_D</t>
+          <t>4_AIDS_H</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CSE315R02, CSE403</t>
+          <t>CSE304</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Dr. M. Sumathi, Dr. P. Shanthi, Dr. B. Lakshmi, Dr. J. Premaladha</t>
+          <t>Smt. W. R. Helen, Dr. M. Ifjaz Ahmed, Dr. V. Anand</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1892,27 +1892,27 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6_CSE_D</t>
+          <t>4_AIDS_H</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CSE315R02, CSE403</t>
+          <t>CSE206R02, CSE306R01</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Dr. M. Sumathi, Dr. P. Shanthi, Dr. B. Lakshmi, Dr. R. Manikandan</t>
+          <t>Shri R. Vijay Sai, Dr. R. Ezhilarasie, Dr. P. Immaculate Rexi Jenifer, Dr. V. Nirmala</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -1923,27 +1923,27 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6_CSE_D</t>
+          <t>4_AIDS_H</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>TNP102R01</t>
+          <t>CSE206R02, CSE306R01</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Shri S. Nesakumaran</t>
+          <t>Shri R. Vijay Sai, Dr. R. Ezhilarasie, Dr. P. Immaculate Rexi Jenifer, Smt. L. Gowri</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -1954,17 +1954,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6_CSE_E</t>
+          <t>6_CSE_A</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Dr. Ramya, Dr. V. Nirmala, Shri S. Ananthakrishnan, Dr. N. Senthil Selvan</t>
+          <t>Dr. K. Chakrapani, Dr. A. Sivapathi, Dr. N. Senthil Selvan, Dr. R. Devika</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -1985,17 +1985,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6_CSE_E</t>
+          <t>6_CSE_A</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Dr. Ramya, Dr. V. Nirmala, Shri S. Ananthakrishnan, Dr. R. Devika</t>
+          <t>Dr. K. Chakrapani, Dr. A. Sivapathi, Dr. N. Senthil Selvan, Dr. M.Sumathi</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2016,17 +2016,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>(2, 2), (2, 3)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6_CSE_E</t>
+          <t>6_CSE_A</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Shri K. M. Murugappan</t>
+          <t>Shri V. Chandrasekar</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2047,27 +2047,27 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4_CSE_A</t>
+          <t>6_CSE_B</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CSE206R02, CSE306R01</t>
+          <t>CSE315R02, CSE403</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Dr. K. S. Suresh, Dr. M. V. Rajilal, Dr. V. Meena, Dr. V. Nirmala</t>
+          <t>Dr. P. Padmakumari, Ms. M. Vijaya Sakthi, Dr. A. Joy Christy, Dr. Ramya</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2078,27 +2078,27 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>(3, 0), (3, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4_CSE_A</t>
+          <t>6_CSE_B</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CSE206R02, CSE306R01</t>
+          <t>CSE315R02, CSE403</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Dr. K. S. Suresh, Dr. V. Venkatesh, Dr. V. Meena, Dr. M. Devisri Nandhini</t>
+          <t>Dr. P. Padmakumari, Ms. M. Vijaya Sakthi, Dr. A. Joy Christy, Dr. J. Premaladha</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2115,21 +2115,21 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4_CSE_B</t>
+          <t>6_CSE_B</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CSE206R02, CSE306R01</t>
+          <t>TNP102R01</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Dr. R. Ezhilarasie, Dr. T. Pasupathi, Dr. T. Suriya Praba, Dr. B. Karthikeyan</t>
+          <t>Ms. V. Karthika</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -2140,27 +2140,27 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4_CSE_B</t>
+          <t>6_CSE_C</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CSE206R02, CSE306R01</t>
+          <t>CSE315R02, CSE403</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Dr. R. Ezhilarasie, Dr. T. Pasupathi, Dr. T. Suriya Praba, Dr. S. Priya</t>
+          <t>Dr. A. Joy Christy, Dr. G. Pradeep, Shri S. Ananthakrishnan, Dr. P. Padmakumari</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -2171,27 +2171,27 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4_CSE_C</t>
+          <t>6_CSE_C</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CSE206R02, CSE306R01</t>
+          <t>CSE315R02, CSE403</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Dr. K. Hariharan, Dr. K. Joseph Abraham Sundar, Dr. D. Umamaheswari, Dr. R. Anushiadevi</t>
+          <t>Dr. A. Joy Christy, Dr. A. L. Sriram, Shri S. Ananthakrishnan, Dr. P. Shanthi</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -2202,27 +2202,27 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>4_CSE_C</t>
+          <t>6_CSE_C</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CSE206R02, CSE306R01</t>
+          <t>TNP102R01</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Dr. K. Hariharan, Dr. K. Joseph Abraham Sundar, Dr. D. Umamaheswari, Dr. R. Anushiadevi</t>
+          <t>Shri K. Arunkumar</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -2233,27 +2233,27 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>(3, 0), (3, 1)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4_CSE_D</t>
+          <t>6_CSE_D</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CSE206R02, CSE306R01</t>
+          <t>CSE315R02, CSE403</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Dr. M. Meenalochani, Dr. R. Ananth Hari, Dr. P. Anu, Dr. S. Jayasankari</t>
+          <t>Dr. M. Sumathi, Dr. P. Shanthi, Dr. B. Lakshmi, Dr. J. Premaladha</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2264,27 +2264,27 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4_CSE_D</t>
+          <t>6_CSE_D</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CSE206R02, CSE306R01</t>
+          <t>CSE315R02, CSE403</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Dr. M. Meenalochani, Dr. R. Ananth Hari, Dr. P. Anu, Dr. V. Nirmala</t>
+          <t>Dr. M. Sumathi, Dr. P. Shanthi, Dr. B. Lakshmi, Dr. R. Manikandan</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -2295,27 +2295,27 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4_CSE_E</t>
+          <t>6_CSE_D</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CSE206R02, CSE306R01</t>
+          <t>TNP102R01</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Dr. D. Muralidharan, Dr. R. Ananth Hari, Dr. S. Jayasankari, Dr. T. Suriya Praba</t>
+          <t>Shri S. Nesakumaran</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -2326,27 +2326,27 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>4_CSE_E</t>
+          <t>6_CSE_E</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CSE206R02, CSE306R01</t>
+          <t>CSE315R02, CSE403</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Dr. D. Muralidharan, Dr. R. Ananth Hari, Dr. S. Jayasankari, Dr. P. Anu</t>
+          <t>Dr. Ramya, Dr. V. Nirmala, Shri S. Ananthakrishnan, Dr. N. Senthil Selvan</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -2357,27 +2357,27 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>6_CSBT_I</t>
+          <t>6_CSE_E</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>INT309</t>
+          <t>CSE315R02, CSE403</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Dr. P. Shanthi, Dr. R. S. Raghav, Dr. R. Manikandan</t>
+          <t>Dr. Ramya, Dr. V. Nirmala, Shri S. Ananthakrishnan, Dr. R. Devika</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -2388,27 +2388,27 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6_CSBT_I</t>
+          <t>6_CSE_E</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>INT427</t>
+          <t>TNP102R01</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Dr. H. Anilaglory, Smt. I. Epistle, Dr. Sujeet S Jagtap, Dr. Dindayal Mahto</t>
+          <t>Shri K. M. Murugappan</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -2419,27 +2419,27 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6_CSBT_I</t>
+          <t>4_CSE_A</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>INT321</t>
+          <t>CSE206R02, CSE306R01</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Dr. H. Anilaglory, Smt. I. Epistle, Dr. Sujeet S Jagtap, Dr. Dindayal Mahto</t>
+          <t>Dr. K. S. Suresh, Dr. M. V. Rajilal, Dr. V. Meena, Dr. V. Nirmala</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -2450,27 +2450,27 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6_CSBT_I</t>
+          <t>4_CSE_A</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>TNP102R01</t>
+          <t>CSE206R02, CSE306R01</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Shri M. B. Sundhararaj</t>
+          <t>Dr. K. S. Suresh, Dr. V. Venkatesh, Dr. V. Meena, Dr. M. Devisri Nandhini</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -2481,17 +2481,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4_CSBT_I</t>
+          <t>4_CSE_B</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Dr. M. V. Rajilal, Dr. M. Meenalochani, Dr. S. Kamakshi, Dr. P. Immaculate Rexi Jenifer</t>
+          <t>Dr. R. Ezhilarasie, Dr. T. Pasupathi, Dr. T. Suriya Praba, Dr. B. Karthikeyan</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -2512,17 +2512,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4_CSBT_I</t>
+          <t>4_CSE_B</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Dr. M. V. Rajilal, Dr. R. Ananth Hari, Dr. S. Kamakshi, Dr. D. Umamaheswari</t>
+          <t>Dr. R. Ezhilarasie, Dr. T. Pasupathi, Dr. T. Suriya Praba, Dr. S. Priya</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -2543,27 +2543,27 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>(1, 2), (1, 3)</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6_ICT_M</t>
+          <t>4_CSE_C</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>INT407, ECE313</t>
+          <t>CSE206R02, CSE306R01</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Dr. S. Vidivelli, Dr. R. Nithya, Shri R. Vijay Sai, Dr. R. Saravanan</t>
+          <t>Dr. K. Hariharan, Dr. K. Joseph Abraham Sundar, Dr. D. Umamaheswari, Dr. R. Anushiadevi</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -2574,27 +2574,27 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6_ICT_M</t>
+          <t>4_CSE_C</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>INT407, ECE314</t>
+          <t>CSE206R02, CSE306R01</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Dr. S. Vidivelli, Dr. H. Anilaglory, Shri R. Vijay Sai, Dr. R. Saravanan</t>
+          <t>Dr. K. Hariharan, Dr. K. Joseph Abraham Sundar, Dr. D. Umamaheswari, Dr. R. Anushiadevi</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -2605,27 +2605,27 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>(2, 4), (2, 5)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6_ICT_M</t>
+          <t>4_CSE_D</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>TNP102R01</t>
+          <t>CSE206R02, CSE306R01</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Shri S. Nesakumaran</t>
+          <t>Dr. M. Meenalochani, Dr. R. Ananth Hari, Dr. P. Anu, Dr. S. Jayasankari</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -2636,27 +2636,27 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>4_ICT_M</t>
+          <t>4_CSE_D</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CSE309R01, INT103R01</t>
+          <t>CSE206R02, CSE306R01</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Dr. B. Karthikeyan, Shri P. Rajendran, Dr. S. Palanivel, Dr. R. Venkatesan</t>
+          <t>Dr. M. Meenalochani, Dr. R. Ananth Hari, Dr. P. Anu, Dr. V. Nirmala</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -2667,27 +2667,27 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4_ICT_M</t>
+          <t>4_CSE_E</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CSE309R01, INT103R01</t>
+          <t>CSE206R02, CSE306R01</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Dr. B. Karthikeyan, Shri P. Rajendran, Dr. S. Palanivel, Dr. R. Venkatesan</t>
+          <t>Dr. D. Muralidharan, Dr. R. Ananth Hari, Dr. S. Jayasankari, Dr. T. Suriya Praba</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -2698,27 +2698,27 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>6_CSBS_N</t>
+          <t>4_CSE_E</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ENG316</t>
+          <t>CSE206R02, CSE306R01</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Dr. V. Vidya</t>
+          <t>Dr. D. Muralidharan, Dr. R. Ananth Hari, Dr. S. Jayasankari, Dr. P. Anu</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -2729,27 +2729,27 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>6_CSBS_N</t>
+          <t>6_CSBT_I</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CSE323R01</t>
+          <t>INT309</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Shri V. P. Akniraj, Dr. K. Rajkumar, Dr. G. R. Brindha, Dr. S. Vishnika Veni</t>
+          <t>Dr. P. Shanthi, Dr. R. S. Raghav, Dr. R. Manikandan</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -2760,27 +2760,27 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>6_CSBS_N</t>
+          <t>6_CSBT_I</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>INT315</t>
+          <t>INT427</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Shri V. P. Akniraj, Dr. K. Rajkumar, Dr. G. R. Brindha, Dr. S. Vishnika Veni</t>
+          <t>Dr. H. Anilaglory, Smt. I. Epistle, Dr. Sujeet S Jagtap, Dr. Dindayal Mahto</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -2791,27 +2791,27 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>(2, 2), (2, 3)</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>4_CSBS_N</t>
+          <t>6_CSBT_I</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ENG212</t>
+          <t>INT321</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Shri G. Ramakrishnan</t>
+          <t>Dr. H. Anilaglory, Smt. I. Epistle, Dr. Sujeet S Jagtap, Dr. Dindayal Mahto</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -2822,27 +2822,27 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>4_CSBS_N</t>
+          <t>6_CSBT_I</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CSE319, MAT331</t>
+          <t>TNP102R01</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Ms. S. Sowndarya, Dr. B. Srinivasan, Dr. S. Raj Anand</t>
+          <t>Shri M. B. Sundhararaj</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -2853,27 +2853,27 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4_CSBS_N</t>
+          <t>4_CSBT_I</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CSE319, MAT332</t>
+          <t>CSE206R02, CSE306R01</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Ms. S. Sowndarya, Dr. B. Srinivasan, Dr. S. Raj Anand</t>
+          <t>Dr. M. V. Rajilal, Dr. M. Meenalochani, Dr. S. Kamakshi, Dr. P. Immaculate Rexi Jenifer</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -2884,27 +2884,27 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>4_CSBS_N</t>
+          <t>4_CSBT_I</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CSE309R01, CSE218</t>
+          <t>CSE206R02, CSE306R01</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Dr. S. Rajarajan, Dr. N. Sasikala Devi, Dr. G. Pradeep, Smt. P. Silambarasi</t>
+          <t>Dr. M. V. Rajilal, Dr. R. Ananth Hari, Dr. S. Kamakshi, Dr. D. Umamaheswari</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -2915,27 +2915,27 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>4_CSBS_N</t>
+          <t>6_ICT_M</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CSE309R01, CSE218</t>
+          <t>INT407, ECE313</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Dr. S. Rajarajan, Dr. N. Sasikala Devi, Dr. G. Pradeep, Smt. P. Silambarasi</t>
+          <t>Dr. S. Vidivelli, Dr. R. Nithya, Shri R. Vijay Sai, Dr. R. Saravanan</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -2952,21 +2952,21 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>6_IoTA_J</t>
+          <t>6_ICT_M</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>INT307R01</t>
+          <t>INT407, ECE314</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Dr. S. Raj Anand, Dr. N. Venkatasubramanian, Shri N. Senthil Anand</t>
+          <t>Dr. S. Vidivelli, Dr. H. Anilaglory, Shri R. Vijay Sai, Dr. R. Saravanan</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -2977,27 +2977,27 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>6_IoTA_J</t>
+          <t>6_ICT_M</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>INT407</t>
+          <t>TNP102R01</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Dr. M. V. Rajilal, Shri N. Senthil Anand, Dr. A. Dennis Ananth, Smt. M. Indhumathi</t>
+          <t>Shri S. Nesakumaran</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -3008,27 +3008,27 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(1, 2), (1, 3)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>6_IoTA_J</t>
+          <t>4_ICT_M</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CSE434</t>
+          <t>CSE309R01, INT103R01</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Dr. M. V. Rajilal, Shri N. Senthil Anand, Dr. A. Dennis Ananth, Shri. M. Balamurali</t>
+          <t>Dr. B. Karthikeyan, Shri P. Rajendran, Dr. S. Palanivel, Dr. R. Venkatesan</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -3039,27 +3039,27 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>6_IoTA_J</t>
+          <t>4_ICT_M</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>TNP102R01</t>
+          <t>CSE309R01, INT103R01</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Ms. V. Karthika</t>
+          <t>Dr. B. Karthikeyan, Shri P. Rajendran, Dr. S. Palanivel, Dr. R. Venkatesan</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -3070,27 +3070,27 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>4_IoTA_J</t>
+          <t>6_CSBS_N</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CSE206R02</t>
+          <t>ENG316</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Dr. K. Joseph Abraham Sundar, Dr. D. Muralidharan, Dr. M. V. Rajilal</t>
+          <t>Dr. V. Vidya</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -3101,27 +3101,27 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>4_IoTA_J</t>
+          <t>6_CSBS_N</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CSE306R01</t>
+          <t>CSE323R01</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Dr. M. P. Karthikeyan, Dr. S. Ramakrishnan, Dr. V. Nirmala</t>
+          <t>Shri V. P. Akniraj, Dr. K. Rajkumar, Dr. G. R. Brindha, Dr. S. Vishnika Veni</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -3132,379 +3132,379 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_IT_L, 6_ICT_M, 6_CSBS_N</t>
+          <t>6_CSBS_N</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>MINOR_6</t>
+          <t>INT315</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>MINOR_6</t>
+          <t>Shri V. P. Akniraj, Dr. K. Rajkumar, Dr. G. R. Brindha, Dr. S. Vishnika Veni</t>
         </is>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7), (3, 0), (3, 1)</t>
+          <t>(1, 2), (1, 3)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_CSE_D, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_IT_K, 4_IT_L, 4_ICT_M, 4_CSBS_N</t>
+          <t>4_CSBS_N</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>MINOR_4</t>
+          <t>ENG212</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>MINOR_4</t>
+          <t>Shri G. Ramakrishnan</t>
         </is>
       </c>
       <c r="E89" t="n">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7), (4, 0), (4, 1)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_B, 4_AIDS_G, 4_AIDS_H, 4_IT_K, 4_CSBS_N, 6_CSE_A, 6_CSE_B, 6_CSE_E, 6_AIDS_H, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_ICT_M</t>
+          <t>4_CSBS_N</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>LUNCH_DAY_1_HOUR_4</t>
+          <t>CSE319, MAT331</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Ms. S. Sowndarya, Dr. B. Srinivasan, Dr. S. Raj Anand</t>
         </is>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>(0, 3)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>4_CSE_C, 4_CSE_D, 4_CSE_E, 4_AIDS_F, 4_CSBT_I, 4_IoTA_J, 4_IT_L, 4_ICT_M, 6_CSE_C, 6_CSE_D, 6_AIDS_F, 6_AIDS_G, 6_IT_L, 6_CSBS_N</t>
+          <t>4_CSBS_N</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>LUNCH_DAY_1_HOUR_5</t>
+          <t>CSE319, MAT332</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Ms. S. Sowndarya, Dr. B. Srinivasan, Dr. S. Raj Anand</t>
         </is>
       </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>(0, 4)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_C, 4_AIDS_G, 4_IT_K, 4_IT_L, 4_ICT_M, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_AIDS_F, 6_IoTA_J, 6_IT_K, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSBS_N</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>LUNCH_DAY_2_HOUR_4</t>
+          <t>CSE309R01, CSE218</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Dr. S. Rajarajan, Dr. N. Sasikala Devi, Dr. G. Pradeep, Smt. P. Silambarasi</t>
         </is>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>(1, 3)</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_D, 4_CSE_E, 4_AIDS_F, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_CSBS_N, 6_CSE_A, 6_CSE_E, 6_AIDS_G, 6_AIDS_H, 6_CSBT_I, 6_IT_L</t>
+          <t>4_CSBS_N</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>LUNCH_DAY_2_HOUR_5</t>
+          <t>CSE309R01, CSE218</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Dr. S. Rajarajan, Dr. N. Sasikala Devi, Dr. G. Pradeep, Smt. P. Silambarasi</t>
         </is>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>(1, 4)</t>
+          <t>(1, 2), (1, 3)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_C, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_CSBT_I, 4_IT_L, 4_CSBS_N, 6_CSE_A, 6_AIDS_G, 6_AIDS_H, 6_IT_K, 6_IT_L, 6_ICT_M</t>
+          <t>6_IoTA_J</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>LUNCH_DAY_3_HOUR_4</t>
+          <t>INT307R01</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Dr. S. Raj Anand, Dr. N. Venkatasubramanian, Shri N. Senthil Anand</t>
         </is>
       </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>(2, 3)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_D, 4_AIDS_H, 4_IoTA_J, 4_IT_K, 4_ICT_M, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_AIDS_F, 6_CSBT_I, 6_IoTA_J, 6_CSBS_N</t>
+          <t>6_IoTA_J</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>LUNCH_DAY_3_HOUR_5</t>
+          <t>INT407</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Dr. M. V. Rajilal, Shri N. Senthil Anand, Dr. A. Dennis Ananth, Smt. M. Indhumathi</t>
         </is>
       </c>
       <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>(2, 4)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>4_CSE_D, 4_CSBT_I, 4_IoTA_J, 4_IT_K, 4_IT_L, 4_ICT_M, 4_CSBS_N, 6_CSE_A, 6_CSE_C, 6_AIDS_G, 6_AIDS_H, 6_IoTA_J, 6_IT_L, 6_CSBS_N</t>
+          <t>6_IoTA_J</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>LUNCH_DAY_4_HOUR_4</t>
+          <t>CSE434</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Dr. M. V. Rajilal, Shri N. Senthil Anand, Dr. A. Dennis Ananth, Shri. M. Balamurali</t>
         </is>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>(3, 3)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 6_CSE_B, 6_CSE_D, 6_CSE_E, 6_AIDS_F, 6_CSBT_I, 6_IT_K, 6_ICT_M</t>
+          <t>6_IoTA_J</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>LUNCH_DAY_4_HOUR_5</t>
+          <t>TNP102R01</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Ms. V. Karthika</t>
         </is>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>(3, 4)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_D, 4_CSE_E, 4_AIDS_H, 4_IoTA_J, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_CSBT_I, 6_IT_L, 6_CSBS_N</t>
+          <t>4_IoTA_J</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>LUNCH_DAY_5_HOUR_4</t>
+          <t>CSE206R02</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Dr. K. Joseph Abraham Sundar, Dr. D. Muralidharan, Dr. M. V. Rajilal</t>
         </is>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>(4, 3)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_C, 4_AIDS_G, 4_CSBT_I, 4_IT_K, 4_IT_L, 4_ICT_M, 4_CSBS_N, 6_CSE_A, 6_AIDS_H, 6_IoTA_J, 6_IT_K, 6_ICT_M</t>
+          <t>4_IoTA_J</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>LUNCH_DAY_5_HOUR_5</t>
+          <t>CSE306R01</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Dr. M. P. Karthikeyan, Dr. S. Ramakrishnan, Dr. V. Nirmala</t>
         </is>
       </c>
       <c r="E99" t="n">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>(4, 4)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>

--- a/data/data_lunch_lab_allocated.xlsx
+++ b/data/data_lunch_lab_allocated.xlsx
@@ -538,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_C, 4_CSE_E, 4_AIDS_F, 4_CSBT_I, 4_IoTA_J, 4_IT_L, 4_ICT_M, 6_CSE_C, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_IT_K, 6_IT_L</t>
+          <t>4_CSE_C, 4_CSE_D, 4_AIDS_F, 4_CSBT_I, 4_IT_L, 4_ICT_M, 4_CSBS_N, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_CSBT_I, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_D, 4_AIDS_G, 4_AIDS_H, 4_IT_K, 4_CSBS_N, 6_CSE_A, 6_CSE_B, 6_CSE_D, 6_AIDS_H, 6_CSBT_I, 6_IoTA_J, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_CSE_B, 4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_IoTA_J, 4_IT_K, 6_CSE_A, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_IoTA_J, 6_IT_K, 6_IT_L</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_C, 4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_IT_K, 4_IT_L, 4_ICT_M, 6_CSE_D, 6_CSE_E, 6_AIDS_G, 6_CSBT_I, 6_IoTA_J, 6_IT_L</t>
+          <t>4_CSE_B, 4_CSE_D, 4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_IT_K, 4_IT_L, 4_ICT_M, 4_CSBS_N, 6_CSE_A, 6_CSE_C, 6_CSE_D, 6_AIDS_G, 6_CSBT_I</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_D, 4_AIDS_F, 4_CSBT_I, 4_IoTA_J, 4_CSBS_N, 6_CSE_A, 6_CSE_B, 6_CSE_C, 6_AIDS_F, 6_AIDS_H, 6_IT_K, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_CSE_C, 4_AIDS_F, 4_CSBT_I, 4_IoTA_J, 6_CSE_B, 6_CSE_E, 6_AIDS_F, 6_AIDS_H, 6_IoTA_J, 6_IT_K, 6_IT_L, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_IoTA_J, 4_IT_K, 4_IT_L, 4_CSBS_N, 6_CSE_A, 6_AIDS_G, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_CSE_D, 4_CSE_E, 4_IoTA_J, 4_IT_K, 4_IT_L, 6_CSE_B, 6_AIDS_H, 6_IoTA_J, 6_IT_L, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_C, 4_CSE_D, 4_AIDS_F, 4_CSBT_I, 4_ICT_M, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_AIDS_F, 6_AIDS_H, 6_IT_L, 6_ICT_M</t>
+          <t>4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_ICT_M, 4_CSBS_N, 6_CSE_A, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_CSBT_I, 6_IT_K</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4_AIDS_F, 4_AIDS_G, 4_IoTA_J, 4_IT_K, 4_ICT_M, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_AIDS_H, 6_IoTA_J, 6_IT_K, 6_IT_L, 6_ICT_M</t>
+          <t>4_CSE_C, 4_CSE_D, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_IT_K, 4_ICT_M, 6_CSE_A, 6_CSE_B, 6_CSE_C, 6_AIDS_F, 6_IoTA_J, 6_IT_K, 6_IT_L</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_CSE_D, 4_CSE_E, 4_AIDS_H, 4_CSBT_I, 4_IT_L, 4_CSBS_N, 6_CSE_A, 6_AIDS_F, 6_AIDS_G, 6_CSBT_I, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_CSE_B, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_IT_L, 4_CSBS_N, 6_CSE_D, 6_CSE_E, 6_AIDS_G, 6_AIDS_H, 6_CSBT_I, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_CSE_D, 4_AIDS_F, 4_CSBT_I, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_AIDS_F, 6_AIDS_H, 6_CSBT_I, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_CSE_B, 4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_CSBS_N, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_IT_K, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_IoTA_J, 4_IT_K, 4_IT_L, 4_ICT_M, 4_CSBS_N, 6_CSE_A, 6_CSE_E, 6_AIDS_G, 6_IoTA_J, 6_IT_K, 6_IT_L</t>
+          <t>4_CSE_C, 4_CSE_D, 4_CSE_E, 4_IT_K, 4_IT_L, 4_ICT_M, 6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSBT_I, 6_IoTA_J, 6_IT_L, 6_ICT_M</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -900,7 +900,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>(1, 2), (1, 3)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(1, 2), (1, 3)</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>(2, 2), (2, 3)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>(3, 0), (3, 1)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(1, 2), (1, 3)</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>(2, 2), (2, 3)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>(3, 0), (3, 1)</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>(3, 0), (3, 1)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>(2, 4), (2, 5)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>(2, 4), (2, 5)</t>
+          <t>(2, 2), (2, 3)</t>
         </is>
       </c>
     </row>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(2, 2), (2, 3)</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>(1, 2), (1, 3)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -3163,7 +3163,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>(1, 2), (1, 3)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>(1, 2), (1, 3)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(1, 2), (1, 3)</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>

--- a/data/data_lunch_lab_allocated.xlsx
+++ b/data/data_lunch_lab_allocated.xlsx
@@ -538,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4_CSE_C, 4_CSE_D, 4_AIDS_F, 4_CSBT_I, 4_IT_L, 4_ICT_M, 4_CSBS_N, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_CSBT_I, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_B, 4_CSE_C, 4_CSE_E, 4_AIDS_H, 4_CSBT_I, 4_IT_K, 4_ICT_M, 4_CSBS_N, 6_CSE_B, 6_CSE_D, 6_CSE_E, 6_AIDS_F, 6_AIDS_H, 6_IT_L</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_B, 4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_IoTA_J, 4_IT_K, 6_CSE_A, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_IoTA_J, 6_IT_K, 6_IT_L</t>
+          <t>4_CSE_A, 4_CSE_D, 4_AIDS_F, 4_AIDS_G, 4_IoTA_J, 4_IT_L, 6_CSE_A, 6_CSE_C, 6_AIDS_G, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_D, 4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_IT_K, 4_IT_L, 4_ICT_M, 4_CSBS_N, 6_CSE_A, 6_CSE_C, 6_CSE_D, 6_AIDS_G, 6_CSBT_I</t>
+          <t>4_CSE_B, 4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 4_IT_K, 4_CSBS_N, 6_CSE_B, 6_CSE_D, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_CSBT_I, 6_IoTA_J, 6_IT_K</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_C, 4_AIDS_F, 4_CSBT_I, 4_IoTA_J, 6_CSE_B, 6_CSE_E, 6_AIDS_F, 6_AIDS_H, 6_IoTA_J, 6_IT_K, 6_IT_L, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_CSE_C, 4_CSE_D, 4_CSE_E, 4_CSBT_I, 4_IoTA_J, 4_IT_L, 4_ICT_M, 6_CSE_A, 6_CSE_C, 6_AIDS_H, 6_IT_L, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_CSE_D, 4_CSE_E, 4_IoTA_J, 4_IT_K, 4_IT_L, 6_CSE_B, 6_AIDS_H, 6_IoTA_J, 6_IT_L, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_B, 4_CSE_C, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_CSBT_I, 4_IT_K, 4_IT_L, 4_CSBS_N, 6_CSE_E, 6_IoTA_J, 6_IT_K, 6_IT_L, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_ICT_M, 4_CSBS_N, 6_CSE_A, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_CSBT_I, 6_IT_K</t>
+          <t>4_CSE_A, 4_CSE_D, 4_AIDS_H, 4_IoTA_J, 4_ICT_M, 6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_CSBT_I, 6_ICT_M</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4_CSE_C, 4_CSE_D, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_IT_K, 4_ICT_M, 6_CSE_A, 6_CSE_B, 6_CSE_C, 6_AIDS_F, 6_IoTA_J, 6_IT_K, 6_IT_L</t>
+          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_CSE_D, 4_AIDS_F, 4_IoTA_J, 4_IT_L, 4_ICT_M, 6_CSE_A, 6_CSE_C, 6_CSBT_I, 6_IoTA_J, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_B, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_IT_L, 4_CSBS_N, 6_CSE_D, 6_CSE_E, 6_AIDS_G, 6_AIDS_H, 6_CSBT_I, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_IT_K, 4_CSBS_N, 6_CSE_B, 6_CSE_D, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_IT_K, 6_IT_L</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_B, 4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_CSBS_N, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_IT_K, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_CSE_D, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_IT_L, 6_CSE_A, 6_CSE_C, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_CSBT_I, 6_ICT_M</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4_CSE_C, 4_CSE_D, 4_CSE_E, 4_IT_K, 4_IT_L, 4_ICT_M, 6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSBT_I, 6_IoTA_J, 6_IT_L, 6_ICT_M</t>
+          <t>4_CSE_B, 4_CSE_C, 4_CSE_E, 4_AIDS_F, 4_IT_K, 4_ICT_M, 4_CSBS_N, 6_CSE_B, 6_CSE_D, 6_CSE_E, 6_IoTA_J, 6_IT_K, 6_IT_L, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -900,7 +900,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>(2, 4), (2, 5)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>(1, 2), (1, 3)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>(1, 2), (1, 3)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(2, 2), (2, 3)</t>
         </is>
       </c>
     </row>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>(2, 4), (2, 5)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(2, 2), (2, 3)</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7)</t>
+          <t>(3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7)</t>
+          <t>(1, 2), (1, 3)</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7)</t>
+          <t>(2, 2), (2, 3)</t>
         </is>
       </c>
     </row>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>(2, 2), (2, 3)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>(2, 2), (2, 3)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>(2, 4), (2, 5)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -3163,7 +3163,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>(1, 2), (1, 3)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>

--- a/data/data_lunch_lab_allocated.xlsx
+++ b/data/data_lunch_lab_allocated.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR_6</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -517,7 +517,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MINOR_4</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -538,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_C, 4_CSE_E, 4_AIDS_H, 4_CSBT_I, 4_IT_K, 4_ICT_M, 4_CSBS_N, 6_CSE_B, 6_CSE_D, 6_CSE_E, 6_AIDS_F, 6_AIDS_H, 6_IT_L</t>
+          <t>4_CSE_B, 4_CSE_C, 4_CSE_D, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_IT_K, 6_CSE_A, 6_CSE_C, 6_CSE_D, 6_AIDS_F, 6_IoTA_J, 6_IT_L, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_D, 4_AIDS_F, 4_AIDS_G, 4_IoTA_J, 4_IT_L, 6_CSE_A, 6_CSE_C, 6_AIDS_G, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_IT_L, 4_ICT_M, 4_CSBS_N, 6_CSE_B, 6_CSE_E, 6_AIDS_G, 6_AIDS_H, 6_CSBT_I, 6_IT_K, 6_ICT_M</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 4_IT_K, 4_CSBS_N, 6_CSE_B, 6_CSE_D, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_CSBT_I, 6_IoTA_J, 6_IT_K</t>
+          <t>4_CSE_A, 4_CSE_C, 4_AIDS_F, 4_CSBT_I, 4_IT_K, 4_ICT_M, 6_CSE_A, 6_CSE_B, 6_CSE_E, 6_AIDS_G, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_IT_L</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_C, 4_CSE_D, 4_CSE_E, 4_CSBT_I, 4_IoTA_J, 4_IT_L, 4_ICT_M, 6_CSE_A, 6_CSE_C, 6_AIDS_H, 6_IT_L, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_B, 4_CSE_D, 4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_IoTA_J, 4_IT_L, 4_CSBS_N, 6_CSE_C, 6_CSE_D, 6_AIDS_F, 6_AIDS_H, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_C, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_CSBT_I, 4_IT_K, 4_IT_L, 4_CSBS_N, 6_CSE_E, 6_IoTA_J, 6_IT_K, 6_IT_L, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_CSE_D, 4_AIDS_H, 4_IoTA_J, 4_CSBS_N, 6_CSE_B, 6_CSE_D, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_IT_K, 6_IT_L</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_D, 4_AIDS_H, 4_IoTA_J, 4_ICT_M, 6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_CSBT_I, 6_ICT_M</t>
+          <t>4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_CSBT_I, 4_IT_K, 4_IT_L, 4_ICT_M, 6_CSE_A, 6_CSE_C, 6_CSE_E, 6_CSBT_I, 6_IoTA_J, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_CSE_D, 4_AIDS_F, 4_IoTA_J, 4_IT_L, 4_ICT_M, 6_CSE_A, 6_CSE_C, 6_CSBT_I, 6_IoTA_J, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_B, 4_CSE_D, 4_IoTA_J, 4_IT_K, 4_IT_L, 4_ICT_M, 6_CSE_A, 6_CSE_D, 6_AIDS_F, 6_AIDS_H, 6_CSBT_I, 6_IoTA_J, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_IT_K, 4_CSBS_N, 6_CSE_B, 6_CSE_D, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_IT_K, 6_IT_L</t>
+          <t>4_CSE_A, 4_CSE_C, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_CSBS_N, 6_CSE_B, 6_CSE_C, 6_CSE_E, 6_AIDS_G, 6_IT_K, 6_IT_L</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_D, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_IT_L, 6_CSE_A, 6_CSE_C, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_CSBT_I, 6_ICT_M</t>
+          <t>4_CSE_A, 4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_IT_L, 4_ICT_M, 4_CSBS_N, 6_CSE_B, 6_CSE_C, 6_CSE_E, 6_AIDS_G, 6_ICT_M</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_C, 4_CSE_E, 4_AIDS_F, 4_IT_K, 4_ICT_M, 4_CSBS_N, 6_CSE_B, 6_CSE_D, 6_CSE_E, 6_IoTA_J, 6_IT_K, 6_IT_L, 6_CSBS_N</t>
+          <t>4_CSE_B, 4_CSE_C, 4_CSE_D, 4_AIDS_F, 4_IT_K, 6_CSE_A, 6_CSE_D, 6_AIDS_F, 6_AIDS_H, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_IT_L, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>(3, 0), (3, 1)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(1, 2), (1, 3)</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>(2, 2), (2, 3)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(1, 2), (1, 3)</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(1, 2), (1, 3)</t>
         </is>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>(2, 2), (2, 3)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>(2, 4), (2, 5)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>(3, 0), (3, 1)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>(3, 0), (3, 1)</t>
+          <t>(1, 2), (1, 3)</t>
         </is>
       </c>
     </row>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>(1, 2), (1, 3)</t>
+          <t>(3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>(2, 2), (2, 3)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(1, 2), (1, 3)</t>
         </is>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>(2, 4), (2, 5)</t>
+          <t>(2, 2), (2, 3)</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -3163,7 +3163,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(2, 2), (2, 3)</t>
         </is>
       </c>
     </row>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>(2, 4), (2, 5)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>

--- a/data/data_lunch_lab_allocated.xlsx
+++ b/data/data_lunch_lab_allocated.xlsx
@@ -538,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_C, 4_CSE_D, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_IT_K, 6_CSE_A, 6_CSE_C, 6_CSE_D, 6_AIDS_F, 6_IoTA_J, 6_IT_L, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_CSE_D, 4_CSE_E, 4_AIDS_H, 4_IoTA_J, 4_IT_K, 4_IT_L, 4_ICT_M, 6_CSE_C, 6_CSE_D, 6_AIDS_H, 6_IT_L</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_IT_L, 4_ICT_M, 4_CSBS_N, 6_CSE_B, 6_CSE_E, 6_AIDS_G, 6_AIDS_H, 6_CSBT_I, 6_IT_K, 6_ICT_M</t>
+          <t>4_AIDS_F, 4_AIDS_G, 4_CSBT_I, 4_CSBS_N, 6_CSE_A, 6_CSE_B, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_C, 4_AIDS_F, 4_CSBT_I, 4_IT_K, 4_ICT_M, 6_CSE_A, 6_CSE_B, 6_CSE_E, 6_AIDS_G, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_IT_L</t>
+          <t>4_CSE_A, 4_CSE_D, 4_IT_K, 4_IT_L, 4_ICT_M, 6_CSE_B, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_IT_L, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_D, 4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_IoTA_J, 4_IT_L, 4_CSBS_N, 6_CSE_C, 6_CSE_D, 6_AIDS_F, 6_AIDS_H, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_B, 4_CSE_C, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_CSBS_N, 6_CSE_A, 6_CSE_C, 6_CSE_D, 6_AIDS_H, 6_ICT_M</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_CSE_D, 4_AIDS_H, 4_IoTA_J, 4_CSBS_N, 6_CSE_B, 6_CSE_D, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_IT_K, 6_IT_L</t>
+          <t>4_CSE_B, 4_CSE_C, 4_CSE_D, 4_AIDS_F, 4_AIDS_H, 4_IoTA_J, 4_ICT_M, 4_CSBS_N, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_CSBT_I, 6_IoTA_J, 6_IT_L</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_CSBT_I, 4_IT_K, 4_IT_L, 4_ICT_M, 6_CSE_A, 6_CSE_C, 6_CSE_E, 6_CSBT_I, 6_IoTA_J, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_CSE_E, 4_AIDS_G, 4_CSBT_I, 4_IT_K, 4_IT_L, 6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_IT_K, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_D, 4_IoTA_J, 4_IT_K, 4_IT_L, 4_ICT_M, 6_CSE_A, 6_CSE_D, 6_AIDS_F, 6_AIDS_H, 6_CSBT_I, 6_IoTA_J, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_CSE_C, 4_AIDS_G, 4_CSBT_I, 4_IT_K, 4_CSBS_N, 6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_AIDS_F, 6_AIDS_G, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_C, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_CSBS_N, 6_CSE_B, 6_CSE_C, 6_CSE_E, 6_AIDS_G, 6_IT_K, 6_IT_L</t>
+          <t>4_CSE_B, 4_CSE_D, 4_CSE_E, 4_AIDS_F, 4_AIDS_H, 4_IoTA_J, 4_IT_L, 4_ICT_M, 6_CSE_E, 6_AIDS_H, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_IT_L</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_IT_L, 4_ICT_M, 4_CSBS_N, 6_CSE_B, 6_CSE_C, 6_CSE_E, 6_AIDS_G, 6_ICT_M</t>
+          <t>4_CSE_B, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_CSBT_I, 4_IT_L, 4_CSBS_N, 6_CSE_A, 6_CSE_C, 6_CSE_E, 6_CSBT_I, 6_IT_K, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_C, 4_CSE_D, 4_AIDS_F, 4_IT_K, 6_CSE_A, 6_CSE_D, 6_AIDS_F, 6_AIDS_H, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_IT_L, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_CSE_C, 4_CSE_D, 4_AIDS_H, 4_IoTA_J, 4_IT_K, 4_ICT_M, 6_CSE_B, 6_CSE_D, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_IoTA_J, 6_IT_L</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>(3, 0), (3, 1)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>(3, 0), (3, 1)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>(1, 2), (1, 3)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(2, 2), (2, 3)</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>(1, 2), (1, 3)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>(1, 2), (1, 3)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(2, 2), (2, 3)</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>(2, 4), (2, 5)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>(1, 2), (1, 3)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>(3, 0), (3, 1)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>(1, 2), (1, 3)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>(2, 2), (2, 3)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -3163,7 +3163,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>(3, 0), (3, 1)</t>
+          <t>(1, 2), (1, 3)</t>
         </is>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>(2, 4), (2, 5)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>(2, 2), (2, 3)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>

--- a/data/data_lunch_lab_allocated.xlsx
+++ b/data/data_lunch_lab_allocated.xlsx
@@ -538,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_CSE_D, 4_CSE_E, 4_AIDS_H, 4_IoTA_J, 4_IT_K, 4_IT_L, 4_ICT_M, 6_CSE_C, 6_CSE_D, 6_AIDS_H, 6_IT_L</t>
+          <t>4_CSE_B, 4_CSE_C, 4_CSE_D, 4_CSE_E, 4_IoTA_J, 4_IT_K, 4_IT_L, 6_CSE_A, 6_CSE_D, 6_CSE_E, 6_AIDS_G, 6_AIDS_H, 6_IT_K, 6_ICT_M</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4_AIDS_F, 4_AIDS_G, 4_CSBT_I, 4_CSBS_N, 6_CSE_A, 6_CSE_B, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_ICT_M, 4_CSBS_N, 6_CSE_B, 6_CSE_C, 6_AIDS_F, 6_CSBT_I, 6_IoTA_J, 6_IT_L, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_D, 4_IT_K, 4_IT_L, 4_ICT_M, 6_CSE_B, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_IT_L, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_CSBS_N, 6_CSE_A, 6_CSE_C, 6_CSE_D, 6_AIDS_H, 6_IoTA_J, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_C, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_CSBS_N, 6_CSE_A, 6_CSE_C, 6_CSE_D, 6_AIDS_H, 6_ICT_M</t>
+          <t>4_CSE_B, 4_CSE_C, 4_CSE_D, 4_IoTA_J, 4_IT_K, 4_IT_L, 4_ICT_M, 6_CSE_B, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_CSBT_I, 6_IT_K, 6_IT_L</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_C, 4_CSE_D, 4_AIDS_F, 4_AIDS_H, 4_IoTA_J, 4_ICT_M, 4_CSBS_N, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_CSBT_I, 6_IoTA_J, 6_IT_L</t>
+          <t>4_CSE_A, 4_CSE_B, 4_CSE_D, 4_AIDS_F, 4_AIDS_G, 4_IT_K, 4_CSBS_N, 6_CSE_A, 6_CSE_B, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_E, 4_AIDS_G, 4_CSBT_I, 4_IT_K, 4_IT_L, 6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_IT_K, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_C, 4_CSE_E, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_IT_L, 4_ICT_M, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_IT_L</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_C, 4_AIDS_G, 4_CSBT_I, 4_IT_K, 4_CSBS_N, 6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_AIDS_F, 6_AIDS_G, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_CSE_C, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_ICT_M, 6_CSE_B, 6_CSE_D, 6_AIDS_F, 6_AIDS_G, 6_CSBT_I, 6_IT_K, 6_IT_L, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_D, 4_CSE_E, 4_AIDS_F, 4_AIDS_H, 4_IoTA_J, 4_IT_L, 4_ICT_M, 6_CSE_E, 6_AIDS_H, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_IT_L</t>
+          <t>4_CSE_B, 4_CSE_D, 4_CSE_E, 4_AIDS_F, 4_IoTA_J, 4_IT_K, 4_IT_L, 4_CSBS_N, 6_CSE_A, 6_CSE_C, 6_CSE_E, 6_AIDS_H, 6_IoTA_J, 6_ICT_M</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_CSBT_I, 4_IT_L, 4_CSBS_N, 6_CSE_A, 6_CSE_C, 6_CSE_E, 6_CSBT_I, 6_IT_K, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_C, 4_CSE_D, 4_AIDS_H, 4_IoTA_J, 4_IT_L, 4_ICT_M, 6_CSE_A, 6_CSE_C, 6_CSE_E, 6_AIDS_F, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_IT_L</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_C, 4_CSE_D, 4_AIDS_H, 4_IoTA_J, 4_IT_K, 4_ICT_M, 6_CSE_B, 6_CSE_D, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_IoTA_J, 6_IT_L</t>
+          <t>4_CSE_A, 4_CSE_B, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_CSBT_I, 4_IT_K, 4_CSBS_N, 6_CSE_B, 6_CSE_D, 6_AIDS_G, 6_AIDS_H, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -900,7 +900,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>(2, 4), (2, 5)</t>
+          <t>(3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>(3, 0), (3, 1)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>(3, 0), (3, 1)</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>(2, 2), (2, 3)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>(2, 2), (2, 3)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(2, 2), (2, 3)</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(1, 2), (1, 3)</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(2, 2), (2, 3)</t>
         </is>
       </c>
     </row>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -3163,7 +3163,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>(1, 2), (1, 3)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>(2, 4), (2, 5)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>

--- a/data/data_lunch_lab_allocated.xlsx
+++ b/data/data_lunch_lab_allocated.xlsx
@@ -538,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_C, 4_CSE_D, 4_CSE_E, 4_IoTA_J, 4_IT_K, 4_IT_L, 6_CSE_A, 6_CSE_D, 6_CSE_E, 6_AIDS_G, 6_AIDS_H, 6_IT_K, 6_ICT_M</t>
+          <t>4_CSE_B, 4_CSE_C, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_IT_L, 4_ICT_M, 6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_E, 6_AIDS_F, 6_AIDS_H, 6_IoTA_J</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_ICT_M, 4_CSBS_N, 6_CSE_B, 6_CSE_C, 6_AIDS_F, 6_CSBT_I, 6_IoTA_J, 6_IT_L, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_CSE_D, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_IT_K, 4_CSBS_N, 6_CSE_D, 6_AIDS_G, 6_CSBT_I, 6_IT_K, 6_IT_L, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_CSBS_N, 6_CSE_A, 6_CSE_C, 6_CSE_D, 6_AIDS_H, 6_IoTA_J, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_B, 4_CSE_C, 4_CSE_D, 4_AIDS_F, 4_AIDS_H, 4_CSBT_I, 4_IT_K, 4_IT_L, 4_ICT_M, 4_CSBS_N, 6_AIDS_F, 6_IT_K, 6_IT_L, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_C, 4_CSE_D, 4_IoTA_J, 4_IT_K, 4_IT_L, 4_ICT_M, 6_CSE_B, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_CSBT_I, 6_IT_K, 6_IT_L</t>
+          <t>4_CSE_A, 4_CSE_E, 4_AIDS_G, 4_IoTA_J, 6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_AIDS_G, 6_AIDS_H, 6_CSBT_I, 6_IoTA_J, 6_ICT_M</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_B, 4_CSE_D, 4_AIDS_F, 4_AIDS_G, 4_IT_K, 4_CSBS_N, 6_CSE_A, 6_CSE_B, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_AIDS_F, 4_IoTA_J, 4_ICT_M, 6_CSE_A, 6_CSE_C, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_CSBT_I, 6_IT_L, 6_ICT_M</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4_CSE_C, 4_CSE_E, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_IT_L, 4_ICT_M, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_IT_L</t>
+          <t>4_CSE_D, 4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_IT_K, 4_IT_L, 4_CSBS_N, 6_CSE_B, 6_CSE_D, 6_AIDS_H, 6_IoTA_J, 6_IT_K, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_C, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_ICT_M, 6_CSE_B, 6_CSE_D, 6_AIDS_F, 6_AIDS_G, 6_CSBT_I, 6_IT_K, 6_IT_L, 6_CSBS_N</t>
+          <t>4_CSE_B, 4_CSE_C, 4_CSE_D, 4_AIDS_G, 4_IoTA_J, 4_CSBS_N, 6_CSE_C, 6_CSE_D, 6_AIDS_G, 6_AIDS_H, 6_IT_K, 6_IT_L, 6_ICT_M, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_D, 4_CSE_E, 4_AIDS_F, 4_IoTA_J, 4_IT_K, 4_IT_L, 4_CSBS_N, 6_CSE_A, 6_CSE_C, 6_CSE_E, 6_AIDS_H, 6_IoTA_J, 6_ICT_M</t>
+          <t>4_CSE_A, 4_CSE_E, 4_AIDS_F, 4_AIDS_H, 4_CSBT_I, 4_IT_K, 4_IT_L, 4_ICT_M, 6_CSE_A, 6_CSE_B, 6_CSE_E, 6_AIDS_F, 6_CSBT_I, 6_IoTA_J</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4_CSE_C, 4_CSE_D, 4_AIDS_H, 4_IoTA_J, 4_IT_L, 4_ICT_M, 6_CSE_A, 6_CSE_C, 6_CSE_E, 6_AIDS_F, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_IT_L</t>
+          <t>4_CSE_A, 4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_IT_K, 4_IT_L, 4_CSBS_N, 6_CSE_D, 6_AIDS_G, 6_AIDS_H, 6_CSBT_I, 6_CSBS_N</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_B, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_CSBT_I, 4_IT_K, 4_CSBS_N, 6_CSE_B, 6_CSE_D, 6_AIDS_G, 6_AIDS_H, 6_ICT_M, 6_CSBS_N</t>
+          <t>4_CSE_B, 4_CSE_C, 4_CSE_D, 4_AIDS_F, 4_ICT_M, 6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_E, 6_AIDS_F, 6_IoTA_J, 6_IT_K, 6_IT_L, 6_ICT_M</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
@@ -900,7 +900,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>(2, 4), (2, 5)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>(3, 0), (3, 1)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7)</t>
+          <t>(2, 2), (2, 3)</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(1, 2), (1, 3)</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>(2, 4), (2, 5)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>(3, 0), (3, 1)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(2, 2), (2, 3)</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>(2, 2), (2, 3)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>(2, 2), (2, 3)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>(2, 4), (2, 5)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -3163,7 +3163,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>(2, 4), (2, 5)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>

--- a/data/data_lunch_lab_allocated.xlsx
+++ b/data/data_lunch_lab_allocated.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G227"/>
+  <dimension ref="A1:G154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,16 +472,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>215</v>
+        <v>141</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_AIDS_H, 6_CSBT_I, 6_IoTA_J, 6_IT_K, 6_IT_L, 6_ICT_M, 6_CSBS_N</t>
+          <t>Sec H, Sec K, Sec M, Sec F, Sec R, Sec E, Sec L, Sec N, Sec S, Sec T</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR_6</t>
+          <t>BLOCKED_141</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -497,22 +497,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7), (3, 0), (3, 1)</t>
+          <t>(0, 7), (1, 6), (3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>216</v>
+        <v>142</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_CSE_D, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_IT_K, 4_IT_L, 4_ICT_M, 4_CSBS_N</t>
+          <t>Sec O, Sec E, Sec N, Sec P, Sec M, Sec K, Sec R, Sec G, Sec H, Sec D</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MINOR_4</t>
+          <t>BLOCKED_142</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -528,22 +528,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7), (4, 0), (4, 1)</t>
+          <t>(1, 0), (2, 1), (2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>217</v>
+        <v>143</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_C, 4_CSE_E, 4_AIDS_F, 4_AIDS_G, 4_IT_L, 4_ICT_M, 6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_E, 6_AIDS_F, 6_AIDS_H, 6_IoTA_J</t>
+          <t>Sec R, Sec C, Sec K, Sec M, Sec N, Sec T, Sec O, Sec P, Sec A, Sec Q</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH_DAY_1_HOUR_4</t>
+          <t>BLOCKED_143</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -559,22 +559,22 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>(0, 3)</t>
+          <t>(0, 1), (3, 1), (4, 1), (4, 7)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>218</v>
+        <v>144</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_D, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_IT_K, 4_CSBS_N, 6_CSE_D, 6_AIDS_G, 6_CSBT_I, 6_IT_K, 6_IT_L, 6_ICT_M, 6_CSBS_N</t>
+          <t>Sec A, Sec C, Sec D, Sec E, Sec F, Sec H, Sec I, Sec K, Sec L, Sec O</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LUNCH_DAY_1_HOUR_5</t>
+          <t>LUNCH_DAY_1_HOUR_4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -590,22 +590,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>(0, 4)</t>
+          <t>(0, 3)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>219</v>
+        <v>145</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_C, 4_CSE_D, 4_AIDS_F, 4_AIDS_H, 4_CSBT_I, 4_IT_K, 4_IT_L, 4_ICT_M, 4_CSBS_N, 6_AIDS_F, 6_IT_K, 6_IT_L, 6_CSBS_N</t>
+          <t>Sec B, Sec G, Sec J, Sec M, Sec N, Sec P, Sec Q, Sec R, Sec S, Sec T</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LUNCH_DAY_2_HOUR_4</t>
+          <t>LUNCH_DAY_1_HOUR_5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,22 +621,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>(1, 3)</t>
+          <t>(0, 4)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>220</v>
+        <v>146</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_E, 4_AIDS_G, 4_IoTA_J, 6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E, 6_AIDS_G, 6_AIDS_H, 6_CSBT_I, 6_IoTA_J, 6_ICT_M</t>
+          <t>Sec A, Sec B, Sec D, Sec E, Sec F, Sec H, Sec K, Sec L, Sec N, Sec T</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LUNCH_DAY_2_HOUR_5</t>
+          <t>LUNCH_DAY_2_HOUR_4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -652,22 +652,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>(1, 4)</t>
+          <t>(1, 3)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>221</v>
+        <v>147</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_AIDS_F, 4_IoTA_J, 4_ICT_M, 6_CSE_A, 6_CSE_C, 6_CSE_E, 6_AIDS_F, 6_AIDS_G, 6_CSBT_I, 6_IT_L, 6_ICT_M</t>
+          <t>Sec C, Sec G, Sec I, Sec J, Sec M, Sec O, Sec P, Sec Q, Sec R, Sec S</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LUNCH_DAY_3_HOUR_4</t>
+          <t>LUNCH_DAY_2_HOUR_5</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -683,22 +683,22 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>(2, 3)</t>
+          <t>(1, 4)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>222</v>
+        <v>148</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4_CSE_D, 4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_IT_K, 4_IT_L, 4_CSBS_N, 6_CSE_B, 6_CSE_D, 6_AIDS_H, 6_IoTA_J, 6_IT_K, 6_CSBS_N</t>
+          <t>Sec B, Sec C, Sec F, Sec G, Sec H, Sec K, Sec M, Sec N, Sec O, Sec R</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LUNCH_DAY_3_HOUR_5</t>
+          <t>LUNCH_DAY_3_HOUR_4</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -714,22 +714,22 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>(2, 4)</t>
+          <t>(2, 3)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>223</v>
+        <v>149</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_C, 4_CSE_D, 4_AIDS_G, 4_IoTA_J, 4_CSBS_N, 6_CSE_C, 6_CSE_D, 6_AIDS_G, 6_AIDS_H, 6_IT_K, 6_IT_L, 6_ICT_M, 6_CSBS_N</t>
+          <t>Sec A, Sec D, Sec E, Sec I, Sec J, Sec L, Sec P, Sec Q, Sec S, Sec T</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LUNCH_DAY_4_HOUR_4</t>
+          <t>LUNCH_DAY_3_HOUR_5</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -745,22 +745,22 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>(3, 3)</t>
+          <t>(2, 4)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_E, 4_AIDS_F, 4_AIDS_H, 4_CSBT_I, 4_IT_K, 4_IT_L, 4_ICT_M, 6_CSE_A, 6_CSE_B, 6_CSE_E, 6_AIDS_F, 6_CSBT_I, 6_IoTA_J</t>
+          <t>Sec B, Sec C, Sec D, Sec J, Sec L, Sec P, Sec Q, Sec R, Sec S, Sec T</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LUNCH_DAY_4_HOUR_5</t>
+          <t>LUNCH_DAY_4_HOUR_4</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -776,22 +776,22 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>(3, 4)</t>
+          <t>(3, 3)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_E, 4_AIDS_G, 4_AIDS_H, 4_CSBT_I, 4_IoTA_J, 4_IT_K, 4_IT_L, 4_CSBS_N, 6_CSE_D, 6_AIDS_G, 6_AIDS_H, 6_CSBT_I, 6_CSBS_N</t>
+          <t>Sec A, Sec E, Sec F, Sec G, Sec H, Sec I, Sec K, Sec M, Sec N, Sec O</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LUNCH_DAY_5_HOUR_4</t>
+          <t>LUNCH_DAY_4_HOUR_5</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -807,22 +807,22 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>(4, 3)</t>
+          <t>(3, 4)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4_CSE_B, 4_CSE_C, 4_CSE_D, 4_AIDS_F, 4_ICT_M, 6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_E, 6_AIDS_F, 6_IoTA_J, 6_IT_K, 6_IT_L, 6_ICT_M</t>
+          <t>Sec A, Sec G, Sec I, Sec J, Sec M, Sec N, Sec P, Sec Q, Sec R, Sec S</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LUNCH_DAY_5_HOUR_5</t>
+          <t>LUNCH_DAY_5_HOUR_4</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -838,58 +838,58 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>(4, 4)</t>
+          <t>(4, 3)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6_IT_K, 6_IT_L, 6_ICT_M</t>
+          <t>Sec B, Sec C, Sec D, Sec E, Sec F, Sec H, Sec K, Sec L, Sec O, Sec T</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>INT302R01, INT309</t>
+          <t>LUNCH_DAY_5_HOUR_5</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Dr. R. Venkatesan, Dr. R. S. Raghav, Dr. C. Thaventhiran, Dr. K. Hariharan</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(4, 4)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6_AIDS_F, 6_AIDS_G, 6_AIDS_H</t>
+          <t>Sec M</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CSE334R01, CSE413R01</t>
+          <t>XXH, XXW</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Dr. B. Thamotharan, Dr. P. Immaculate Rexi Jenifer, Dr. J. Premaladha, Dr. A. Emily Jenifer</t>
+          <t>Prof I, Prof A, Prof H</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -900,27 +900,27 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E</t>
+          <t>Sec B</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CSE405R02, INT309, INT302R01</t>
+          <t>XXU</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Dr. S. Pradeepa, Dr. P. Shanthi, Dr. M. Sumathi, Dr. H. Anilaglory, Dr. R. S. Raghav, Dr. C. Thaventhiran, Dr. B. Thamotharan</t>
+          <t>Prof Z, Prof AA</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -931,27 +931,27 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>6_IT_L</t>
+          <t>Sec D</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CSE315R02, INT407</t>
+          <t>XXS</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Dr. A. Sivapathi, Dr. Ramya, Dr. A. Emily Jenifer, Dr. N. Moratanch</t>
+          <t>Prof AL, Prof E, Prof AN, Prof AG</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -962,27 +962,27 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6_IT_L</t>
+          <t>Sec R</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CSE315R02, INT407</t>
+          <t>XXW</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Dr. A. Sivapathi, Dr. Ramya, Dr. A. Emily Jenifer, Dr. M. Rajakumaran</t>
+          <t>Prof J, Prof C</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -999,21 +999,21 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>6_IT_L</t>
+          <t>Sec B</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CSE405R02</t>
+          <t>XXAL</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Dr. V. Venkatesh, Shri B. Ramneshkar</t>
+          <t>Prof X</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1024,27 +1024,27 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>6_IT_L</t>
+          <t>Sec H</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>TNP102R01</t>
+          <t>XXR</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Shri S. Nesakumaran</t>
+          <t>Prof AK</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1055,27 +1055,27 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>6_IT_K</t>
+          <t>Sec O</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CSE315R02, INT407</t>
+          <t>XXI</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Dr. K. Chakrapani, Dr. A. L. Sriram, Dr. R. Nithya, Dr. N. Moratanch</t>
+          <t>Prof V, Prof C</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1086,27 +1086,27 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>6_IT_K</t>
+          <t>Sec B</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CSE315R02, INT407</t>
+          <t>XXBJ</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Dr. K. Chakrapani, Dr. A. L. Sriram, Dr. R. Nithya, Dr. N. Moratanch</t>
+          <t>Prof B, Prof AH</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1117,27 +1117,27 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>6_IT_K</t>
+          <t>Sec Q</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CSE405R02</t>
+          <t>XXR, XXAV</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Dr. A. Suganya, Dr. S. Pradeepa</t>
+          <t>Prof P, Prof J, Prof X</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1148,27 +1148,27 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(1, 2), (1, 3)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>6_IT_K</t>
+          <t>Sec F</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>TNP102R01</t>
+          <t>XXBD, XXBL</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Shri V. Chandrasekar</t>
+          <t>Prof O</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1179,27 +1179,27 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4_IT_K</t>
+          <t>Sec E</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CSE306R01, CSE309R01</t>
+          <t>XXR, XXN</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Dr. R. Anushiadevi, Smt. W. R. Helen, Dr. P. Manivannan, Dr. S. Rajarajan</t>
+          <t>Prof AA, Prof O, Prof W, Prof T</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1210,27 +1210,27 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4_IT_K</t>
+          <t>Sec D</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CSE306R01, CSE309R01</t>
+          <t>XXT</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Dr. R. Anushiadevi, Smt. W. R. Helen, Dr. P. Manivannan, Dr. S. Rajarajan</t>
+          <t>Prof AE, Prof X, Prof AA, Prof B</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1241,27 +1241,27 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(2, 2), (2, 3)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4_IT_L</t>
+          <t>Sec D</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CSE306R01, CSE309R01</t>
+          <t>XXAF, XXBC</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Dr. T. Renugadevi, Dr. S. Markkandeyan, Dr. K. Geetha, Dr. R. Devika</t>
+          <t>Prof W</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1272,27 +1272,27 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>(2, 2), (2, 3)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4_IT_L</t>
+          <t>Sec H</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CSE306R01, CSE309R01</t>
+          <t>XXY</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Dr. T. Renugadevi, Dr. S. Markkandeyan, Dr. K. Geetha, Dr. R. Devika</t>
+          <t>Prof AC, Prof AL</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1303,27 +1303,27 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>(3, 0), (3, 1)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>6_AIDS_F</t>
+          <t>Sec C</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>INT441R01</t>
+          <t>XXM</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Dr. S. Pradeepa, Dr. S. Vishnika Veni, Dr. M. Jayasheela Rakkini</t>
+          <t>Prof AP</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1340,21 +1340,21 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>6_AIDS_F</t>
+          <t>Sec J</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>INT407, CSE433</t>
+          <t>XXBJ, XXV</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Dr. A. Emily Jenifer, Dr. M. Rajakumaran, Dr. K. R. Manjula, Smt. S. Majina Baby</t>
+          <t>Prof J</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1365,27 +1365,27 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>6_AIDS_F</t>
+          <t>Sec N</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>INT407, CSE433</t>
+          <t>XXBG</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Dr. A. Emily Jenifer, Dr. P. Sathyaprakash, Dr. K. R. Manjula, Smt. S. Majina Baby</t>
+          <t>Prof AK</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1396,2139 +1396,1867 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>6_AIDS_F</t>
+          <t>Sec A, Sec B, Sec C</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>TNP102R01</t>
+          <t>XXAB</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Shri K. Arunkumar</t>
+          <t>Prof AM, Prof V, Prof P, Prof Y</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>(3, 6), (3, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>6_AIDS_G</t>
+          <t>Sec D, Sec E, Sec F</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>INT441R01</t>
+          <t>XXZ</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Dr. S. Vishnika Veni, Dr. S. Pradeepa, Dr. M. Jayasheela Rakkini</t>
+          <t>Prof AD</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>(1, 6), (1, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>6_AIDS_G</t>
+          <t>Sec G, Sec H, Sec I</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>INT407, CSE433</t>
+          <t>XXAO</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Dr. A. Suganya, Dr. M. Jayasheela Rakkini, Dr. K. Praveen Kumar, Smt. A. Srilakshmi</t>
+          <t>Prof R</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>(0, 0), (0, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>6_AIDS_G</t>
+          <t>Sec J, Sec K, Sec L</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>INT407, CSE433</t>
+          <t>XXBO</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Dr. A. Suganya, Dr. S. Vidivelli, Dr. K. Praveen Kumar, Smt. A. Srilakshmi</t>
+          <t>Prof AM, Prof Z, Prof H, Prof B</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>(4, 0), (4, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>6_AIDS_G</t>
+          <t>Sec M, Sec N, Sec O</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TNP102R01</t>
+          <t>XXAU</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Shri M. B. Sundhararaj</t>
+          <t>Prof J, Prof Q, Prof AD</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>(3, 4), (3, 5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>6_AIDS_H</t>
+          <t>Sec P, Sec Q, Sec R</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>INT441R01</t>
+          <t>XXC</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Dr. M. Jayasheela Rakkini, Dr. S. Pradeepa, Dr. S. Vishnika Veni</t>
+          <t>Prof V, Prof M, Prof F, Prof J</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>(4, 4), (4, 5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>6_AIDS_H</t>
+          <t>Sec Q</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>INT407, CSE433</t>
+          <t>XXR, XXBJ</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Dr. P. Sathyaprakash, Dr. M. Rajakumaran, Dr. C. Thaventhiran, Dr. K. Praveen Kumar</t>
+          <t>Prof S, Prof AM</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>(3, 4), (3, 5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>6_AIDS_H</t>
+          <t>Sec P</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>INT407, CSE433</t>
+          <t>XXAV</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Dr. P. Sathyaprakash, Dr. S. Vidivelli, Dr. C. Thaventhiran, Smt. A. Srilakshmi</t>
+          <t>Prof AB, Prof T</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>(0, 4), (0, 5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6_AIDS_H</t>
+          <t>Sec J</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>TNP102R01</t>
+          <t>XXAN, XXB</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Shri V. Chandrasekar</t>
+          <t>Prof AG, Prof N</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>(1, 2), (1, 3)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4_AIDS_F</t>
+          <t>Sec R</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CSE304</t>
+          <t>XXBJ</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Dr. S. Kamakshi, Dr. M. Ifjaz Ahmed, Dr. V. Anand</t>
+          <t>Prof AL, Prof D, Prof Z</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>(3, 6), (3, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4_AIDS_F</t>
+          <t>Sec Q</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CSE206R02, CSE306R01</t>
+          <t>XXE, XXAZ</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Dr. V. Venkatesh, Dr. K. Hariharan, Dr. P. L. K. Priyadarsini, Dr. V. Meena</t>
+          <t>Prof L, Prof AD</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>(4, 6), (4, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4_AIDS_F</t>
+          <t>Sec I</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CSE206R02, CSE306R01</t>
+          <t>XXH, XXAE</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Dr. V. Venkatesh, Dr. K. Hariharan, Dr. P. L. K. Priyadarsini, Dr. S. Priya</t>
+          <t>Prof AN, Prof F, Prof AH, Prof Y</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>(0, 0), (0, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4_AIDS_G</t>
+          <t>Sec B</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CSE304</t>
+          <t>XXAK, XXW</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Dr. K. Rajkumar, Dr. M. Ifjaz Ahmed, Dr. V. Anand</t>
+          <t>Prof AK, Prof F, Prof B, Prof V</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>(2, 0), (2, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4_AIDS_G</t>
+          <t>Sec M</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CSE206R02, CSE306R01</t>
+          <t>XXA, XXK</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Dr. M. Devisri Nandhini, Dr. P. Immaculate Rexi Jenifer, Dr. T. Pasupathi, Dr. M. V. Rajilal</t>
+          <t>Prof AE, Prof S</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>(3, 6), (3, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4_AIDS_G</t>
+          <t>Sec F</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CSE206R02, CSE306R01</t>
+          <t>XXAY, XXE</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Dr. M. Devisri Nandhini, Dr. P. Immaculate Rexi Jenifer, Dr. T. Pasupathi, Dr. R. Sivaraman</t>
+          <t>Prof W, Prof E, Prof C, Prof AK</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>(0, 6), (0, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4_AIDS_H</t>
+          <t>Sec A</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CSE304</t>
+          <t>XXAV</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Smt. W. R. Helen, Dr. M. Ifjaz Ahmed, Dr. V. Anand</t>
+          <t>Prof P, Prof T, Prof R, Prof Q</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>(4, 4), (4, 5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4_AIDS_H</t>
+          <t>Sec E</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CSE206R02, CSE306R01</t>
+          <t>XXH</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Shri R. Vijay Sai, Dr. R. Ezhilarasie, Dr. P. Immaculate Rexi Jenifer, Dr. V. Nirmala</t>
+          <t>Prof X, Prof M, Prof Q</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>(0, 0), (0, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4_AIDS_H</t>
+          <t>Sec C</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CSE206R02, CSE306R01</t>
+          <t>XXN, XXAK</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Shri R. Vijay Sai, Dr. R. Ezhilarasie, Dr. P. Immaculate Rexi Jenifer, Smt. L. Gowri</t>
+          <t>Prof X, Prof F</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>(2, 2), (2, 3)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6_CSE_A</t>
+          <t>Sec L</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CSE315R02, CSE403</t>
+          <t>XXBH, XXBJ</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Dr. K. Chakrapani, Dr. A. Sivapathi, Dr. N. Senthil Selvan, Dr. R. Devika</t>
+          <t>Prof AG, Prof C, Prof AE</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>(1, 6), (1, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6_CSE_A</t>
+          <t>Sec E</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CSE315R02, CSE403</t>
+          <t>XXBN</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Dr. K. Chakrapani, Dr. A. Sivapathi, Dr. N. Senthil Selvan, Dr. M.Sumathi</t>
+          <t>Prof U, Prof V, Prof I</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>(3, 2), (3, 3)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6_CSE_A</t>
+          <t>Sec B</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>TNP102R01</t>
+          <t>XXV</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Shri V. Chandrasekar</t>
+          <t>Prof AG</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>(2, 6), (2, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6_CSE_B</t>
+          <t>Sec O</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CSE315R02, CSE403</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Dr. P. Padmakumari, Ms. M. Vijaya Sakthi, Dr. A. Joy Christy, Dr. Ramya</t>
+          <t>Prof I, Prof J</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>(3, 6), (3, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6_CSE_B</t>
+          <t>Sec R</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CSE315R02, CSE403</t>
+          <t>XXBK, XXV</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Dr. P. Padmakumari, Ms. M. Vijaya Sakthi, Dr. A. Joy Christy, Dr. J. Premaladha</t>
+          <t>Prof AM, Prof T, Prof K</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>(1, 0), (1, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6_CSE_B</t>
+          <t>Sec L</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>TNP102R01</t>
+          <t>XXAQ</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Ms. V. Karthika</t>
+          <t>Prof AK</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>(2, 0), (2, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6_CSE_C</t>
+          <t>Sec P</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CSE315R02, CSE403</t>
+          <t>XXK</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Dr. A. Joy Christy, Dr. G. Pradeep, Shri S. Ananthakrishnan, Dr. P. Padmakumari</t>
+          <t>Prof K, Prof AL</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>(0, 0), (0, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6_CSE_C</t>
+          <t>Sec I</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CSE315R02, CSE403</t>
+          <t>XXS</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Dr. A. Joy Christy, Dr. A. L. Sriram, Shri S. Ananthakrishnan, Dr. P. Shanthi</t>
+          <t>Prof AB, Prof Q, Prof E, Prof C</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>(2, 4), (2, 5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6_CSE_C</t>
+          <t>Sec B</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>TNP102R01</t>
+          <t>XXD</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Shri K. Arunkumar</t>
+          <t>Prof AF, Prof AG, Prof AD, Prof Z</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>(1, 6), (1, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6_CSE_D</t>
+          <t>Sec E</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CSE315R02, CSE403</t>
+          <t>XXAV</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Dr. M. Sumathi, Dr. P. Shanthi, Dr. B. Lakshmi, Dr. J. Premaladha</t>
+          <t>Prof AH, Prof W, Prof P</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>(3, 6), (3, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6_CSE_D</t>
+          <t>Sec C</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CSE315R02, CSE403</t>
+          <t>XXBC</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Dr. M. Sumathi, Dr. P. Shanthi, Dr. B. Lakshmi, Dr. R. Manikandan</t>
+          <t>Prof AE, Prof B, Prof AC, Prof AG</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>(1, 0), (1, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6_CSE_D</t>
+          <t>Sec O</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>TNP102R01</t>
+          <t>XXAQ, XXBI</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Shri S. Nesakumaran</t>
+          <t>Prof E, Prof W, Prof K</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>(0, 0), (0, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6_CSE_E</t>
+          <t>Sec N</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CSE315R02, CSE403</t>
+          <t>XXAD</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Dr. Ramya, Dr. V. Nirmala, Shri S. Ananthakrishnan, Dr. N. Senthil Selvan</t>
+          <t>Prof H, Prof O, Prof Z, Prof D</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>(1, 0), (1, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>6_CSE_E</t>
+          <t>Sec C</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CSE315R02, CSE403</t>
+          <t>XXAD, XXS</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Dr. Ramya, Dr. V. Nirmala, Shri S. Ananthakrishnan, Dr. R. Devika</t>
+          <t>Prof R, Prof K</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>(2, 0), (2, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6_CSE_E</t>
+          <t>Sec K</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>TNP102R01</t>
+          <t>XXN</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Shri K. M. Murugappan</t>
+          <t>Prof S</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>(3, 6), (3, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4_CSE_A</t>
+          <t>Sec C</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CSE206R02, CSE306R01</t>
+          <t>XXBH</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Dr. K. S. Suresh, Dr. M. V. Rajilal, Dr. V. Meena, Dr. V. Nirmala</t>
+          <t>Prof N, Prof AO, Prof D, Prof AK</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F65" t="n">
-        <v>2</v>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>(3, 0), (3, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>4_CSE_A</t>
+          <t>Sec D</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CSE206R02, CSE306R01</t>
+          <t>XXL, XXBP</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Dr. K. S. Suresh, Dr. V. Venkatesh, Dr. V. Meena, Dr. M. Devisri Nandhini</t>
+          <t>Prof M, Prof X</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>(4, 4), (4, 5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4_CSE_B</t>
+          <t>Sec O</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CSE206R02, CSE306R01</t>
+          <t>XXBP</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Dr. R. Ezhilarasie, Dr. T. Pasupathi, Dr. T. Suriya Praba, Dr. B. Karthikeyan</t>
+          <t>Prof AD, Prof A</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>(4, 6), (4, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4_CSE_B</t>
+          <t>Sec P</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CSE206R02, CSE306R01</t>
+          <t>XXBI, XXAP</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Dr. R. Ezhilarasie, Dr. T. Pasupathi, Dr. T. Suriya Praba, Dr. S. Priya</t>
+          <t>Prof P, Prof AN</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>(0, 4), (0, 5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4_CSE_C</t>
+          <t>Sec P</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CSE206R02, CSE306R01</t>
+          <t>XXR</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Dr. K. Hariharan, Dr. K. Joseph Abraham Sundar, Dr. D. Umamaheswari, Dr. R. Anushiadevi</t>
+          <t>Prof AL, Prof Y</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>(2, 4), (2, 5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>4_CSE_C</t>
+          <t>Sec S</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CSE206R02, CSE306R01</t>
+          <t>XXBG, XXN</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Dr. K. Hariharan, Dr. K. Joseph Abraham Sundar, Dr. D. Umamaheswari, Dr. R. Anushiadevi</t>
+          <t>Prof X</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>(1, 0), (1, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>142</v>
+        <v>46</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>4_CSE_D</t>
+          <t>Sec P</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CSE206R02, CSE306R01</t>
+          <t>XXU</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Dr. M. Meenalochani, Dr. R. Ananth Hari, Dr. P. Anu, Dr. S. Jayasankari</t>
+          <t>Prof T</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>(2, 6), (2, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>143</v>
+        <v>47</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>4_CSE_D</t>
+          <t>Sec T</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CSE206R02, CSE306R01</t>
+          <t>XXBC, XXAL</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Dr. M. Meenalochani, Dr. R. Ananth Hari, Dr. P. Anu, Dr. V. Nirmala</t>
+          <t>Prof Q, Prof AN</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>(3, 4), (3, 5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4_CSE_E</t>
+          <t>Sec A</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CSE206R02, CSE306R01</t>
+          <t>XXAE, XXT</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Dr. D. Muralidharan, Dr. R. Ananth Hari, Dr. S. Jayasankari, Dr. T. Suriya Praba</t>
+          <t>Prof AO</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>(3, 2), (3, 3)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>149</v>
+        <v>51</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>4_CSE_E</t>
+          <t>Sec A</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CSE206R02, CSE306R01</t>
+          <t>XXAS, XXAD</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Dr. D. Muralidharan, Dr. R. Ananth Hari, Dr. S. Jayasankari, Dr. P. Anu</t>
+          <t>Prof P</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>(0, 0), (0, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>6_CSBT_I</t>
+          <t>Sec H</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>INT309</t>
+          <t>XXAN</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Dr. P. Shanthi, Dr. R. S. Raghav, Dr. R. Manikandan</t>
+          <t>Prof W</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F75" t="n">
-        <v>2</v>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>(1, 2), (1, 3)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>6_CSBT_I</t>
+          <t>Sec G</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>INT427</t>
+          <t>XXAR, XXBP</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Dr. H. Anilaglory, Smt. I. Epistle, Dr. Sujeet S Jagtap, Dr. Dindayal Mahto</t>
+          <t>Prof B, Prof K, Prof G, Prof U</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
-        <v>2</v>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>(0, 2), (0, 3)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>157</v>
+        <v>54</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>6_CSBT_I</t>
+          <t>Sec N</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>INT321</t>
+          <t>XXF</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Dr. H. Anilaglory, Smt. I. Epistle, Dr. Sujeet S Jagtap, Dr. Dindayal Mahto</t>
+          <t>Prof AP, Prof R, Prof U</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F77" t="n">
-        <v>2</v>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>(3, 6), (3, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>158</v>
+        <v>55</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>6_CSBT_I</t>
+          <t>Sec F</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>TNP102R01</t>
+          <t>XXI</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Shri M. B. Sundhararaj</t>
+          <t>Prof X, Prof AN, Prof M</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F78" t="n">
-        <v>2</v>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>(4, 4), (4, 5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>164</v>
+        <v>56</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4_CSBT_I</t>
+          <t>Sec Q</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CSE206R02, CSE306R01</t>
+          <t>XXAW</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Dr. M. V. Rajilal, Dr. M. Meenalochani, Dr. S. Kamakshi, Dr. P. Immaculate Rexi Jenifer</t>
+          <t>Prof AJ, Prof AC, Prof AE, Prof M</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F79" t="n">
-        <v>2</v>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>(4, 4), (4, 5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>165</v>
+        <v>57</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>4_CSBT_I</t>
+          <t>Sec I</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CSE206R02, CSE306R01</t>
+          <t>XXR</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Dr. M. V. Rajilal, Dr. R. Ananth Hari, Dr. S. Kamakshi, Dr. D. Umamaheswari</t>
+          <t>Prof AC, Prof U</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>(2, 0), (2, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>6_ICT_M</t>
+          <t>Sec K</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>INT407, ECE313</t>
+          <t>XXAJ, XXE</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Dr. S. Vidivelli, Dr. R. Nithya, Shri R. Vijay Sai, Dr. R. Saravanan</t>
+          <t>Prof C</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>(3, 4), (3, 5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>6_ICT_M</t>
+          <t>Sec C</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>INT407, ECE314</t>
+          <t>XXAM, XXBB</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Dr. S. Vidivelli, Dr. H. Anilaglory, Shri R. Vijay Sai, Dr. R. Saravanan</t>
+          <t>Prof H, Prof E, Prof C</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F82" t="n">
-        <v>2</v>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>(2, 0), (2, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>172</v>
+        <v>60</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>6_ICT_M</t>
+          <t>Sec T</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>TNP102R01</t>
+          <t>XXAV, XXD</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Shri S. Nesakumaran</t>
+          <t>Prof AE, Prof L</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F83" t="n">
-        <v>2</v>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>(1, 6), (1, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>177</v>
+        <v>61</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>4_ICT_M</t>
+          <t>Sec J</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CSE309R01, INT103R01</t>
+          <t>XXAX</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Dr. B. Karthikeyan, Shri P. Rajendran, Dr. S. Palanivel, Dr. R. Venkatesan</t>
+          <t>Prof W, Prof AH</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F84" t="n">
-        <v>2</v>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>(3, 2), (3, 3)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>178</v>
+        <v>62</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>4_ICT_M</t>
+          <t>Sec K</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CSE309R01, INT103R01</t>
+          <t>XXAS</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Dr. B. Karthikeyan, Shri P. Rajendran, Dr. S. Palanivel, Dr. R. Venkatesan</t>
+          <t>Prof Y, Prof F</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F85" t="n">
-        <v>2</v>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>(1, 4), (1, 5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>184</v>
+        <v>64</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>6_CSBS_N</t>
+          <t>Sec O</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>ENG316</t>
+          <t>XXAS, XXAN</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Dr. V. Vidya</t>
+          <t>Prof AP, Prof B</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F86" t="n">
-        <v>2</v>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>(4, 4), (4, 5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>186</v>
+        <v>65</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>6_CSBS_N</t>
+          <t>Sec P</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CSE323R01</t>
+          <t>XXL</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Shri V. P. Akniraj, Dr. K. Rajkumar, Dr. G. R. Brindha, Dr. S. Vishnika Veni</t>
+          <t>Prof F, Prof R</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F87" t="n">
-        <v>2</v>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>(1, 0), (1, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>187</v>
+        <v>67</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>6_CSBS_N</t>
+          <t>Sec G</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>INT315</t>
+          <t>XXP</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Shri V. P. Akniraj, Dr. K. Rajkumar, Dr. G. R. Brindha, Dr. S. Vishnika Veni</t>
+          <t>Prof AA, Prof AF, Prof AJ</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F88" t="n">
-        <v>2</v>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>(3, 4), (3, 5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>193</v>
+        <v>68</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>4_CSBS_N</t>
+          <t>Sec G</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>ENG212</t>
+          <t>XXJ, XXB</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Shri G. Ramakrishnan</t>
+          <t>Prof M, Prof I, Prof N, Prof D</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F89" t="n">
-        <v>2</v>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>(2, 0), (2, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>195</v>
+        <v>69</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>4_CSBS_N</t>
+          <t>Sec M</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CSE319, MAT331</t>
+          <t>XXBF</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Ms. S. Sowndarya, Dr. B. Srinivasan, Dr. S. Raj Anand</t>
+          <t>Prof AE, Prof Q, Prof Y, Prof AG</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F90" t="n">
-        <v>2</v>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>(3, 0), (3, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>196</v>
+        <v>70</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>4_CSBS_N</t>
+          <t>Sec I</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CSE319, MAT332</t>
+          <t>XXAC</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Ms. S. Sowndarya, Dr. B. Srinivasan, Dr. S. Raj Anand</t>
+          <t>Prof O, Prof AL, Prof AG, Prof R</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F91" t="n">
-        <v>2</v>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>(1, 0), (1, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>197</v>
+        <v>71</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>4_CSBS_N</t>
+          <t>Sec H</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>CSE309R01, CSE218</t>
+          <t>XXA, XXAN</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Dr. S. Rajarajan, Dr. N. Sasikala Devi, Dr. G. Pradeep, Smt. P. Silambarasi</t>
+          <t>Prof Y</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F92" t="n">
-        <v>2</v>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>(4, 6), (4, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>198</v>
+        <v>72</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>4_CSBS_N</t>
+          <t>Sec M</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CSE309R01, CSE218</t>
+          <t>XXS</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Dr. S. Rajarajan, Dr. N. Sasikala Devi, Dr. G. Pradeep, Smt. P. Silambarasi</t>
+          <t>Prof AB, Prof AO, Prof H</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F93" t="n">
-        <v>2</v>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>(0, 2), (0, 3)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>203</v>
+        <v>73</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>6_IoTA_J</t>
+          <t>Sec S</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>INT307R01</t>
+          <t>XXL, XXBE</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Dr. S. Raj Anand, Dr. N. Venkatasubramanian, Shri N. Senthil Anand</t>
+          <t>Prof AB</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F94" t="n">
-        <v>2</v>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>(2, 6), (2, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>205</v>
+        <v>74</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>6_IoTA_J</t>
+          <t>Sec R</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>INT407</t>
+          <t>XXAD</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Dr. M. V. Rajilal, Shri N. Senthil Anand, Dr. A. Dennis Ananth, Smt. M. Indhumathi</t>
+          <t>Prof AG, Prof AK</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F95" t="n">
-        <v>2</v>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>(4, 6), (4, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>6_IoTA_J</t>
+          <t>Sec D</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>CSE434</t>
+          <t>XXAP, XXAF</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Dr. M. V. Rajilal, Shri N. Senthil Anand, Dr. A. Dennis Ananth, Shri. M. Balamurali</t>
+          <t>Prof W, Prof K</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F96" t="n">
-        <v>2</v>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>(1, 6), (1, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>6_IoTA_J</t>
+          <t>Sec J</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>TNP102R01</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Ms. V. Karthika</t>
+          <t>Prof L, Prof V</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F97" t="n">
-        <v>2</v>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>(3, 6), (3, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>4_IoTA_J</t>
+          <t>Sec G</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CSE206R02</t>
+          <t>XXT, XXBH</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Dr. K. Joseph Abraham Sundar, Dr. D. Muralidharan, Dr. M. V. Rajilal</t>
+          <t>Prof AO, Prof T, Prof P</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F98" t="n">
-        <v>2</v>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>(3, 4), (3, 5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>4_IoTA_J</t>
+          <t>Sec I</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CSE306R01</t>
+          <t>XXT</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Dr. M. P. Karthikeyan, Dr. S. Ramakrishnan, Dr. V. Nirmala</t>
+          <t>Prof AJ, Prof AF</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F99" t="n">
-        <v>2</v>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>(4, 6), (4, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>6_IT_K, 6_IT_L, 6_ICT_M</t>
+          <t>Sec B</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>INT302R01, INT309</t>
+          <t>XXR, XXN</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Dr. R. Venkatesan, Dr. R. S. Raghav, Dr. C. Thaventhiran, Dr. K. Hariharan</t>
+          <t>Prof AM, Prof AF, Prof K</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -3537,25 +3265,25 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>4_IT_K, 4_IT_L, 4_ICT_M</t>
+          <t>Sec O</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>MAT304R01, CSE202, CSE307</t>
+          <t>XXV</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Dr. S. Kalidasan, Dr. R. Seethalakshmi, Shri N. Senthil Anand, Smt. T. M. Latha</t>
+          <t>Prof C, Prof AB, Prof AH, Prof R</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -3564,21 +3292,21 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>6_AIDS_F, 6_AIDS_G, 6_AIDS_H</t>
+          <t>Sec P</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>CSE334R01, CSE413R01</t>
+          <t>XXD</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Dr. B. Thamotharan, Dr. P. Immaculate Rexi Jenifer, Dr. J. Premaladha, Dr. A. Emily Jenifer</t>
+          <t>Prof AN, Prof AG, Prof AJ, Prof O</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -3591,25 +3319,25 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>6_CSE_A, 6_CSE_B, 6_CSE_C, 6_CSE_D, 6_CSE_E</t>
+          <t>Sec K</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>CSE405R02, INT309, INT302R01</t>
+          <t>XXAL, XXT</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Dr. S. Pradeepa, Dr. P. Shanthi, Dr. M. Sumathi, Dr. H. Anilaglory, Dr. R. S. Raghav, Dr. C. Thaventhiran, Dr. B. Thamotharan</t>
+          <t>Prof AE, Prof E, Prof R</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -3618,21 +3346,21 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>4_CSE_A, 4_CSE_B, 4_CSE_C, 4_CSE_D, 4_CSE_E</t>
+          <t>Sec P</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>MAT304R01, CSE202, CSE307</t>
+          <t>XXI</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Dr. T. Kannan, Dr. V. Venktraman, Dr. Devulapalli R V S R K Sastry, Dr. B. Karthikeyan, Dr. L. Prabaharan, Dr. R. Devika</t>
+          <t>Prof J</t>
         </is>
       </c>
       <c r="E104" t="n">
@@ -3645,25 +3373,25 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
+        <v>86</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Sec G</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>XXO, XXAY</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Prof AM</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
         <v>3</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>6_IT_L</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>CSE313</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Dr. S. Priya</t>
-        </is>
-      </c>
-      <c r="E105" t="n">
-        <v>4</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -3672,21 +3400,21 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>6_IT_L</t>
+          <t>Sec F</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>INT405R02</t>
+          <t>XXS, XXA</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Dr. A. Emily Jenifer</t>
+          <t>Prof AO, Prof AG, Prof R, Prof AH</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -3699,25 +3427,25 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>6_IT_L</t>
+          <t>Sec I</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>CSE314R02</t>
+          <t>XXAH, XXAT</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Dr. A. Sivapathi</t>
+          <t>Prof L, Prof AP</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -3726,25 +3454,25 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>6_IT_L</t>
+          <t>Sec K</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>CSE405R02</t>
+          <t>XXY</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Dr. V. Venkatesh</t>
+          <t>Prof AM, Prof M, Prof T, Prof C</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -3753,25 +3481,25 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>6_IT_K</t>
+          <t>Sec J</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>CSE313</t>
+          <t>XXBB, XXT</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Dr. S. Ramya</t>
+          <t>Prof V, Prof S</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -3780,21 +3508,21 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>6_IT_K</t>
+          <t>Sec F</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>INT405R02</t>
+          <t>XXBN, XXAP</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Dr. R. Nithya</t>
+          <t>Prof A</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -3807,25 +3535,25 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>6_IT_K</t>
+          <t>Sec Q</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>CSE314R02</t>
+          <t>XXBE</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Dr. K. Chakrapani</t>
+          <t>Prof T, Prof D, Prof F, Prof N</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -3834,25 +3562,25 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>6_IT_K</t>
+          <t>Sec Q</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CSE405R02</t>
+          <t>XXV, XXBM</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Dr. A. Suganya</t>
+          <t>Prof T, Prof AG</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -3861,21 +3589,21 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>4_IT_K</t>
+          <t>Sec P</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>MAT302</t>
+          <t>XXAP</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Shri R. Vignesh</t>
+          <t>Prof O</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -3888,21 +3616,21 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>4_IT_K</t>
+          <t>Sec E</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CSE305R01</t>
+          <t>XXB, XXV</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Dr. R. Anushiadevi</t>
+          <t>Prof Z</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -3915,21 +3643,21 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>4_IT_K</t>
+          <t>Sec R</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>CSE207R01</t>
+          <t>XXN</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Dr. M. Meenalochani</t>
+          <t>Prof D, Prof B</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -3942,25 +3670,25 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>4_IT_K</t>
+          <t>Sec K</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>CSE308</t>
+          <t>XXH</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Dr. R. Alageswaran</t>
+          <t>Prof AK, Prof AF, Prof L, Prof E</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -3969,25 +3697,25 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>4_IT_L</t>
+          <t>Sec K</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>MAT302</t>
+          <t>XXAL, XXAR</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Dr. D. Sarala</t>
+          <t>Prof AO, Prof AM</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -3996,25 +3724,25 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>4_IT_L</t>
+          <t>Sec E</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>CSE305R01</t>
+          <t>XXN, XXBE</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Dr. T. Renugadevi</t>
+          <t>Prof AP, Prof L, Prof H, Prof AI</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -4023,25 +3751,25 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>4_IT_L</t>
+          <t>Sec Q</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>CSE207R01</t>
+          <t>XXK, XXP</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Dr. T. Pasupathi</t>
+          <t>Prof AG, Prof AK, Prof AJ, Prof U</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -4050,21 +3778,21 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>4_IT_L</t>
+          <t>Sec N</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>CSE308</t>
+          <t>XXBH</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Dr. K. Geetha</t>
+          <t>Prof O, Prof AC, Prof C, Prof N</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -4077,25 +3805,25 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>6_AIDS_F</t>
+          <t>Sec S</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>INT405R02</t>
+          <t>XXAP, XXAS</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Dr. K. Ramkumar</t>
+          <t>Prof AI</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -4104,25 +3832,25 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>6_AIDS_F</t>
+          <t>Sec J</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>CSE432R01</t>
+          <t>XXBJ, XXAE</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Dr. K. R. Manjula</t>
+          <t>Prof AO, Prof S</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4131,25 +3859,25 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>6_AIDS_F</t>
+          <t>Sec L</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>INT303R01</t>
+          <t>XXBF, XXO</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Dr. R. Lavanya</t>
+          <t>Prof W, Prof AM, Prof V</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -4158,25 +3886,25 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>6_AIDS_F</t>
+          <t>Sec E</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>INT441R01</t>
+          <t>XXAM, XXAI</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Dr. S. Pradeepa</t>
+          <t>Prof B, Prof AO, Prof AM, Prof T</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4185,25 +3913,25 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>6_AIDS_G</t>
+          <t>Sec D</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>INT405R02</t>
+          <t>XXL</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Dr. A. Suganya</t>
+          <t>Prof Y, Prof P, Prof O</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -4212,25 +3940,25 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>6_AIDS_G</t>
+          <t>Sec A</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>CSE432R01</t>
+          <t>XXAQ, XXP</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Dr. K. Praveen Kumar</t>
+          <t>Prof C, Prof AM</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -4239,25 +3967,25 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>6_AIDS_G</t>
+          <t>Sec K</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>INT303R01</t>
+          <t>XXH</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Dr. A. Joy Christy</t>
+          <t>Prof AF, Prof AG, Prof R, Prof AH</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -4266,21 +3994,21 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>6_AIDS_G</t>
+          <t>Sec Q</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>INT441R01</t>
+          <t>XXBN</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Dr. S. Vishnika Veni</t>
+          <t>Prof A, Prof G, Prof AH, Prof Y</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -4293,25 +4021,25 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>6_AIDS_H</t>
+          <t>Sec K</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>INT405R02</t>
+          <t>XXAL</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Dr. P. Sathyaprakash</t>
+          <t>Prof H, Prof AP, Prof T, Prof P</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -4320,25 +4048,25 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>6_AIDS_H</t>
+          <t>Sec Q</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>CSE432R01</t>
+          <t>XXAF</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Dr. K. Praveen Kumar</t>
+          <t>Prof N, Prof J, Prof V, Prof AB</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -4347,25 +4075,25 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>6_AIDS_H</t>
+          <t>Sec J</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>INT303R01</t>
+          <t>XXT</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Dr. P. Suguna</t>
+          <t>Prof Q, Prof AD, Prof K</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -4374,25 +4102,25 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>6_AIDS_H</t>
+          <t>Sec L</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>INT441R01</t>
+          <t>XXAW</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Dr. M. Jayasheela Rakkini</t>
+          <t>Prof AB, Prof K, Prof AL, Prof S</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -4401,25 +4129,25 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>4_AIDS_F</t>
+          <t>Sec P</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>MAT302</t>
+          <t>XXBG, XXR</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Dr. V. Swaminathan</t>
+          <t>Prof K, Prof AO, Prof AG</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -4428,25 +4156,25 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>4_AIDS_F</t>
+          <t>Sec R</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>CSE305R01</t>
+          <t>XXA, XXI</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Dr. P. L. K. Priyadarsini</t>
+          <t>Prof B, Prof A, Prof M</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -4455,21 +4183,21 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>4_AIDS_F</t>
+          <t>Sec N</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>INT102R01</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Dr. P. Manivannan</t>
+          <t>Prof AN</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -4482,21 +4210,21 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>4_AIDS_F</t>
+          <t>Sec I</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>CSE205R02</t>
+          <t>XXBK, XXV</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Dr. V. Venkatesh</t>
+          <t>Prof P</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -4509,21 +4237,21 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>4_AIDS_F</t>
+          <t>Sec Q</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>CSE304</t>
+          <t>XXK</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Dr. S. Kamakshi</t>
+          <t>Prof Q, Prof AG, Prof T, Prof G</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -4536,21 +4264,21 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>4_AIDS_G</t>
+          <t>Sec P</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>MAT302</t>
+          <t>XXAM</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Dr. R. Manivannan</t>
+          <t>Prof AK</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -4563,25 +4291,25 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>4_AIDS_G</t>
+          <t>Sec S</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>CSE305R01</t>
+          <t>XXU</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Dr. M. Devisri Nandhini</t>
+          <t>Prof Y, Prof C, Prof H, Prof AL</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -4590,21 +4318,21 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>4_AIDS_G</t>
+          <t>Sec F</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>INT102R01</t>
+          <t>XXBN</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Dr. R. Venkatesan</t>
+          <t>Prof O</t>
         </is>
       </c>
       <c r="E140" t="n">
@@ -4617,21 +4345,21 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>4_AIDS_G</t>
+          <t>Sec A</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>CSE205R02</t>
+          <t>XXAY</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Dr. T. Pasupathi</t>
+          <t>Prof AF</t>
         </is>
       </c>
       <c r="E141" t="n">
@@ -4644,25 +4372,25 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>4_AIDS_G</t>
+          <t>Sec T</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>CSE304</t>
+          <t>XXAT, XXAV</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Dr. K. Rajkumar</t>
+          <t>Prof P, Prof V, Prof A</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -4671,25 +4399,25 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>4_AIDS_H</t>
+          <t>Sec O</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>MAT302</t>
+          <t>XXU</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Dr. G. Sathiamoorthy</t>
+          <t>Prof F, Prof Y</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -4698,25 +4426,25 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>4_AIDS_H</t>
+          <t>Sec F</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>CSE305R01</t>
+          <t>XXM, XXBJ</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Shri V. Pugazhenthi</t>
+          <t>Prof P, Prof V, Prof I, Prof O</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -4725,25 +4453,25 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>4_AIDS_H</t>
+          <t>Sec Q</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>INT102R01</t>
+          <t>XXBH, XXAI</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Dr. V. Ganesh Karthikeyan</t>
+          <t>Prof H, Prof AD, Prof AL</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -4752,25 +4480,25 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>4_AIDS_H</t>
+          <t>Sec S</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>CSE205R02</t>
+          <t>XXAR, XXO</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Shri R. Vijay Sai</t>
+          <t>Prof Z, Prof Y, Prof W, Prof V</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -4779,25 +4507,25 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>4_AIDS_H</t>
+          <t>Sec Q</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>CSE304</t>
+          <t>XXAE, XXT</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Smt. W. R. Helen</t>
+          <t>Prof M, Prof E, Prof AM, Prof J</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -4806,21 +4534,21 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>6_CSE_A</t>
+          <t>Sec M</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>CSE313</t>
+          <t>XXX, XXAC</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Dr. N. Sasikala Devi</t>
+          <t>Prof Q, Prof N, Prof U</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -4833,25 +4561,25 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>6_CSE_A</t>
+          <t>Sec R</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>CSE314R02</t>
+          <t>XXBB, XXBL</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Dr. K. Chakrapani</t>
+          <t>Prof K, Prof AG, Prof AP</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -4860,21 +4588,21 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>6_CSE_A</t>
+          <t>Sec A</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>CSE402</t>
+          <t>XXAL</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Dr. N. Senthil Selvan</t>
+          <t>Prof H</t>
         </is>
       </c>
       <c r="E150" t="n">
@@ -4887,25 +4615,25 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>6_CSE_A</t>
+          <t>Sec N</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>INT303R01</t>
+          <t>XXS</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Dr. S. Markkandeyan</t>
+          <t>Prof C</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -4914,21 +4642,21 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>6_CSE_B</t>
+          <t>Sec A</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>CSE313</t>
+          <t>XXAM, XXAN</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Dr. V. S. Shankar Sriram</t>
+          <t>Prof V, Prof I, Prof H, Prof AO</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -4941,25 +4669,25 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>6_CSE_B</t>
+          <t>Sec G</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>CSE314R02</t>
+          <t>XXBG</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Dr. A. Joy Christy</t>
+          <t>Prof AD</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -4968,21 +4696,21 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>6_CSE_B</t>
+          <t>Sec N</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>CSE402</t>
+          <t>XXAC, XXX</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Dr. P. Padmakumari</t>
+          <t>Prof B, Prof F, Prof I</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -4992,1977 +4720,6 @@
         <v>0</v>
       </c>
       <c r="G154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>94</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>6_CSE_B</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>INT303R01</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Dr. T. Suriya Praba</t>
-        </is>
-      </c>
-      <c r="E155" t="n">
-        <v>4</v>
-      </c>
-      <c r="F155" t="n">
-        <v>0</v>
-      </c>
-      <c r="G155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>98</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>6_CSE_C</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>CSE313</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Dr. Dindayal Mahto</t>
-        </is>
-      </c>
-      <c r="E156" t="n">
-        <v>4</v>
-      </c>
-      <c r="F156" t="n">
-        <v>0</v>
-      </c>
-      <c r="G156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>99</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>6_CSE_C</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>CSE314R02</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Dr. A. Umamakeswari</t>
-        </is>
-      </c>
-      <c r="E157" t="n">
-        <v>3</v>
-      </c>
-      <c r="F157" t="n">
-        <v>0</v>
-      </c>
-      <c r="G157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>100</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>6_CSE_C</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>CSE402</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Shri S. Ananthakrishnan</t>
-        </is>
-      </c>
-      <c r="E158" t="n">
-        <v>4</v>
-      </c>
-      <c r="F158" t="n">
-        <v>0</v>
-      </c>
-      <c r="G158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>101</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>6_CSE_C</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>INT303R01</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Dr. P. L. K. Priyadarsini</t>
-        </is>
-      </c>
-      <c r="E159" t="n">
-        <v>4</v>
-      </c>
-      <c r="F159" t="n">
-        <v>0</v>
-      </c>
-      <c r="G159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>105</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>6_CSE_D</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>CSE313</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>Dr. M. Jayasheela Rakkini</t>
-        </is>
-      </c>
-      <c r="E160" t="n">
-        <v>4</v>
-      </c>
-      <c r="F160" t="n">
-        <v>0</v>
-      </c>
-      <c r="G160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>106</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>6_CSE_D</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>CSE314R02</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>Dr. B. Lakshmi</t>
-        </is>
-      </c>
-      <c r="E161" t="n">
-        <v>3</v>
-      </c>
-      <c r="F161" t="n">
-        <v>0</v>
-      </c>
-      <c r="G161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>107</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>6_CSE_D</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>CSE402</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>Dr. M. Sumathi</t>
-        </is>
-      </c>
-      <c r="E162" t="n">
-        <v>4</v>
-      </c>
-      <c r="F162" t="n">
-        <v>0</v>
-      </c>
-      <c r="G162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>108</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>6_CSE_D</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>INT303R01</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Smt. A. Srilakshmi</t>
-        </is>
-      </c>
-      <c r="E163" t="n">
-        <v>4</v>
-      </c>
-      <c r="F163" t="n">
-        <v>0</v>
-      </c>
-      <c r="G163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>112</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>6_CSE_E</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>CSE313</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>Shri R. Vijay Sai</t>
-        </is>
-      </c>
-      <c r="E164" t="n">
-        <v>4</v>
-      </c>
-      <c r="F164" t="n">
-        <v>0</v>
-      </c>
-      <c r="G164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>113</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>6_CSE_E</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>CSE314R02</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>Dr. G. Pradeep</t>
-        </is>
-      </c>
-      <c r="E165" t="n">
-        <v>3</v>
-      </c>
-      <c r="F165" t="n">
-        <v>0</v>
-      </c>
-      <c r="G165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>114</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>6_CSE_E</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>CSE402</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Shri S. Ananthakrishnan</t>
-        </is>
-      </c>
-      <c r="E166" t="n">
-        <v>4</v>
-      </c>
-      <c r="F166" t="n">
-        <v>0</v>
-      </c>
-      <c r="G166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>115</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>6_CSE_E</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>INT303R01</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>Dr. N. Moratanch</t>
-        </is>
-      </c>
-      <c r="E167" t="n">
-        <v>4</v>
-      </c>
-      <c r="F167" t="n">
-        <v>0</v>
-      </c>
-      <c r="G167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>120</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>4_CSE_A</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>MAT302</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>Dr. Y. B. Venkatakrishnan</t>
-        </is>
-      </c>
-      <c r="E168" t="n">
-        <v>4</v>
-      </c>
-      <c r="F168" t="n">
-        <v>0</v>
-      </c>
-      <c r="G168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>121</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>4_CSE_A</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>CSE305R01</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>Dr. V. Meena</t>
-        </is>
-      </c>
-      <c r="E169" t="n">
-        <v>4</v>
-      </c>
-      <c r="F169" t="n">
-        <v>0</v>
-      </c>
-      <c r="G169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>122</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>4_CSE_A</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>INT102R01</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>Dr. G. Manikandan</t>
-        </is>
-      </c>
-      <c r="E170" t="n">
-        <v>3</v>
-      </c>
-      <c r="F170" t="n">
-        <v>0</v>
-      </c>
-      <c r="G170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>123</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>4_CSE_A</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>CSE205R02</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Dr. K. S. Suresh</t>
-        </is>
-      </c>
-      <c r="E171" t="n">
-        <v>4</v>
-      </c>
-      <c r="F171" t="n">
-        <v>0</v>
-      </c>
-      <c r="G171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>126</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>4_CSE_B</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>MAT302</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>Dr. S. Balaji</t>
-        </is>
-      </c>
-      <c r="E172" t="n">
-        <v>4</v>
-      </c>
-      <c r="F172" t="n">
-        <v>0</v>
-      </c>
-      <c r="G172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>127</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>4_CSE_B</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>CSE305R01</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>Dr. T. Suriya Praba</t>
-        </is>
-      </c>
-      <c r="E173" t="n">
-        <v>4</v>
-      </c>
-      <c r="F173" t="n">
-        <v>0</v>
-      </c>
-      <c r="G173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>128</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>4_CSE_B</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>INT102R01</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>Dr. S. Markkandeyan</t>
-        </is>
-      </c>
-      <c r="E174" t="n">
-        <v>3</v>
-      </c>
-      <c r="F174" t="n">
-        <v>0</v>
-      </c>
-      <c r="G174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>129</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>4_CSE_B</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>CSE205R02</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>Dr. R. Ezhilarasie</t>
-        </is>
-      </c>
-      <c r="E175" t="n">
-        <v>4</v>
-      </c>
-      <c r="F175" t="n">
-        <v>0</v>
-      </c>
-      <c r="G175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>132</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>4_CSE_C</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>MAT302</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>Dr. S. Balachandran</t>
-        </is>
-      </c>
-      <c r="E176" t="n">
-        <v>4</v>
-      </c>
-      <c r="F176" t="n">
-        <v>0</v>
-      </c>
-      <c r="G176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>133</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>4_CSE_C</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>CSE305R01</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>Dr. D. Umamaheswari</t>
-        </is>
-      </c>
-      <c r="E177" t="n">
-        <v>4</v>
-      </c>
-      <c r="F177" t="n">
-        <v>0</v>
-      </c>
-      <c r="G177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>134</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>4_CSE_C</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>INT102R01</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>Dr. V. Anand</t>
-        </is>
-      </c>
-      <c r="E178" t="n">
-        <v>3</v>
-      </c>
-      <c r="F178" t="n">
-        <v>0</v>
-      </c>
-      <c r="G178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>135</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>4_CSE_C</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>CSE205R02</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>Dr. K. Hariharan</t>
-        </is>
-      </c>
-      <c r="E179" t="n">
-        <v>4</v>
-      </c>
-      <c r="F179" t="n">
-        <v>0</v>
-      </c>
-      <c r="G179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>138</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>4_CSE_D</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>MAT302</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>Dr. P. Naveen</t>
-        </is>
-      </c>
-      <c r="E180" t="n">
-        <v>4</v>
-      </c>
-      <c r="F180" t="n">
-        <v>0</v>
-      </c>
-      <c r="G180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>139</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>4_CSE_D</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>CSE305R01</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>Dr. P. Anu</t>
-        </is>
-      </c>
-      <c r="E181" t="n">
-        <v>4</v>
-      </c>
-      <c r="F181" t="n">
-        <v>0</v>
-      </c>
-      <c r="G181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>140</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>4_CSE_D</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>INT102R01</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>Dr. R. Venkatesan</t>
-        </is>
-      </c>
-      <c r="E182" t="n">
-        <v>3</v>
-      </c>
-      <c r="F182" t="n">
-        <v>0</v>
-      </c>
-      <c r="G182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>141</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>4_CSE_D</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>CSE205R02</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>Dr. M. Meenalochani</t>
-        </is>
-      </c>
-      <c r="E183" t="n">
-        <v>4</v>
-      </c>
-      <c r="F183" t="n">
-        <v>0</v>
-      </c>
-      <c r="G183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>144</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>4_CSE_E</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>MAT302</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>Dr. G. Jegadeesan</t>
-        </is>
-      </c>
-      <c r="E184" t="n">
-        <v>4</v>
-      </c>
-      <c r="F184" t="n">
-        <v>0</v>
-      </c>
-      <c r="G184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>145</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>4_CSE_E</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>CSE305R01</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>Dr. S. Jayasankari</t>
-        </is>
-      </c>
-      <c r="E185" t="n">
-        <v>4</v>
-      </c>
-      <c r="F185" t="n">
-        <v>0</v>
-      </c>
-      <c r="G185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>146</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>4_CSE_E</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>INT102R01</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>Dr. V. Nirmala</t>
-        </is>
-      </c>
-      <c r="E186" t="n">
-        <v>3</v>
-      </c>
-      <c r="F186" t="n">
-        <v>0</v>
-      </c>
-      <c r="G186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>147</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>4_CSE_E</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>CSE205R02</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>Dr. D. Muralidharan</t>
-        </is>
-      </c>
-      <c r="E187" t="n">
-        <v>4</v>
-      </c>
-      <c r="F187" t="n">
-        <v>0</v>
-      </c>
-      <c r="G187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>150</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>6_CSBT_I</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>INT420</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>Dr. H. Anilaglory</t>
-        </is>
-      </c>
-      <c r="E188" t="n">
-        <v>4</v>
-      </c>
-      <c r="F188" t="n">
-        <v>0</v>
-      </c>
-      <c r="G188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>151</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>6_CSBT_I</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>INT320</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>Dr. Sujeet S Jagtap</t>
-        </is>
-      </c>
-      <c r="E189" t="n">
-        <v>4</v>
-      </c>
-      <c r="F189" t="n">
-        <v>0</v>
-      </c>
-      <c r="G189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>152</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>6_CSBT_I</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>INT322</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>Dr. Kannan Balasubramanian</t>
-        </is>
-      </c>
-      <c r="E190" t="n">
-        <v>3</v>
-      </c>
-      <c r="F190" t="n">
-        <v>0</v>
-      </c>
-      <c r="G190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>153</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>6_CSBT_I</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>INT323</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>Dr. R. Manikandan</t>
-        </is>
-      </c>
-      <c r="E191" t="n">
-        <v>4</v>
-      </c>
-      <c r="F191" t="n">
-        <v>0</v>
-      </c>
-      <c r="G191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>154</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>6_CSBT_I</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>INT309</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>Dr. P. Shanthi</t>
-        </is>
-      </c>
-      <c r="E192" t="n">
-        <v>3</v>
-      </c>
-      <c r="F192" t="n">
-        <v>0</v>
-      </c>
-      <c r="G192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>159</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>4_CSBT_I</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>MAT302</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>Shri B. Senthilkumar</t>
-        </is>
-      </c>
-      <c r="E193" t="n">
-        <v>4</v>
-      </c>
-      <c r="F193" t="n">
-        <v>0</v>
-      </c>
-      <c r="G193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>160</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>4_CSBT_I</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>CSE305R01</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>Dr. S. Kamakshi</t>
-        </is>
-      </c>
-      <c r="E194" t="n">
-        <v>4</v>
-      </c>
-      <c r="F194" t="n">
-        <v>0</v>
-      </c>
-      <c r="G194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>161</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>4_CSBT_I</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>INT102R01</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>Shri P. Rajendran</t>
-        </is>
-      </c>
-      <c r="E195" t="n">
-        <v>3</v>
-      </c>
-      <c r="F195" t="n">
-        <v>0</v>
-      </c>
-      <c r="G195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>162</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>4_CSBT_I</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>CSE205R02</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>Dr. M. V. Rajilal</t>
-        </is>
-      </c>
-      <c r="E196" t="n">
-        <v>4</v>
-      </c>
-      <c r="F196" t="n">
-        <v>0</v>
-      </c>
-      <c r="G196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>163</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>4_CSBT_I</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>MAT304R01</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>Dr. R. Srikanth</t>
-        </is>
-      </c>
-      <c r="E197" t="n">
-        <v>4</v>
-      </c>
-      <c r="F197" t="n">
-        <v>0</v>
-      </c>
-      <c r="G197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>166</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>6_ICT_M</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>CSE313</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>Dr. S. Ramya</t>
-        </is>
-      </c>
-      <c r="E198" t="n">
-        <v>4</v>
-      </c>
-      <c r="F198" t="n">
-        <v>0</v>
-      </c>
-      <c r="G198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>167</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>6_ICT_M</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>INT405R02</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>Dr. K. Kannan</t>
-        </is>
-      </c>
-      <c r="E199" t="n">
-        <v>4</v>
-      </c>
-      <c r="F199" t="n">
-        <v>0</v>
-      </c>
-      <c r="G199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>168</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>6_ICT_M</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>ECE312</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>Dr. R. Muthaiah</t>
-        </is>
-      </c>
-      <c r="E200" t="n">
-        <v>4</v>
-      </c>
-      <c r="F200" t="n">
-        <v>0</v>
-      </c>
-      <c r="G200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>169</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>6_ICT_M</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>INT303R01</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>Dr. G. Manikandan</t>
-        </is>
-      </c>
-      <c r="E201" t="n">
-        <v>4</v>
-      </c>
-      <c r="F201" t="n">
-        <v>0</v>
-      </c>
-      <c r="G201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>173</v>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>4_ICT_M</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>MAT310</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>Shri S. Dickson</t>
-        </is>
-      </c>
-      <c r="E202" t="n">
-        <v>4</v>
-      </c>
-      <c r="F202" t="n">
-        <v>0</v>
-      </c>
-      <c r="G202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>174</v>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>4_ICT_M</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>INT102R01</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>Dr. S. Palanivel</t>
-        </is>
-      </c>
-      <c r="E203" t="n">
-        <v>3</v>
-      </c>
-      <c r="F203" t="n">
-        <v>0</v>
-      </c>
-      <c r="G203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>175</v>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>4_ICT_M</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>CSE308</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>Dr. B. Karthikeyan</t>
-        </is>
-      </c>
-      <c r="E204" t="n">
-        <v>3</v>
-      </c>
-      <c r="F204" t="n">
-        <v>0</v>
-      </c>
-      <c r="G204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>176</v>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>4_ICT_M</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>CSE207R01</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>Dr. K. Joseph Abraham Sundar</t>
-        </is>
-      </c>
-      <c r="E205" t="n">
-        <v>4</v>
-      </c>
-      <c r="F205" t="n">
-        <v>0</v>
-      </c>
-      <c r="G205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>179</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>6_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>CSE322</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>Dr. A. Dennis Ananth</t>
-        </is>
-      </c>
-      <c r="E206" t="n">
-        <v>3</v>
-      </c>
-      <c r="F206" t="n">
-        <v>0</v>
-      </c>
-      <c r="G206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>180</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>6_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>INT313</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>Dr. Kannan Balasubramanian</t>
-        </is>
-      </c>
-      <c r="E207" t="n">
-        <v>4</v>
-      </c>
-      <c r="F207" t="n">
-        <v>0</v>
-      </c>
-      <c r="G207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>181</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>6_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>INT314</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>Dr. G. R. Brindha</t>
-        </is>
-      </c>
-      <c r="E208" t="n">
-        <v>3</v>
-      </c>
-      <c r="F208" t="n">
-        <v>0</v>
-      </c>
-      <c r="G208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>182</v>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>6_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>COM117</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>Ms. R. Nalini</t>
-        </is>
-      </c>
-      <c r="E209" t="n">
-        <v>4</v>
-      </c>
-      <c r="F209" t="n">
-        <v>0</v>
-      </c>
-      <c r="G209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>183</v>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>6_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>ENG316</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>Dr. V. Vidya</t>
-        </is>
-      </c>
-      <c r="E210" t="n">
-        <v>1</v>
-      </c>
-      <c r="F210" t="n">
-        <v>0</v>
-      </c>
-      <c r="G210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>185</v>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>6_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>MGT222</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>Dr. R. Gayathri</t>
-        </is>
-      </c>
-      <c r="E211" t="n">
-        <v>4</v>
-      </c>
-      <c r="F211" t="n">
-        <v>0</v>
-      </c>
-      <c r="G211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>188</v>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>4_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>CSE308</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>Dr. S. Rajarajan</t>
-        </is>
-      </c>
-      <c r="E212" t="n">
-        <v>3</v>
-      </c>
-      <c r="F212" t="n">
-        <v>0</v>
-      </c>
-      <c r="G212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>189</v>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>4_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>CSE215</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>Dr. G. Pradeep</t>
-        </is>
-      </c>
-      <c r="E213" t="n">
-        <v>4</v>
-      </c>
-      <c r="F213" t="n">
-        <v>0</v>
-      </c>
-      <c r="G213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>190</v>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>4_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>CSE318</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>Dr. B. Srinivasan</t>
-        </is>
-      </c>
-      <c r="E214" t="n">
-        <v>3</v>
-      </c>
-      <c r="F214" t="n">
-        <v>0</v>
-      </c>
-      <c r="G214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>191</v>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>4_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>MGT207</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>Dr. N. Shobhana</t>
-        </is>
-      </c>
-      <c r="E215" t="n">
-        <v>3</v>
-      </c>
-      <c r="F215" t="n">
-        <v>0</v>
-      </c>
-      <c r="G215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>192</v>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>4_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>ENG212</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>Shri G. Ramakrishnan</t>
-        </is>
-      </c>
-      <c r="E216" t="n">
-        <v>1</v>
-      </c>
-      <c r="F216" t="n">
-        <v>0</v>
-      </c>
-      <c r="G216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>194</v>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>4_CSBS_N</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>MAT330R01</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>Dr. V. Swaminathan</t>
-        </is>
-      </c>
-      <c r="E217" t="n">
-        <v>3</v>
-      </c>
-      <c r="F217" t="n">
-        <v>0</v>
-      </c>
-      <c r="G217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>199</v>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>6_IoTA_J</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>INT405R02</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>Dr. A. Dennis Ananth</t>
-        </is>
-      </c>
-      <c r="E218" t="n">
-        <v>4</v>
-      </c>
-      <c r="F218" t="n">
-        <v>0</v>
-      </c>
-      <c r="G218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>200</v>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>6_IoTA_J</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>CSE415R02</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>Dr. A. Umamakeswari</t>
-        </is>
-      </c>
-      <c r="E219" t="n">
-        <v>4</v>
-      </c>
-      <c r="F219" t="n">
-        <v>0</v>
-      </c>
-      <c r="G219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>201</v>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>6_IoTA_J</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>CSE335</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>Dr. R. Ezhilarasie</t>
-        </is>
-      </c>
-      <c r="E220" t="n">
-        <v>3</v>
-      </c>
-      <c r="F220" t="n">
-        <v>0</v>
-      </c>
-      <c r="G220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
-        <v>202</v>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>6_IoTA_J</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>INT307R01</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>Dr. S. Raj Anand</t>
-        </is>
-      </c>
-      <c r="E221" t="n">
-        <v>3</v>
-      </c>
-      <c r="F221" t="n">
-        <v>0</v>
-      </c>
-      <c r="G221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
-        <v>204</v>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>6_IoTA_J</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>CSE313</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>Dr. M. Lavanya</t>
-        </is>
-      </c>
-      <c r="E222" t="n">
-        <v>4</v>
-      </c>
-      <c r="F222" t="n">
-        <v>0</v>
-      </c>
-      <c r="G222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>208</v>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>4_IoTA_J</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>MAT302</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>Shri R. Sreedharan</t>
-        </is>
-      </c>
-      <c r="E223" t="n">
-        <v>4</v>
-      </c>
-      <c r="F223" t="n">
-        <v>0</v>
-      </c>
-      <c r="G223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>209</v>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>4_IoTA_J</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>CSE305R01</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>Dr. M. P. Karthikeyan</t>
-        </is>
-      </c>
-      <c r="E224" t="n">
-        <v>4</v>
-      </c>
-      <c r="F224" t="n">
-        <v>0</v>
-      </c>
-      <c r="G224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>210</v>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>4_IoTA_J</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>INT102R01</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>Dr. P. Nalayini</t>
-        </is>
-      </c>
-      <c r="E225" t="n">
-        <v>3</v>
-      </c>
-      <c r="F225" t="n">
-        <v>0</v>
-      </c>
-      <c r="G225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" t="n">
-        <v>211</v>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>4_IoTA_J</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>CSE205R02</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>Dr. R. Ananth Hari</t>
-        </is>
-      </c>
-      <c r="E226" t="n">
-        <v>4</v>
-      </c>
-      <c r="F226" t="n">
-        <v>0</v>
-      </c>
-      <c r="G226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" t="n">
-        <v>212</v>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>4_IoTA_J</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>CSE219R01</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>Dr. R. Manikandan</t>
-        </is>
-      </c>
-      <c r="E227" t="n">
-        <v>4</v>
-      </c>
-      <c r="F227" t="n">
-        <v>0</v>
-      </c>
-      <c r="G227" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
